--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3100" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="85">
   <si>
     <t>filename</t>
   </si>
@@ -276,7 +276,19 @@
     <t>synTKO_190416_1.csv</t>
   </si>
   <si>
-    <t>stko</t>
+    <t>synTKO_190416_2.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_2.csv</t>
+  </si>
+  <si>
+    <t>syntko</t>
+  </si>
+  <si>
+    <t>sytko</t>
   </si>
 </sst>
 </file>
@@ -951,11 +963,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2119712592"/>
-        <c:axId val="-2065578912"/>
+        <c:axId val="-2115390576"/>
+        <c:axId val="-2115604784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119712592"/>
+        <c:axId val="-2115390576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065578912"/>
+        <c:crossAx val="-2115604784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1006,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065578912"/>
+        <c:axId val="-2115604784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119712592"/>
+        <c:crossAx val="-2115390576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,7 +1725,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,13 +2009,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y467"/>
+  <dimension ref="A1:Y470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D457" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G466" sqref="G466"/>
+      <selection pane="bottomRight" activeCell="E470" sqref="E470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32662,7 +32674,7 @@
         <v>4</v>
       </c>
       <c r="Q411" s="1">
-        <f t="shared" ref="Q411:Q467" si="58">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q470" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" s="1" t="b">
@@ -36736,10 +36748,10 @@
         <v>1</v>
       </c>
       <c r="E467" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -36791,6 +36803,222 @@
         <v>0.05</v>
       </c>
       <c r="W467">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A468" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B468" s="2">
+        <v>190416</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1</v>
+      </c>
+      <c r="D468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E468" s="2">
+        <v>106</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468" s="1">
+        <v>100</v>
+      </c>
+      <c r="I468">
+        <v>2.4</v>
+      </c>
+      <c r="J468">
+        <v>4.8</v>
+      </c>
+      <c r="K468">
+        <v>2.1</v>
+      </c>
+      <c r="L468" s="1">
+        <v>30</v>
+      </c>
+      <c r="M468" s="1">
+        <v>50</v>
+      </c>
+      <c r="N468" s="1">
+        <v>2</v>
+      </c>
+      <c r="O468" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P468" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q468" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R468" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S468" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T468" s="2">
+        <v>5</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V468">
+        <v>0.05</v>
+      </c>
+      <c r="W468">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A469" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B469" s="2">
+        <v>190418</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1</v>
+      </c>
+      <c r="D469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E469" s="2">
+        <v>102</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+      <c r="H469" s="1">
+        <v>100</v>
+      </c>
+      <c r="I469">
+        <v>2.4</v>
+      </c>
+      <c r="J469">
+        <v>4.8</v>
+      </c>
+      <c r="K469">
+        <v>2.1</v>
+      </c>
+      <c r="L469" s="1">
+        <v>30</v>
+      </c>
+      <c r="M469" s="1">
+        <v>50</v>
+      </c>
+      <c r="N469" s="1">
+        <v>2</v>
+      </c>
+      <c r="O469" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P469" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q469" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R469" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S469" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T469" s="2">
+        <v>5</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V469">
+        <v>0.05</v>
+      </c>
+      <c r="W469">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A470" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B470" s="2">
+        <v>190418</v>
+      </c>
+      <c r="C470" s="2">
+        <v>1</v>
+      </c>
+      <c r="D470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E470" s="2">
+        <v>102</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470" s="1">
+        <v>100</v>
+      </c>
+      <c r="I470">
+        <v>2.4</v>
+      </c>
+      <c r="J470">
+        <v>4.8</v>
+      </c>
+      <c r="K470">
+        <v>2.1</v>
+      </c>
+      <c r="L470" s="1">
+        <v>30</v>
+      </c>
+      <c r="M470" s="1">
+        <v>50</v>
+      </c>
+      <c r="N470" s="1">
+        <v>2</v>
+      </c>
+      <c r="O470" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P470" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q470" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R470" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S470" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T470" s="2">
+        <v>5</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V470">
+        <v>0.05</v>
+      </c>
+      <c r="W470">
         <v>20</v>
       </c>
     </row>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
@@ -2012,10 +2012,10 @@
   <dimension ref="A1:Y470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="L447" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E470" sqref="E470"/>
+      <selection pane="bottomRight" activeCell="S470" sqref="S470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37007,7 +37007,7 @@
         <v>1</v>
       </c>
       <c r="S470" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T470" s="2">
         <v>5</v>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$470</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="92">
   <si>
     <t>filename</t>
   </si>
@@ -273,22 +273,43 @@
     <t>s</t>
   </si>
   <si>
-    <t>synTKO_190416_1.csv</t>
-  </si>
-  <si>
-    <t>synTKO_190416_2.csv</t>
-  </si>
-  <si>
     <t>synTKO_190418a_1.csv</t>
-  </si>
-  <si>
-    <t>synTKO_190418b_2.csv</t>
   </si>
   <si>
     <t>syntko</t>
   </si>
   <si>
-    <t>sytko</t>
+    <t>synTKO_190416a_10mg-kg AMPH_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_10mg-kgAMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190418a</t>
+  </si>
+  <si>
+    <t>190418b</t>
+  </si>
+  <si>
+    <t>190416a</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_10mgAMPH_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_10mgkgAMPH_2.csv</t>
+  </si>
+  <si>
+    <t>190416b</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_1.csv</t>
   </si>
 </sst>
 </file>
@@ -963,11 +984,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2115390576"/>
-        <c:axId val="-2115604784"/>
+        <c:axId val="-2110931136"/>
+        <c:axId val="-2110995168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115390576"/>
+        <c:axId val="-2110931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115604784"/>
+        <c:crossAx val="-2110995168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115604784"/>
+        <c:axId val="-2110995168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115390576"/>
+        <c:crossAx val="-2110931136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1725,7 +1746,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,13 +2030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y470"/>
+  <dimension ref="A1:Y530"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L447" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D450" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S470" sqref="S470"/>
+      <selection pane="bottomRight" activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32674,7 +32695,7 @@
         <v>4</v>
       </c>
       <c r="Q411" s="1">
-        <f t="shared" ref="Q411:Q470" si="58">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q474" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" s="1" t="b">
@@ -36736,10 +36757,10 @@
     </row>
     <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B467" s="2">
-        <v>190416</v>
+        <v>89</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C467" s="2">
         <v>1</v>
@@ -36751,7 +36772,7 @@
         <v>102</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -36808,10 +36829,10 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B468" s="2">
-        <v>190416</v>
+        <v>90</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C468" s="2">
         <v>1</v>
@@ -36823,7 +36844,7 @@
         <v>106</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G468">
         <v>0</v>
@@ -36880,10 +36901,10 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B469" s="2">
-        <v>190418</v>
+        <v>79</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C469" s="2">
         <v>1</v>
@@ -36895,7 +36916,7 @@
         <v>102</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G469">
         <v>0</v>
@@ -36952,10 +36973,10 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B470" s="2">
-        <v>190418</v>
+        <v>91</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C470" s="2">
         <v>1</v>
@@ -36967,7 +36988,7 @@
         <v>102</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -37022,8 +37043,4328 @@
         <v>20</v>
       </c>
     </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A471" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1</v>
+      </c>
+      <c r="D471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E471" s="2">
+        <v>103</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+      <c r="H471" s="1">
+        <v>100</v>
+      </c>
+      <c r="I471">
+        <v>2.4</v>
+      </c>
+      <c r="J471">
+        <v>4.8</v>
+      </c>
+      <c r="K471">
+        <v>2.1</v>
+      </c>
+      <c r="L471" s="1">
+        <v>30</v>
+      </c>
+      <c r="M471" s="1">
+        <v>50</v>
+      </c>
+      <c r="N471" s="1">
+        <v>2</v>
+      </c>
+      <c r="O471" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P471" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q471" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R471" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S471" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T471" s="2">
+        <v>5</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V471">
+        <v>0.05</v>
+      </c>
+      <c r="W471">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A472" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C472" s="2">
+        <v>2</v>
+      </c>
+      <c r="D472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E472" s="2">
+        <v>1303</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+      <c r="H472" s="1">
+        <v>100</v>
+      </c>
+      <c r="I472">
+        <v>2.4</v>
+      </c>
+      <c r="J472">
+        <v>4.8</v>
+      </c>
+      <c r="K472">
+        <v>2.1</v>
+      </c>
+      <c r="L472" s="1">
+        <v>30</v>
+      </c>
+      <c r="M472" s="1">
+        <v>50</v>
+      </c>
+      <c r="N472" s="1">
+        <v>2</v>
+      </c>
+      <c r="O472" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P472" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q472" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R472" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S472" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T472" s="2">
+        <v>5</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V472">
+        <v>0.05</v>
+      </c>
+      <c r="W472">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A473" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C473" s="2">
+        <v>3</v>
+      </c>
+      <c r="D473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E473" s="2">
+        <v>2506</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473" s="1">
+        <v>100</v>
+      </c>
+      <c r="I473">
+        <v>2.4</v>
+      </c>
+      <c r="J473">
+        <v>4.8</v>
+      </c>
+      <c r="K473">
+        <v>2.1</v>
+      </c>
+      <c r="L473" s="1">
+        <v>30</v>
+      </c>
+      <c r="M473" s="1">
+        <v>50</v>
+      </c>
+      <c r="N473" s="1">
+        <v>2</v>
+      </c>
+      <c r="O473" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P473" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q473" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R473" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S473" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T473" s="2">
+        <v>5</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V473">
+        <v>0.05</v>
+      </c>
+      <c r="W473">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A474" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C474" s="2">
+        <v>4</v>
+      </c>
+      <c r="D474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E474" s="2">
+        <v>3703</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474" s="1">
+        <v>100</v>
+      </c>
+      <c r="I474">
+        <v>2.4</v>
+      </c>
+      <c r="J474">
+        <v>4.8</v>
+      </c>
+      <c r="K474">
+        <v>2.1</v>
+      </c>
+      <c r="L474" s="1">
+        <v>30</v>
+      </c>
+      <c r="M474" s="1">
+        <v>50</v>
+      </c>
+      <c r="N474" s="1">
+        <v>2</v>
+      </c>
+      <c r="O474" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P474" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q474" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R474" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S474" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T474" s="2">
+        <v>5</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V474">
+        <v>0.05</v>
+      </c>
+      <c r="W474">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A475" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C475" s="2">
+        <v>5</v>
+      </c>
+      <c r="D475" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E475" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G475">
+        <v>1</v>
+      </c>
+      <c r="H475" s="1">
+        <v>100</v>
+      </c>
+      <c r="I475">
+        <v>2.4</v>
+      </c>
+      <c r="J475">
+        <v>4.8</v>
+      </c>
+      <c r="K475">
+        <v>2.1</v>
+      </c>
+      <c r="L475" s="1">
+        <v>30</v>
+      </c>
+      <c r="M475" s="1">
+        <v>50</v>
+      </c>
+      <c r="N475" s="1">
+        <v>2</v>
+      </c>
+      <c r="O475" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P475" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q475" s="1">
+        <f t="shared" ref="Q475:Q530" si="64">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R475" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S475" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T475" s="2">
+        <v>5</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V475">
+        <v>0.05</v>
+      </c>
+      <c r="W475">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A476" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C476" s="2">
+        <v>6</v>
+      </c>
+      <c r="D476" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E476" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G476">
+        <v>1</v>
+      </c>
+      <c r="H476" s="1">
+        <v>100</v>
+      </c>
+      <c r="I476">
+        <v>2.4</v>
+      </c>
+      <c r="J476">
+        <v>4.8</v>
+      </c>
+      <c r="K476">
+        <v>2.1</v>
+      </c>
+      <c r="L476" s="1">
+        <v>30</v>
+      </c>
+      <c r="M476" s="1">
+        <v>50</v>
+      </c>
+      <c r="N476" s="1">
+        <v>2</v>
+      </c>
+      <c r="O476" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P476" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q476" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R476" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S476" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T476" s="2">
+        <v>5</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V476">
+        <v>0.05</v>
+      </c>
+      <c r="W476">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A477" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C477" s="2">
+        <v>7</v>
+      </c>
+      <c r="D477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E477" s="2">
+        <v>7299</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477" s="1">
+        <v>100</v>
+      </c>
+      <c r="I477">
+        <v>2.4</v>
+      </c>
+      <c r="J477">
+        <v>4.8</v>
+      </c>
+      <c r="K477">
+        <v>2.1</v>
+      </c>
+      <c r="L477" s="1">
+        <v>30</v>
+      </c>
+      <c r="M477" s="1">
+        <v>50</v>
+      </c>
+      <c r="N477" s="1">
+        <v>2</v>
+      </c>
+      <c r="O477" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P477" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q477" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R477" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S477" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T477" s="2">
+        <v>5</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V477">
+        <v>0.05</v>
+      </c>
+      <c r="W477">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A478" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C478" s="2">
+        <v>8</v>
+      </c>
+      <c r="D478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E478" s="2">
+        <v>8501</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G478">
+        <v>1</v>
+      </c>
+      <c r="H478" s="1">
+        <v>100</v>
+      </c>
+      <c r="I478">
+        <v>2.4</v>
+      </c>
+      <c r="J478">
+        <v>4.8</v>
+      </c>
+      <c r="K478">
+        <v>2.1</v>
+      </c>
+      <c r="L478" s="1">
+        <v>30</v>
+      </c>
+      <c r="M478" s="1">
+        <v>50</v>
+      </c>
+      <c r="N478" s="1">
+        <v>2</v>
+      </c>
+      <c r="O478" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P478" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q478" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R478" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S478" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T478" s="2">
+        <v>5</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V478">
+        <v>0.05</v>
+      </c>
+      <c r="W478">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A479" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C479" s="2">
+        <v>9</v>
+      </c>
+      <c r="D479" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E479" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G479">
+        <v>1</v>
+      </c>
+      <c r="H479" s="1">
+        <v>100</v>
+      </c>
+      <c r="I479">
+        <v>2.4</v>
+      </c>
+      <c r="J479">
+        <v>4.8</v>
+      </c>
+      <c r="K479">
+        <v>2.1</v>
+      </c>
+      <c r="L479" s="1">
+        <v>30</v>
+      </c>
+      <c r="M479" s="1">
+        <v>50</v>
+      </c>
+      <c r="N479" s="1">
+        <v>2</v>
+      </c>
+      <c r="O479" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P479" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q479" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R479" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S479" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T479" s="2">
+        <v>5</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V479">
+        <v>0.05</v>
+      </c>
+      <c r="W479">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A480" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C480" s="2">
+        <v>10</v>
+      </c>
+      <c r="D480" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E480" s="2">
+        <v>1089.9000000000001</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480" s="1">
+        <v>100</v>
+      </c>
+      <c r="I480">
+        <v>2.4</v>
+      </c>
+      <c r="J480">
+        <v>4.8</v>
+      </c>
+      <c r="K480">
+        <v>2.1</v>
+      </c>
+      <c r="L480" s="1">
+        <v>30</v>
+      </c>
+      <c r="M480" s="1">
+        <v>50</v>
+      </c>
+      <c r="N480" s="1">
+        <v>2</v>
+      </c>
+      <c r="O480" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P480" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q480" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R480" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S480" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T480" s="2">
+        <v>5</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V480">
+        <v>0.05</v>
+      </c>
+      <c r="W480">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A481" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C481" s="2">
+        <v>11</v>
+      </c>
+      <c r="D481" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E481" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G481">
+        <v>1</v>
+      </c>
+      <c r="H481" s="1">
+        <v>100</v>
+      </c>
+      <c r="I481">
+        <v>2.4</v>
+      </c>
+      <c r="J481">
+        <v>4.8</v>
+      </c>
+      <c r="K481">
+        <v>2.1</v>
+      </c>
+      <c r="L481" s="1">
+        <v>30</v>
+      </c>
+      <c r="M481" s="1">
+        <v>50</v>
+      </c>
+      <c r="N481" s="1">
+        <v>2</v>
+      </c>
+      <c r="O481" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P481" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q481" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R481" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S481" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T481" s="2">
+        <v>5</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V481">
+        <v>0.05</v>
+      </c>
+      <c r="W481">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A482" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C482" s="2">
+        <v>12</v>
+      </c>
+      <c r="D482" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E482" s="2">
+        <v>13297</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482" s="1">
+        <v>100</v>
+      </c>
+      <c r="I482">
+        <v>2.4</v>
+      </c>
+      <c r="J482">
+        <v>4.8</v>
+      </c>
+      <c r="K482">
+        <v>2.1</v>
+      </c>
+      <c r="L482" s="1">
+        <v>30</v>
+      </c>
+      <c r="M482" s="1">
+        <v>50</v>
+      </c>
+      <c r="N482" s="1">
+        <v>2</v>
+      </c>
+      <c r="O482" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P482" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q482" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R482" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S482" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T482" s="2">
+        <v>5</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V482">
+        <v>0.05</v>
+      </c>
+      <c r="W482">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A483" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C483" s="2">
+        <v>13</v>
+      </c>
+      <c r="D483" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E483" s="2">
+        <v>14503</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483" s="1">
+        <v>100</v>
+      </c>
+      <c r="I483">
+        <v>2.4</v>
+      </c>
+      <c r="J483">
+        <v>4.8</v>
+      </c>
+      <c r="K483">
+        <v>2.1</v>
+      </c>
+      <c r="L483" s="1">
+        <v>30</v>
+      </c>
+      <c r="M483" s="1">
+        <v>50</v>
+      </c>
+      <c r="N483" s="1">
+        <v>2</v>
+      </c>
+      <c r="O483" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P483" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q483" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R483" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S483" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T483" s="2">
+        <v>5</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V483">
+        <v>0.05</v>
+      </c>
+      <c r="W483">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A484" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C484" s="2">
+        <v>14</v>
+      </c>
+      <c r="D484" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E484" s="2">
+        <v>15698</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484" s="1">
+        <v>100</v>
+      </c>
+      <c r="I484">
+        <v>2.4</v>
+      </c>
+      <c r="J484">
+        <v>4.8</v>
+      </c>
+      <c r="K484">
+        <v>2.1</v>
+      </c>
+      <c r="L484" s="1">
+        <v>30</v>
+      </c>
+      <c r="M484" s="1">
+        <v>50</v>
+      </c>
+      <c r="N484" s="1">
+        <v>2</v>
+      </c>
+      <c r="O484" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P484" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q484" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R484" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S484" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T484" s="2">
+        <v>5</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V484">
+        <v>0.05</v>
+      </c>
+      <c r="W484">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A485" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C485" s="2">
+        <v>15</v>
+      </c>
+      <c r="D485" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E485" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G485">
+        <v>1</v>
+      </c>
+      <c r="H485" s="1">
+        <v>100</v>
+      </c>
+      <c r="I485">
+        <v>2.4</v>
+      </c>
+      <c r="J485">
+        <v>4.8</v>
+      </c>
+      <c r="K485">
+        <v>2.1</v>
+      </c>
+      <c r="L485" s="1">
+        <v>30</v>
+      </c>
+      <c r="M485" s="1">
+        <v>50</v>
+      </c>
+      <c r="N485" s="1">
+        <v>2</v>
+      </c>
+      <c r="O485" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P485" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q485" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R485" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S485" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T485" s="2">
+        <v>5</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V485">
+        <v>0.05</v>
+      </c>
+      <c r="W485">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A486" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C486" s="2">
+        <v>16</v>
+      </c>
+      <c r="D486" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E486" s="2">
+        <v>104</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486" s="1">
+        <v>100</v>
+      </c>
+      <c r="I486">
+        <v>2.4</v>
+      </c>
+      <c r="J486">
+        <v>4.8</v>
+      </c>
+      <c r="K486">
+        <v>2.1</v>
+      </c>
+      <c r="L486" s="1">
+        <v>30</v>
+      </c>
+      <c r="M486" s="1">
+        <v>50</v>
+      </c>
+      <c r="N486" s="1">
+        <v>2</v>
+      </c>
+      <c r="O486" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P486" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q486" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R486" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S486" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T486" s="2">
+        <v>5</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V486">
+        <v>0.05</v>
+      </c>
+      <c r="W486">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A487" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C487" s="2">
+        <v>17</v>
+      </c>
+      <c r="D487" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E487" s="2">
+        <v>1299</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G487">
+        <v>1</v>
+      </c>
+      <c r="H487" s="1">
+        <v>100</v>
+      </c>
+      <c r="I487">
+        <v>2.4</v>
+      </c>
+      <c r="J487">
+        <v>4.8</v>
+      </c>
+      <c r="K487">
+        <v>2.1</v>
+      </c>
+      <c r="L487" s="1">
+        <v>30</v>
+      </c>
+      <c r="M487" s="1">
+        <v>50</v>
+      </c>
+      <c r="N487" s="1">
+        <v>2</v>
+      </c>
+      <c r="O487" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P487" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q487" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R487" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S487" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T487" s="2">
+        <v>5</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V487">
+        <v>0.05</v>
+      </c>
+      <c r="W487">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A488" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C488" s="2">
+        <v>18</v>
+      </c>
+      <c r="D488" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E488" s="2">
+        <v>2505</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G488">
+        <v>1</v>
+      </c>
+      <c r="H488" s="1">
+        <v>100</v>
+      </c>
+      <c r="I488">
+        <v>2.4</v>
+      </c>
+      <c r="J488">
+        <v>4.8</v>
+      </c>
+      <c r="K488">
+        <v>2.1</v>
+      </c>
+      <c r="L488" s="1">
+        <v>30</v>
+      </c>
+      <c r="M488" s="1">
+        <v>50</v>
+      </c>
+      <c r="N488" s="1">
+        <v>2</v>
+      </c>
+      <c r="O488" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P488" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q488" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R488" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S488" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T488" s="2">
+        <v>5</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V488">
+        <v>0.05</v>
+      </c>
+      <c r="W488">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A489" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C489" s="2">
+        <v>19</v>
+      </c>
+      <c r="D489" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E489" s="2">
+        <v>3703</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489" s="1">
+        <v>100</v>
+      </c>
+      <c r="I489">
+        <v>2.4</v>
+      </c>
+      <c r="J489">
+        <v>4.8</v>
+      </c>
+      <c r="K489">
+        <v>2.1</v>
+      </c>
+      <c r="L489" s="1">
+        <v>30</v>
+      </c>
+      <c r="M489" s="1">
+        <v>50</v>
+      </c>
+      <c r="N489" s="1">
+        <v>2</v>
+      </c>
+      <c r="O489" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P489" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q489" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R489" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S489" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T489" s="2">
+        <v>5</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V489">
+        <v>0.05</v>
+      </c>
+      <c r="W489">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A490" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C490" s="2">
+        <v>20</v>
+      </c>
+      <c r="D490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E490" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490" s="1">
+        <v>100</v>
+      </c>
+      <c r="I490">
+        <v>2.4</v>
+      </c>
+      <c r="J490">
+        <v>4.8</v>
+      </c>
+      <c r="K490">
+        <v>2.1</v>
+      </c>
+      <c r="L490" s="1">
+        <v>30</v>
+      </c>
+      <c r="M490" s="1">
+        <v>50</v>
+      </c>
+      <c r="N490" s="1">
+        <v>2</v>
+      </c>
+      <c r="O490" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P490" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q490" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R490" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S490" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T490" s="2">
+        <v>5</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V490">
+        <v>0.05</v>
+      </c>
+      <c r="W490">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A491" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C491" s="2">
+        <v>21</v>
+      </c>
+      <c r="D491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E491" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491" s="1">
+        <v>100</v>
+      </c>
+      <c r="I491">
+        <v>2.4</v>
+      </c>
+      <c r="J491">
+        <v>4.8</v>
+      </c>
+      <c r="K491">
+        <v>2.1</v>
+      </c>
+      <c r="L491" s="1">
+        <v>30</v>
+      </c>
+      <c r="M491" s="1">
+        <v>50</v>
+      </c>
+      <c r="N491" s="1">
+        <v>2</v>
+      </c>
+      <c r="O491" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P491" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q491" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R491" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S491" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T491" s="2">
+        <v>5</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V491">
+        <v>0.05</v>
+      </c>
+      <c r="W491">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A492" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C492" s="2">
+        <v>22</v>
+      </c>
+      <c r="D492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E492" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492" s="1">
+        <v>100</v>
+      </c>
+      <c r="I492">
+        <v>2.4</v>
+      </c>
+      <c r="J492">
+        <v>4.8</v>
+      </c>
+      <c r="K492">
+        <v>2.1</v>
+      </c>
+      <c r="L492" s="1">
+        <v>30</v>
+      </c>
+      <c r="M492" s="1">
+        <v>50</v>
+      </c>
+      <c r="N492" s="1">
+        <v>2</v>
+      </c>
+      <c r="O492" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P492" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q492" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R492" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S492" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T492" s="2">
+        <v>5</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V492">
+        <v>0.05</v>
+      </c>
+      <c r="W492">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A493" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C493" s="2">
+        <v>23</v>
+      </c>
+      <c r="D493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E493" s="2">
+        <v>8500</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493" s="1">
+        <v>100</v>
+      </c>
+      <c r="I493">
+        <v>2.4</v>
+      </c>
+      <c r="J493">
+        <v>4.8</v>
+      </c>
+      <c r="K493">
+        <v>2.1</v>
+      </c>
+      <c r="L493" s="1">
+        <v>30</v>
+      </c>
+      <c r="M493" s="1">
+        <v>50</v>
+      </c>
+      <c r="N493" s="1">
+        <v>2</v>
+      </c>
+      <c r="O493" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P493" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q493" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R493" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S493" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T493" s="2">
+        <v>5</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V493">
+        <v>0.05</v>
+      </c>
+      <c r="W493">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A494" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C494" s="2">
+        <v>24</v>
+      </c>
+      <c r="D494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E494" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494" s="1">
+        <v>100</v>
+      </c>
+      <c r="I494">
+        <v>2.4</v>
+      </c>
+      <c r="J494">
+        <v>4.8</v>
+      </c>
+      <c r="K494">
+        <v>2.1</v>
+      </c>
+      <c r="L494" s="1">
+        <v>30</v>
+      </c>
+      <c r="M494" s="1">
+        <v>50</v>
+      </c>
+      <c r="N494" s="1">
+        <v>2</v>
+      </c>
+      <c r="O494" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P494" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q494" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R494" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S494" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T494" s="2">
+        <v>5</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V494">
+        <v>0.05</v>
+      </c>
+      <c r="W494">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A495" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C495" s="2">
+        <v>25</v>
+      </c>
+      <c r="D495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E495" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495" s="1">
+        <v>100</v>
+      </c>
+      <c r="I495">
+        <v>2.4</v>
+      </c>
+      <c r="J495">
+        <v>4.8</v>
+      </c>
+      <c r="K495">
+        <v>2.1</v>
+      </c>
+      <c r="L495" s="1">
+        <v>30</v>
+      </c>
+      <c r="M495" s="1">
+        <v>50</v>
+      </c>
+      <c r="N495" s="1">
+        <v>2</v>
+      </c>
+      <c r="O495" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P495" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q495" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R495" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S495" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T495" s="2">
+        <v>5</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V495">
+        <v>0.05</v>
+      </c>
+      <c r="W495">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A496" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C496" s="2">
+        <v>26</v>
+      </c>
+      <c r="D496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G496">
+        <v>1</v>
+      </c>
+      <c r="H496" s="1">
+        <v>100</v>
+      </c>
+      <c r="I496">
+        <v>2.4</v>
+      </c>
+      <c r="J496">
+        <v>4.8</v>
+      </c>
+      <c r="K496">
+        <v>2.1</v>
+      </c>
+      <c r="L496" s="1">
+        <v>30</v>
+      </c>
+      <c r="M496" s="1">
+        <v>50</v>
+      </c>
+      <c r="N496" s="1">
+        <v>2</v>
+      </c>
+      <c r="O496" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P496" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q496" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R496" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S496" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T496" s="2">
+        <v>5</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V496">
+        <v>0.05</v>
+      </c>
+      <c r="W496">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A497" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C497" s="2">
+        <v>27</v>
+      </c>
+      <c r="D497" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E497" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497" s="1">
+        <v>100</v>
+      </c>
+      <c r="I497">
+        <v>2.4</v>
+      </c>
+      <c r="J497">
+        <v>4.8</v>
+      </c>
+      <c r="K497">
+        <v>2.1</v>
+      </c>
+      <c r="L497" s="1">
+        <v>30</v>
+      </c>
+      <c r="M497" s="1">
+        <v>50</v>
+      </c>
+      <c r="N497" s="1">
+        <v>2</v>
+      </c>
+      <c r="O497" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P497" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q497" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R497" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S497" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T497" s="2">
+        <v>5</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V497">
+        <v>0.05</v>
+      </c>
+      <c r="W497">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A498" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C498" s="2">
+        <v>28</v>
+      </c>
+      <c r="D498" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E498" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498" s="1">
+        <v>100</v>
+      </c>
+      <c r="I498">
+        <v>2.4</v>
+      </c>
+      <c r="J498">
+        <v>4.8</v>
+      </c>
+      <c r="K498">
+        <v>2.1</v>
+      </c>
+      <c r="L498" s="1">
+        <v>30</v>
+      </c>
+      <c r="M498" s="1">
+        <v>50</v>
+      </c>
+      <c r="N498" s="1">
+        <v>2</v>
+      </c>
+      <c r="O498" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P498" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q498" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R498" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S498" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T498" s="2">
+        <v>5</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V498">
+        <v>0.05</v>
+      </c>
+      <c r="W498">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C499" s="2">
+        <v>29</v>
+      </c>
+      <c r="D499" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E499" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G499">
+        <v>1</v>
+      </c>
+      <c r="H499" s="1">
+        <v>100</v>
+      </c>
+      <c r="I499">
+        <v>2.4</v>
+      </c>
+      <c r="J499">
+        <v>4.8</v>
+      </c>
+      <c r="K499">
+        <v>2.1</v>
+      </c>
+      <c r="L499" s="1">
+        <v>30</v>
+      </c>
+      <c r="M499" s="1">
+        <v>50</v>
+      </c>
+      <c r="N499" s="1">
+        <v>2</v>
+      </c>
+      <c r="O499" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P499" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q499" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R499" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S499" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T499" s="2">
+        <v>5</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V499">
+        <v>0.05</v>
+      </c>
+      <c r="W499">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A500" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C500" s="2">
+        <v>30</v>
+      </c>
+      <c r="D500" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E500" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+      <c r="H500" s="1">
+        <v>100</v>
+      </c>
+      <c r="I500">
+        <v>2.4</v>
+      </c>
+      <c r="J500">
+        <v>4.8</v>
+      </c>
+      <c r="K500">
+        <v>2.1</v>
+      </c>
+      <c r="L500" s="1">
+        <v>30</v>
+      </c>
+      <c r="M500" s="1">
+        <v>50</v>
+      </c>
+      <c r="N500" s="1">
+        <v>2</v>
+      </c>
+      <c r="O500" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P500" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q500" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R500" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S500" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T500" s="2">
+        <v>5</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V500">
+        <v>0.05</v>
+      </c>
+      <c r="W500">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A501" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C501" s="2">
+        <v>1</v>
+      </c>
+      <c r="D501" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E501" s="2">
+        <v>104</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+      <c r="H501" s="1">
+        <v>100</v>
+      </c>
+      <c r="I501">
+        <v>2.4</v>
+      </c>
+      <c r="J501">
+        <v>4.8</v>
+      </c>
+      <c r="K501">
+        <v>2.1</v>
+      </c>
+      <c r="L501" s="1">
+        <v>30</v>
+      </c>
+      <c r="M501" s="1">
+        <v>50</v>
+      </c>
+      <c r="N501" s="1">
+        <v>2</v>
+      </c>
+      <c r="O501" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P501" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q501" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R501" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S501" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T501" s="2">
+        <v>5</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V501">
+        <v>0.05</v>
+      </c>
+      <c r="W501">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A502" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C502" s="2">
+        <v>2</v>
+      </c>
+      <c r="D502" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E502" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+      <c r="H502" s="1">
+        <v>100</v>
+      </c>
+      <c r="I502">
+        <v>2.4</v>
+      </c>
+      <c r="J502">
+        <v>4.8</v>
+      </c>
+      <c r="K502">
+        <v>2.1</v>
+      </c>
+      <c r="L502" s="1">
+        <v>30</v>
+      </c>
+      <c r="M502" s="1">
+        <v>50</v>
+      </c>
+      <c r="N502" s="1">
+        <v>2</v>
+      </c>
+      <c r="O502" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P502" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q502" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R502" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S502" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T502" s="2">
+        <v>5</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V502">
+        <v>0.05</v>
+      </c>
+      <c r="W502">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A503" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C503" s="2">
+        <v>3</v>
+      </c>
+      <c r="D503" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E503" s="2">
+        <v>2502</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503" s="1">
+        <v>100</v>
+      </c>
+      <c r="I503">
+        <v>2.4</v>
+      </c>
+      <c r="J503">
+        <v>4.8</v>
+      </c>
+      <c r="K503">
+        <v>2.1</v>
+      </c>
+      <c r="L503" s="1">
+        <v>30</v>
+      </c>
+      <c r="M503" s="1">
+        <v>50</v>
+      </c>
+      <c r="N503" s="1">
+        <v>2</v>
+      </c>
+      <c r="O503" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P503" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q503" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R503" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S503" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T503" s="2">
+        <v>5</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V503">
+        <v>0.05</v>
+      </c>
+      <c r="W503">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A504" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C504" s="2">
+        <v>4</v>
+      </c>
+      <c r="D504" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E504" s="2">
+        <v>3701</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504" s="1">
+        <v>100</v>
+      </c>
+      <c r="I504">
+        <v>2.4</v>
+      </c>
+      <c r="J504">
+        <v>4.8</v>
+      </c>
+      <c r="K504">
+        <v>2.1</v>
+      </c>
+      <c r="L504" s="1">
+        <v>30</v>
+      </c>
+      <c r="M504" s="1">
+        <v>50</v>
+      </c>
+      <c r="N504" s="1">
+        <v>2</v>
+      </c>
+      <c r="O504" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P504" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q504" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R504" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S504" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T504" s="2">
+        <v>5</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V504">
+        <v>0.05</v>
+      </c>
+      <c r="W504">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A505" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C505" s="2">
+        <v>5</v>
+      </c>
+      <c r="D505" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E505" s="2">
+        <v>4905</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505" s="1">
+        <v>100</v>
+      </c>
+      <c r="I505">
+        <v>2.4</v>
+      </c>
+      <c r="J505">
+        <v>4.8</v>
+      </c>
+      <c r="K505">
+        <v>2.1</v>
+      </c>
+      <c r="L505" s="1">
+        <v>30</v>
+      </c>
+      <c r="M505" s="1">
+        <v>50</v>
+      </c>
+      <c r="N505" s="1">
+        <v>2</v>
+      </c>
+      <c r="O505" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P505" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q505" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R505" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S505" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T505" s="2">
+        <v>5</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V505">
+        <v>0.05</v>
+      </c>
+      <c r="W505">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A506" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C506" s="2">
+        <v>6</v>
+      </c>
+      <c r="D506" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E506" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506" s="1">
+        <v>100</v>
+      </c>
+      <c r="I506">
+        <v>2.4</v>
+      </c>
+      <c r="J506">
+        <v>4.8</v>
+      </c>
+      <c r="K506">
+        <v>2.1</v>
+      </c>
+      <c r="L506" s="1">
+        <v>30</v>
+      </c>
+      <c r="M506" s="1">
+        <v>50</v>
+      </c>
+      <c r="N506" s="1">
+        <v>2</v>
+      </c>
+      <c r="O506" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P506" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q506" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R506" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S506" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T506" s="2">
+        <v>5</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V506">
+        <v>0.05</v>
+      </c>
+      <c r="W506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A507" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C507" s="2">
+        <v>7</v>
+      </c>
+      <c r="D507" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E507" s="2">
+        <v>7301</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507" s="1">
+        <v>100</v>
+      </c>
+      <c r="I507">
+        <v>2.4</v>
+      </c>
+      <c r="J507">
+        <v>4.8</v>
+      </c>
+      <c r="K507">
+        <v>2.1</v>
+      </c>
+      <c r="L507" s="1">
+        <v>30</v>
+      </c>
+      <c r="M507" s="1">
+        <v>50</v>
+      </c>
+      <c r="N507" s="1">
+        <v>2</v>
+      </c>
+      <c r="O507" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P507" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q507" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R507" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S507" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T507" s="2">
+        <v>5</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V507">
+        <v>0.05</v>
+      </c>
+      <c r="W507">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A508" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C508" s="2">
+        <v>8</v>
+      </c>
+      <c r="D508" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E508" s="2">
+        <v>8502</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G508">
+        <v>1</v>
+      </c>
+      <c r="H508" s="1">
+        <v>100</v>
+      </c>
+      <c r="I508">
+        <v>2.4</v>
+      </c>
+      <c r="J508">
+        <v>4.8</v>
+      </c>
+      <c r="K508">
+        <v>2.1</v>
+      </c>
+      <c r="L508" s="1">
+        <v>30</v>
+      </c>
+      <c r="M508" s="1">
+        <v>50</v>
+      </c>
+      <c r="N508" s="1">
+        <v>2</v>
+      </c>
+      <c r="O508" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P508" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q508" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R508" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S508" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T508" s="2">
+        <v>5</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V508">
+        <v>0.05</v>
+      </c>
+      <c r="W508">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A509" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C509" s="2">
+        <v>9</v>
+      </c>
+      <c r="D509" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E509" s="2">
+        <v>9703</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G509">
+        <v>1</v>
+      </c>
+      <c r="H509" s="1">
+        <v>100</v>
+      </c>
+      <c r="I509">
+        <v>2.4</v>
+      </c>
+      <c r="J509">
+        <v>4.8</v>
+      </c>
+      <c r="K509">
+        <v>2.1</v>
+      </c>
+      <c r="L509" s="1">
+        <v>30</v>
+      </c>
+      <c r="M509" s="1">
+        <v>50</v>
+      </c>
+      <c r="N509" s="1">
+        <v>2</v>
+      </c>
+      <c r="O509" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P509" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q509" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R509" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S509" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T509" s="2">
+        <v>5</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V509">
+        <v>0.05</v>
+      </c>
+      <c r="W509">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A510" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C510" s="2">
+        <v>10</v>
+      </c>
+      <c r="D510" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E510" s="2">
+        <v>10900</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510" s="1">
+        <v>100</v>
+      </c>
+      <c r="I510">
+        <v>2.4</v>
+      </c>
+      <c r="J510">
+        <v>4.8</v>
+      </c>
+      <c r="K510">
+        <v>2.1</v>
+      </c>
+      <c r="L510" s="1">
+        <v>30</v>
+      </c>
+      <c r="M510" s="1">
+        <v>50</v>
+      </c>
+      <c r="N510" s="1">
+        <v>2</v>
+      </c>
+      <c r="O510" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P510" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q510" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R510" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S510" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T510" s="2">
+        <v>5</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V510">
+        <v>0.05</v>
+      </c>
+      <c r="W510">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A511" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C511" s="2">
+        <v>11</v>
+      </c>
+      <c r="D511" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E511" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G511">
+        <v>1</v>
+      </c>
+      <c r="H511" s="1">
+        <v>100</v>
+      </c>
+      <c r="I511">
+        <v>2.4</v>
+      </c>
+      <c r="J511">
+        <v>4.8</v>
+      </c>
+      <c r="K511">
+        <v>2.1</v>
+      </c>
+      <c r="L511" s="1">
+        <v>30</v>
+      </c>
+      <c r="M511" s="1">
+        <v>50</v>
+      </c>
+      <c r="N511" s="1">
+        <v>2</v>
+      </c>
+      <c r="O511" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P511" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q511" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R511" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S511" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T511" s="2">
+        <v>5</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V511">
+        <v>0.05</v>
+      </c>
+      <c r="W511">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A512" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C512" s="2">
+        <v>12</v>
+      </c>
+      <c r="D512" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E512" s="2">
+        <v>13299</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512" s="1">
+        <v>100</v>
+      </c>
+      <c r="I512">
+        <v>2.4</v>
+      </c>
+      <c r="J512">
+        <v>4.8</v>
+      </c>
+      <c r="K512">
+        <v>2.1</v>
+      </c>
+      <c r="L512" s="1">
+        <v>30</v>
+      </c>
+      <c r="M512" s="1">
+        <v>50</v>
+      </c>
+      <c r="N512" s="1">
+        <v>2</v>
+      </c>
+      <c r="O512" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P512" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q512" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R512" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S512" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T512" s="2">
+        <v>5</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V512">
+        <v>0.05</v>
+      </c>
+      <c r="W512">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A513" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C513" s="2">
+        <v>13</v>
+      </c>
+      <c r="D513" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E513" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513" s="1">
+        <v>100</v>
+      </c>
+      <c r="I513">
+        <v>2.4</v>
+      </c>
+      <c r="J513">
+        <v>4.8</v>
+      </c>
+      <c r="K513">
+        <v>2.1</v>
+      </c>
+      <c r="L513" s="1">
+        <v>30</v>
+      </c>
+      <c r="M513" s="1">
+        <v>50</v>
+      </c>
+      <c r="N513" s="1">
+        <v>2</v>
+      </c>
+      <c r="O513" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P513" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q513" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R513" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S513" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T513" s="2">
+        <v>5</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V513">
+        <v>0.05</v>
+      </c>
+      <c r="W513">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A514" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C514" s="2">
+        <v>14</v>
+      </c>
+      <c r="D514" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E514" s="2">
+        <v>15704</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514" s="1">
+        <v>100</v>
+      </c>
+      <c r="I514">
+        <v>2.4</v>
+      </c>
+      <c r="J514">
+        <v>4.8</v>
+      </c>
+      <c r="K514">
+        <v>2.1</v>
+      </c>
+      <c r="L514" s="1">
+        <v>30</v>
+      </c>
+      <c r="M514" s="1">
+        <v>50</v>
+      </c>
+      <c r="N514" s="1">
+        <v>2</v>
+      </c>
+      <c r="O514" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P514" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q514" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R514" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S514" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T514" s="2">
+        <v>5</v>
+      </c>
+      <c r="U514" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V514">
+        <v>0.05</v>
+      </c>
+      <c r="W514">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A515" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C515" s="2">
+        <v>15</v>
+      </c>
+      <c r="D515" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E515" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515" s="1">
+        <v>100</v>
+      </c>
+      <c r="I515">
+        <v>2.4</v>
+      </c>
+      <c r="J515">
+        <v>4.8</v>
+      </c>
+      <c r="K515">
+        <v>2.1</v>
+      </c>
+      <c r="L515" s="1">
+        <v>30</v>
+      </c>
+      <c r="M515" s="1">
+        <v>50</v>
+      </c>
+      <c r="N515" s="1">
+        <v>2</v>
+      </c>
+      <c r="O515" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P515" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q515" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R515" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S515" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T515" s="2">
+        <v>5</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V515">
+        <v>0.05</v>
+      </c>
+      <c r="W515">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A516" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C516" s="2">
+        <v>16</v>
+      </c>
+      <c r="D516" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E516" s="2">
+        <v>103</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516" s="1">
+        <v>100</v>
+      </c>
+      <c r="I516">
+        <v>2.4</v>
+      </c>
+      <c r="J516">
+        <v>4.8</v>
+      </c>
+      <c r="K516">
+        <v>2.1</v>
+      </c>
+      <c r="L516" s="1">
+        <v>30</v>
+      </c>
+      <c r="M516" s="1">
+        <v>50</v>
+      </c>
+      <c r="N516" s="1">
+        <v>2</v>
+      </c>
+      <c r="O516" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P516" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q516" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R516" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S516" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T516" s="2">
+        <v>5</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V516">
+        <v>0.05</v>
+      </c>
+      <c r="W516">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A517" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C517" s="2">
+        <v>17</v>
+      </c>
+      <c r="D517" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E517" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517" s="1">
+        <v>100</v>
+      </c>
+      <c r="I517">
+        <v>2.4</v>
+      </c>
+      <c r="J517">
+        <v>4.8</v>
+      </c>
+      <c r="K517">
+        <v>2.1</v>
+      </c>
+      <c r="L517" s="1">
+        <v>30</v>
+      </c>
+      <c r="M517" s="1">
+        <v>50</v>
+      </c>
+      <c r="N517" s="1">
+        <v>2</v>
+      </c>
+      <c r="O517" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P517" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q517" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R517" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S517" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T517" s="2">
+        <v>5</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V517">
+        <v>0.05</v>
+      </c>
+      <c r="W517">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A518" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C518" s="2">
+        <v>18</v>
+      </c>
+      <c r="D518" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E518" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G518">
+        <v>1</v>
+      </c>
+      <c r="H518" s="1">
+        <v>100</v>
+      </c>
+      <c r="I518">
+        <v>2.4</v>
+      </c>
+      <c r="J518">
+        <v>4.8</v>
+      </c>
+      <c r="K518">
+        <v>2.1</v>
+      </c>
+      <c r="L518" s="1">
+        <v>30</v>
+      </c>
+      <c r="M518" s="1">
+        <v>50</v>
+      </c>
+      <c r="N518" s="1">
+        <v>2</v>
+      </c>
+      <c r="O518" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P518" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q518" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R518" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S518" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T518" s="2">
+        <v>5</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V518">
+        <v>0.05</v>
+      </c>
+      <c r="W518">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A519" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C519" s="2">
+        <v>19</v>
+      </c>
+      <c r="D519" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E519" s="2">
+        <v>3698</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519" s="1">
+        <v>100</v>
+      </c>
+      <c r="I519">
+        <v>2.4</v>
+      </c>
+      <c r="J519">
+        <v>4.8</v>
+      </c>
+      <c r="K519">
+        <v>2.1</v>
+      </c>
+      <c r="L519" s="1">
+        <v>30</v>
+      </c>
+      <c r="M519" s="1">
+        <v>50</v>
+      </c>
+      <c r="N519" s="1">
+        <v>2</v>
+      </c>
+      <c r="O519" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P519" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q519" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R519" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S519" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T519" s="2">
+        <v>5</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V519">
+        <v>0.05</v>
+      </c>
+      <c r="W519">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A520" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C520" s="2">
+        <v>20</v>
+      </c>
+      <c r="D520" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E520" s="2">
+        <v>4900</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G520">
+        <v>1</v>
+      </c>
+      <c r="H520" s="1">
+        <v>100</v>
+      </c>
+      <c r="I520">
+        <v>2.4</v>
+      </c>
+      <c r="J520">
+        <v>4.8</v>
+      </c>
+      <c r="K520">
+        <v>2.1</v>
+      </c>
+      <c r="L520" s="1">
+        <v>30</v>
+      </c>
+      <c r="M520" s="1">
+        <v>50</v>
+      </c>
+      <c r="N520" s="1">
+        <v>2</v>
+      </c>
+      <c r="O520" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P520" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q520" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R520" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S520" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T520" s="2">
+        <v>5</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V520">
+        <v>0.05</v>
+      </c>
+      <c r="W520">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A521" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C521" s="2">
+        <v>21</v>
+      </c>
+      <c r="D521" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E521" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521" s="1">
+        <v>100</v>
+      </c>
+      <c r="I521">
+        <v>2.4</v>
+      </c>
+      <c r="J521">
+        <v>4.8</v>
+      </c>
+      <c r="K521">
+        <v>2.1</v>
+      </c>
+      <c r="L521" s="1">
+        <v>30</v>
+      </c>
+      <c r="M521" s="1">
+        <v>50</v>
+      </c>
+      <c r="N521" s="1">
+        <v>2</v>
+      </c>
+      <c r="O521" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P521" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q521" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R521" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S521" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T521" s="2">
+        <v>5</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V521">
+        <v>0.05</v>
+      </c>
+      <c r="W521">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A522" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C522" s="2">
+        <v>22</v>
+      </c>
+      <c r="D522" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E522" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522" s="1">
+        <v>100</v>
+      </c>
+      <c r="I522">
+        <v>2.4</v>
+      </c>
+      <c r="J522">
+        <v>4.8</v>
+      </c>
+      <c r="K522">
+        <v>2.1</v>
+      </c>
+      <c r="L522" s="1">
+        <v>30</v>
+      </c>
+      <c r="M522" s="1">
+        <v>50</v>
+      </c>
+      <c r="N522" s="1">
+        <v>2</v>
+      </c>
+      <c r="O522" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P522" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q522" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R522" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S522" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T522" s="2">
+        <v>5</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V522">
+        <v>0.05</v>
+      </c>
+      <c r="W522">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A523" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C523" s="2">
+        <v>23</v>
+      </c>
+      <c r="D523" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E523" s="2">
+        <v>8499</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G523">
+        <v>1</v>
+      </c>
+      <c r="H523" s="1">
+        <v>100</v>
+      </c>
+      <c r="I523">
+        <v>2.4</v>
+      </c>
+      <c r="J523">
+        <v>4.8</v>
+      </c>
+      <c r="K523">
+        <v>2.1</v>
+      </c>
+      <c r="L523" s="1">
+        <v>30</v>
+      </c>
+      <c r="M523" s="1">
+        <v>50</v>
+      </c>
+      <c r="N523" s="1">
+        <v>2</v>
+      </c>
+      <c r="O523" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P523" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q523" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R523" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S523" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T523" s="2">
+        <v>5</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V523">
+        <v>0.05</v>
+      </c>
+      <c r="W523">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A524" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C524" s="2">
+        <v>24</v>
+      </c>
+      <c r="D524" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E524" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524" s="1">
+        <v>100</v>
+      </c>
+      <c r="I524">
+        <v>2.4</v>
+      </c>
+      <c r="J524">
+        <v>4.8</v>
+      </c>
+      <c r="K524">
+        <v>2.1</v>
+      </c>
+      <c r="L524" s="1">
+        <v>30</v>
+      </c>
+      <c r="M524" s="1">
+        <v>50</v>
+      </c>
+      <c r="N524" s="1">
+        <v>2</v>
+      </c>
+      <c r="O524" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P524" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q524" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R524" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S524" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T524" s="2">
+        <v>5</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V524">
+        <v>0.05</v>
+      </c>
+      <c r="W524">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A525" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C525" s="2">
+        <v>25</v>
+      </c>
+      <c r="D525" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E525" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525" s="1">
+        <v>100</v>
+      </c>
+      <c r="I525">
+        <v>2.4</v>
+      </c>
+      <c r="J525">
+        <v>4.8</v>
+      </c>
+      <c r="K525">
+        <v>2.1</v>
+      </c>
+      <c r="L525" s="1">
+        <v>30</v>
+      </c>
+      <c r="M525" s="1">
+        <v>50</v>
+      </c>
+      <c r="N525" s="1">
+        <v>2</v>
+      </c>
+      <c r="O525" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P525" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q525" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R525" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S525" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T525" s="2">
+        <v>5</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V525">
+        <v>0.05</v>
+      </c>
+      <c r="W525">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A526" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C526" s="2">
+        <v>26</v>
+      </c>
+      <c r="D526" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E526" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526" s="1">
+        <v>100</v>
+      </c>
+      <c r="I526">
+        <v>2.4</v>
+      </c>
+      <c r="J526">
+        <v>4.8</v>
+      </c>
+      <c r="K526">
+        <v>2.1</v>
+      </c>
+      <c r="L526" s="1">
+        <v>30</v>
+      </c>
+      <c r="M526" s="1">
+        <v>50</v>
+      </c>
+      <c r="N526" s="1">
+        <v>2</v>
+      </c>
+      <c r="O526" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P526" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q526" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R526" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S526" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T526" s="2">
+        <v>5</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V526">
+        <v>0.05</v>
+      </c>
+      <c r="W526">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A527" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C527" s="2">
+        <v>27</v>
+      </c>
+      <c r="D527" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E527" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G527">
+        <v>1</v>
+      </c>
+      <c r="H527" s="1">
+        <v>100</v>
+      </c>
+      <c r="I527">
+        <v>2.4</v>
+      </c>
+      <c r="J527">
+        <v>4.8</v>
+      </c>
+      <c r="K527">
+        <v>2.1</v>
+      </c>
+      <c r="L527" s="1">
+        <v>30</v>
+      </c>
+      <c r="M527" s="1">
+        <v>50</v>
+      </c>
+      <c r="N527" s="1">
+        <v>2</v>
+      </c>
+      <c r="O527" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P527" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q527" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R527" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S527" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T527" s="2">
+        <v>5</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V527">
+        <v>0.05</v>
+      </c>
+      <c r="W527">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A528" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C528" s="2">
+        <v>28</v>
+      </c>
+      <c r="D528" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E528" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528" s="1">
+        <v>100</v>
+      </c>
+      <c r="I528">
+        <v>2.4</v>
+      </c>
+      <c r="J528">
+        <v>4.8</v>
+      </c>
+      <c r="K528">
+        <v>2.1</v>
+      </c>
+      <c r="L528" s="1">
+        <v>30</v>
+      </c>
+      <c r="M528" s="1">
+        <v>50</v>
+      </c>
+      <c r="N528" s="1">
+        <v>2</v>
+      </c>
+      <c r="O528" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P528" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q528" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R528" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S528" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T528" s="2">
+        <v>5</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V528">
+        <v>0.05</v>
+      </c>
+      <c r="W528">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A529" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C529" s="2">
+        <v>29</v>
+      </c>
+      <c r="D529" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E529" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G529">
+        <v>1</v>
+      </c>
+      <c r="H529" s="1">
+        <v>100</v>
+      </c>
+      <c r="I529">
+        <v>2.4</v>
+      </c>
+      <c r="J529">
+        <v>4.8</v>
+      </c>
+      <c r="K529">
+        <v>2.1</v>
+      </c>
+      <c r="L529" s="1">
+        <v>30</v>
+      </c>
+      <c r="M529" s="1">
+        <v>50</v>
+      </c>
+      <c r="N529" s="1">
+        <v>2</v>
+      </c>
+      <c r="O529" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P529" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q529" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R529" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S529" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T529" s="2">
+        <v>5</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V529">
+        <v>0.05</v>
+      </c>
+      <c r="W529">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A530" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C530" s="2">
+        <v>30</v>
+      </c>
+      <c r="D530" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E530" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530" s="1">
+        <v>100</v>
+      </c>
+      <c r="I530">
+        <v>2.4</v>
+      </c>
+      <c r="J530">
+        <v>4.8</v>
+      </c>
+      <c r="K530">
+        <v>2.1</v>
+      </c>
+      <c r="L530" s="1">
+        <v>30</v>
+      </c>
+      <c r="M530" s="1">
+        <v>50</v>
+      </c>
+      <c r="N530" s="1">
+        <v>2</v>
+      </c>
+      <c r="O530" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P530" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q530" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R530" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S530" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T530" s="2">
+        <v>5</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V530">
+        <v>0.05</v>
+      </c>
+      <c r="W530">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y466"/>
+  <autoFilter ref="A1:Y470"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$485</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="112">
   <si>
     <t>filename</t>
   </si>
@@ -310,6 +310,66 @@
   </si>
   <si>
     <t>synTKO_190418b_1.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_2.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_3.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_4.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_5.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416a_6.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_2.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_3.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_4.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_5.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190416b_6.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_2.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_3.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_4.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_5.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418a_6.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_2.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_3.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_4.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_5.csv</t>
+  </si>
+  <si>
+    <t>synTKO_190418b_6.csv</t>
   </si>
 </sst>
 </file>
@@ -984,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2110931136"/>
-        <c:axId val="-2110995168"/>
+        <c:axId val="-2093617296"/>
+        <c:axId val="-2093620928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110931136"/>
+        <c:axId val="-2093617296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110995168"/>
+        <c:crossAx val="-2093620928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110995168"/>
+        <c:axId val="-2093620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110931136"/>
+        <c:crossAx val="-2093617296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,7 +1806,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,13 +2090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y530"/>
+  <dimension ref="A1:Y550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D450" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A470" sqref="A470"/>
+      <selection pane="bottomRight" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32695,7 +32755,7 @@
         <v>4</v>
       </c>
       <c r="Q411" s="1">
-        <f t="shared" ref="Q411:Q474" si="58">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q494" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" s="1" t="b">
@@ -36829,19 +36889,19 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C468" s="2">
         <v>1</v>
       </c>
       <c r="D468" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E468" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>80</v>
@@ -36901,10 +36961,10 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C469" s="2">
         <v>1</v>
@@ -36913,7 +36973,7 @@
         <v>1</v>
       </c>
       <c r="E469" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>80</v>
@@ -36973,10 +37033,10 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C470" s="2">
         <v>1</v>
@@ -36985,7 +37045,7 @@
         <v>1</v>
       </c>
       <c r="E470" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>80</v>
@@ -37028,7 +37088,7 @@
         <v>1</v>
       </c>
       <c r="S470" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T470" s="2">
         <v>5</v>
@@ -37045,7 +37105,7 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>85</v>
@@ -37057,7 +37117,7 @@
         <v>1</v>
       </c>
       <c r="E471" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>80</v>
@@ -37117,19 +37177,19 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C472" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D472" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E472" s="2">
-        <v>1303</v>
+        <v>106</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>80</v>
@@ -37162,7 +37222,7 @@
         <v>1000</v>
       </c>
       <c r="P472" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q472" s="1">
         <f t="shared" si="58"/>
@@ -37189,19 +37249,19 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C473" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D473" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E473" s="2">
-        <v>2506</v>
+        <v>105</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>80</v>
@@ -37234,7 +37294,7 @@
         <v>1000</v>
       </c>
       <c r="P473" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q473" s="1">
         <f t="shared" si="58"/>
@@ -37261,25 +37321,25 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C474" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D474" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E474" s="2">
-        <v>3703</v>
+        <v>103</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H474" s="1">
         <v>100</v>
@@ -37306,7 +37366,7 @@
         <v>1000</v>
       </c>
       <c r="P474" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q474" s="1">
         <f t="shared" si="58"/>
@@ -37333,25 +37393,25 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C475" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D475" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E475" s="2">
-        <v>4901</v>
+        <v>103</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H475" s="1">
         <v>100</v>
@@ -37378,10 +37438,10 @@
         <v>1000</v>
       </c>
       <c r="P475" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q475" s="1">
-        <f t="shared" ref="Q475:Q530" si="64">2.7*10^-6</f>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R475" s="1" t="b">
@@ -37405,25 +37465,25 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C476" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D476" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E476" s="2">
-        <v>6100</v>
+        <v>104</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H476" s="1">
         <v>100</v>
@@ -37450,10 +37510,10 @@
         <v>1000</v>
       </c>
       <c r="P476" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q476" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R476" s="1" t="b">
@@ -37477,25 +37537,25 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C477" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D477" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E477" s="2">
-        <v>7299</v>
+        <v>106</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H477" s="1">
         <v>100</v>
@@ -37522,10 +37582,10 @@
         <v>1000</v>
       </c>
       <c r="P477" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q477" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R477" s="1" t="b">
@@ -37549,25 +37609,25 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C478" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D478" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E478" s="2">
-        <v>8501</v>
+        <v>102</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H478" s="1">
         <v>100</v>
@@ -37594,10 +37654,10 @@
         <v>1000</v>
       </c>
       <c r="P478" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q478" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R478" s="1" t="b">
@@ -37621,25 +37681,25 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C479" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D479" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E479" s="2">
-        <v>9699</v>
+        <v>102</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H479" s="1">
         <v>100</v>
@@ -37666,10 +37726,10 @@
         <v>1000</v>
       </c>
       <c r="P479" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q479" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R479" s="1" t="b">
@@ -37693,25 +37753,25 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C480" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D480" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E480" s="2">
-        <v>1089.9000000000001</v>
+        <v>105</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H480" s="1">
         <v>100</v>
@@ -37738,10 +37798,10 @@
         <v>1000</v>
       </c>
       <c r="P480" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q480" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R480" s="1" t="b">
@@ -37765,25 +37825,25 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C481" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D481" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E481" s="2">
-        <v>12098</v>
+        <v>102</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H481" s="1">
         <v>100</v>
@@ -37810,10 +37870,10 @@
         <v>1000</v>
       </c>
       <c r="P481" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q481" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R481" s="1" t="b">
@@ -37837,25 +37897,25 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C482" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D482" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E482" s="2">
-        <v>13297</v>
+        <v>102</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H482" s="1">
         <v>100</v>
@@ -37882,10 +37942,10 @@
         <v>1000</v>
       </c>
       <c r="P482" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q482" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R482" s="1" t="b">
@@ -37909,25 +37969,25 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C483" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D483" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E483" s="2">
-        <v>14503</v>
+        <v>102</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H483" s="1">
         <v>100</v>
@@ -37954,10 +38014,10 @@
         <v>1000</v>
       </c>
       <c r="P483" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q483" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R483" s="1" t="b">
@@ -37981,25 +38041,25 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C484" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D484" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E484" s="2">
-        <v>15698</v>
+        <v>102</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H484" s="1">
         <v>100</v>
@@ -38026,10 +38086,10 @@
         <v>1000</v>
       </c>
       <c r="P484" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q484" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R484" s="1" t="b">
@@ -38053,25 +38113,25 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C485" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D485" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E485" s="2">
-        <v>16896</v>
+        <v>102</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H485" s="1">
         <v>100</v>
@@ -38098,17 +38158,17 @@
         <v>1000</v>
       </c>
       <c r="P485" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q485" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R485" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S485" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T485" s="2">
         <v>5</v>
@@ -38125,25 +38185,25 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C486" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D486" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E486" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H486" s="1">
         <v>100</v>
@@ -38170,17 +38230,17 @@
         <v>1000</v>
       </c>
       <c r="P486" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q486" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R486" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S486" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T486" s="2">
         <v>5</v>
@@ -38197,25 +38257,25 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C487" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D487" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E487" s="2">
-        <v>1299</v>
+        <v>108</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H487" s="1">
         <v>100</v>
@@ -38242,17 +38302,17 @@
         <v>1000</v>
       </c>
       <c r="P487" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q487" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R487" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S487" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T487" s="2">
         <v>5</v>
@@ -38269,25 +38329,25 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C488" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D488" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E488" s="2">
-        <v>2505</v>
+        <v>108</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H488" s="1">
         <v>100</v>
@@ -38314,17 +38374,17 @@
         <v>1000</v>
       </c>
       <c r="P488" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q488" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R488" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S488" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T488" s="2">
         <v>5</v>
@@ -38341,25 +38401,25 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C489" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D489" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E489" s="2">
-        <v>3703</v>
+        <v>105</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H489" s="1">
         <v>100</v>
@@ -38386,17 +38446,17 @@
         <v>1000</v>
       </c>
       <c r="P489" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q489" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R489" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S489" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T489" s="2">
         <v>5</v>
@@ -38413,25 +38473,25 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C490" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D490" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E490" s="2">
-        <v>4901</v>
+        <v>109</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H490" s="1">
         <v>100</v>
@@ -38458,17 +38518,17 @@
         <v>1000</v>
       </c>
       <c r="P490" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q490" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R490" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S490" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T490" s="2">
         <v>5</v>
@@ -38485,25 +38545,25 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C491" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D491" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E491" s="2">
-        <v>6101</v>
+        <v>103</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H491" s="1">
         <v>100</v>
@@ -38530,10 +38590,10 @@
         <v>1000</v>
       </c>
       <c r="P491" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q491" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R491" s="1" t="b">
@@ -38557,25 +38617,25 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C492" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D492" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E492" s="2">
-        <v>7300</v>
+        <v>1303</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H492" s="1">
         <v>100</v>
@@ -38602,10 +38662,10 @@
         <v>1000</v>
       </c>
       <c r="P492" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q492" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R492" s="1" t="b">
@@ -38629,25 +38689,25 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C493" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D493" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E493" s="2">
-        <v>8500</v>
+        <v>2506</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H493" s="1">
         <v>100</v>
@@ -38674,10 +38734,10 @@
         <v>1000</v>
       </c>
       <c r="P493" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q493" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R493" s="1" t="b">
@@ -38701,19 +38761,19 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C494" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D494" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494" s="2">
-        <v>9699</v>
+        <v>3703</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>80</v>
@@ -38746,10 +38806,10 @@
         <v>1000</v>
       </c>
       <c r="P494" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q494" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R494" s="1" t="b">
@@ -38773,19 +38833,19 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C495" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D495" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E495" s="2">
-        <v>10899</v>
+        <v>4901</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>80</v>
@@ -38818,10 +38878,10 @@
         <v>1000</v>
       </c>
       <c r="P495" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q495" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="Q495:Q550" si="64">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R495" s="1" t="b">
@@ -38845,19 +38905,19 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C496" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D496" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E496" s="2">
-        <v>12098</v>
+        <v>6100</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>80</v>
@@ -38890,7 +38950,7 @@
         <v>1000</v>
       </c>
       <c r="P496" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q496" s="1">
         <f t="shared" si="64"/>
@@ -38917,19 +38977,19 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C497" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D497" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E497" s="2">
-        <v>13298</v>
+        <v>7299</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>80</v>
@@ -38962,7 +39022,7 @@
         <v>1000</v>
       </c>
       <c r="P497" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q497" s="1">
         <f t="shared" si="64"/>
@@ -38989,19 +39049,19 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C498" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D498" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E498" s="2">
-        <v>14498</v>
+        <v>8501</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>80</v>
@@ -39034,7 +39094,7 @@
         <v>1000</v>
       </c>
       <c r="P498" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q498" s="1">
         <f t="shared" si="64"/>
@@ -39061,19 +39121,19 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C499" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D499" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E499" s="2">
-        <v>15697</v>
+        <v>9699</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>80</v>
@@ -39106,7 +39166,7 @@
         <v>1000</v>
       </c>
       <c r="P499" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q499" s="1">
         <f t="shared" si="64"/>
@@ -39133,19 +39193,19 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C500" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D500" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E500" s="2">
-        <v>16897</v>
+        <v>1089.9000000000001</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>80</v>
@@ -39178,7 +39238,7 @@
         <v>1000</v>
       </c>
       <c r="P500" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q500" s="1">
         <f t="shared" si="64"/>
@@ -39205,25 +39265,25 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C501" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D501" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E501" s="2">
-        <v>104</v>
+        <v>12098</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G501">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H501" s="1">
         <v>100</v>
@@ -39250,7 +39310,7 @@
         <v>1000</v>
       </c>
       <c r="P501" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q501" s="1">
         <f t="shared" si="64"/>
@@ -39277,25 +39337,25 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C502" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D502" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502" s="2">
-        <v>1302</v>
+        <v>13297</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H502" s="1">
         <v>100</v>
@@ -39322,7 +39382,7 @@
         <v>1000</v>
       </c>
       <c r="P502" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q502" s="1">
         <f t="shared" si="64"/>
@@ -39349,25 +39409,25 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C503" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D503" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E503" s="2">
-        <v>2502</v>
+        <v>14503</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H503" s="1">
         <v>100</v>
@@ -39394,7 +39454,7 @@
         <v>1000</v>
       </c>
       <c r="P503" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q503" s="1">
         <f t="shared" si="64"/>
@@ -39421,19 +39481,19 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C504" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D504" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E504" s="2">
-        <v>3701</v>
+        <v>15698</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>80</v>
@@ -39466,7 +39526,7 @@
         <v>1000</v>
       </c>
       <c r="P504" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q504" s="1">
         <f t="shared" si="64"/>
@@ -39493,19 +39553,19 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C505" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D505" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E505" s="2">
-        <v>4905</v>
+        <v>16896</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>80</v>
@@ -39565,19 +39625,19 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C506" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D506" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E506" s="2">
-        <v>6101</v>
+        <v>104</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>80</v>
@@ -39637,19 +39697,19 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C507" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D507" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507" s="2">
-        <v>7301</v>
+        <v>1299</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>80</v>
@@ -39709,19 +39769,19 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C508" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D508" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E508" s="2">
-        <v>8502</v>
+        <v>2505</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>80</v>
@@ -39781,19 +39841,19 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C509" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D509" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E509" s="2">
-        <v>9703</v>
+        <v>3703</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>80</v>
@@ -39853,19 +39913,19 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C510" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D510" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E510" s="2">
-        <v>10900</v>
+        <v>4901</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>80</v>
@@ -39925,19 +39985,19 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C511" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D511" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E511" s="2">
-        <v>12098</v>
+        <v>6101</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>80</v>
@@ -39997,19 +40057,19 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C512" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D512" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E512" s="2">
-        <v>13299</v>
+        <v>7300</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>80</v>
@@ -40069,19 +40129,19 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C513" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D513" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E513" s="2">
-        <v>14498</v>
+        <v>8500</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>80</v>
@@ -40141,19 +40201,19 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C514" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D514" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514" s="2">
-        <v>15704</v>
+        <v>9699</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>80</v>
@@ -40213,19 +40273,19 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C515" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D515" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E515" s="2">
-        <v>16897</v>
+        <v>10899</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>80</v>
@@ -40285,19 +40345,19 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C516" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D516" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E516" s="2">
-        <v>103</v>
+        <v>12098</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>80</v>
@@ -40357,19 +40417,19 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C517" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D517" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E517" s="2">
-        <v>1302</v>
+        <v>13298</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>80</v>
@@ -40429,19 +40489,19 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C518" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D518" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E518" s="2">
-        <v>2500</v>
+        <v>14498</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>80</v>
@@ -40501,19 +40561,19 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C519" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D519" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E519" s="2">
-        <v>3698</v>
+        <v>15697</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>80</v>
@@ -40573,19 +40633,19 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C520" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D520" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E520" s="2">
-        <v>4900</v>
+        <v>16897</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>80</v>
@@ -40645,25 +40705,25 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C521" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D521" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E521" s="2">
-        <v>6100</v>
+        <v>104</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H521" s="1">
         <v>100</v>
@@ -40717,25 +40777,25 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C522" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D522" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E522" s="2">
-        <v>7300</v>
+        <v>1302</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H522" s="1">
         <v>100</v>
@@ -40789,25 +40849,25 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C523" s="2">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D523" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E523" s="2">
-        <v>8499</v>
+        <v>2502</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H523" s="1">
         <v>100</v>
@@ -40861,19 +40921,19 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C524" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D524" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E524" s="2">
-        <v>9699</v>
+        <v>3701</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>80</v>
@@ -40933,19 +40993,19 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C525" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D525" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E525" s="2">
-        <v>10899</v>
+        <v>4905</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>80</v>
@@ -41005,19 +41065,19 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C526" s="2">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D526" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E526" s="2">
-        <v>12098</v>
+        <v>6101</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>80</v>
@@ -41077,19 +41137,19 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C527" s="2">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D527" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E527" s="2">
-        <v>13298</v>
+        <v>7301</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>80</v>
@@ -41149,19 +41209,19 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C528" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D528" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E528" s="2">
-        <v>14498</v>
+        <v>8502</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>80</v>
@@ -41221,19 +41281,19 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C529" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D529" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E529" s="2">
-        <v>15697</v>
+        <v>9703</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>80</v>
@@ -41293,19 +41353,19 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C530" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D530" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E530" s="2">
-        <v>16896</v>
+        <v>10900</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>80</v>
@@ -41363,8 +41423,1448 @@
         <v>20</v>
       </c>
     </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A531" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C531" s="2">
+        <v>11</v>
+      </c>
+      <c r="D531" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E531" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531" s="1">
+        <v>100</v>
+      </c>
+      <c r="I531">
+        <v>2.4</v>
+      </c>
+      <c r="J531">
+        <v>4.8</v>
+      </c>
+      <c r="K531">
+        <v>2.1</v>
+      </c>
+      <c r="L531" s="1">
+        <v>30</v>
+      </c>
+      <c r="M531" s="1">
+        <v>50</v>
+      </c>
+      <c r="N531" s="1">
+        <v>2</v>
+      </c>
+      <c r="O531" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P531" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q531" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R531" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S531" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T531" s="2">
+        <v>5</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V531">
+        <v>0.05</v>
+      </c>
+      <c r="W531">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A532" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C532" s="2">
+        <v>12</v>
+      </c>
+      <c r="D532" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" s="2">
+        <v>13299</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532" s="1">
+        <v>100</v>
+      </c>
+      <c r="I532">
+        <v>2.4</v>
+      </c>
+      <c r="J532">
+        <v>4.8</v>
+      </c>
+      <c r="K532">
+        <v>2.1</v>
+      </c>
+      <c r="L532" s="1">
+        <v>30</v>
+      </c>
+      <c r="M532" s="1">
+        <v>50</v>
+      </c>
+      <c r="N532" s="1">
+        <v>2</v>
+      </c>
+      <c r="O532" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P532" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q532" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R532" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S532" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T532" s="2">
+        <v>5</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V532">
+        <v>0.05</v>
+      </c>
+      <c r="W532">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A533" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C533" s="2">
+        <v>13</v>
+      </c>
+      <c r="D533" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E533" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G533">
+        <v>1</v>
+      </c>
+      <c r="H533" s="1">
+        <v>100</v>
+      </c>
+      <c r="I533">
+        <v>2.4</v>
+      </c>
+      <c r="J533">
+        <v>4.8</v>
+      </c>
+      <c r="K533">
+        <v>2.1</v>
+      </c>
+      <c r="L533" s="1">
+        <v>30</v>
+      </c>
+      <c r="M533" s="1">
+        <v>50</v>
+      </c>
+      <c r="N533" s="1">
+        <v>2</v>
+      </c>
+      <c r="O533" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P533" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q533" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R533" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S533" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T533" s="2">
+        <v>5</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V533">
+        <v>0.05</v>
+      </c>
+      <c r="W533">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A534" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C534" s="2">
+        <v>14</v>
+      </c>
+      <c r="D534" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E534" s="2">
+        <v>15704</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534" s="1">
+        <v>100</v>
+      </c>
+      <c r="I534">
+        <v>2.4</v>
+      </c>
+      <c r="J534">
+        <v>4.8</v>
+      </c>
+      <c r="K534">
+        <v>2.1</v>
+      </c>
+      <c r="L534" s="1">
+        <v>30</v>
+      </c>
+      <c r="M534" s="1">
+        <v>50</v>
+      </c>
+      <c r="N534" s="1">
+        <v>2</v>
+      </c>
+      <c r="O534" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P534" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q534" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R534" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S534" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T534" s="2">
+        <v>5</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V534">
+        <v>0.05</v>
+      </c>
+      <c r="W534">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A535" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C535" s="2">
+        <v>15</v>
+      </c>
+      <c r="D535" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E535" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+      <c r="H535" s="1">
+        <v>100</v>
+      </c>
+      <c r="I535">
+        <v>2.4</v>
+      </c>
+      <c r="J535">
+        <v>4.8</v>
+      </c>
+      <c r="K535">
+        <v>2.1</v>
+      </c>
+      <c r="L535" s="1">
+        <v>30</v>
+      </c>
+      <c r="M535" s="1">
+        <v>50</v>
+      </c>
+      <c r="N535" s="1">
+        <v>2</v>
+      </c>
+      <c r="O535" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P535" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q535" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R535" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S535" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T535" s="2">
+        <v>5</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V535">
+        <v>0.05</v>
+      </c>
+      <c r="W535">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A536" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C536" s="2">
+        <v>16</v>
+      </c>
+      <c r="D536" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E536" s="2">
+        <v>103</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G536">
+        <v>1</v>
+      </c>
+      <c r="H536" s="1">
+        <v>100</v>
+      </c>
+      <c r="I536">
+        <v>2.4</v>
+      </c>
+      <c r="J536">
+        <v>4.8</v>
+      </c>
+      <c r="K536">
+        <v>2.1</v>
+      </c>
+      <c r="L536" s="1">
+        <v>30</v>
+      </c>
+      <c r="M536" s="1">
+        <v>50</v>
+      </c>
+      <c r="N536" s="1">
+        <v>2</v>
+      </c>
+      <c r="O536" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P536" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q536" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R536" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S536" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T536" s="2">
+        <v>5</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V536">
+        <v>0.05</v>
+      </c>
+      <c r="W536">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A537" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C537" s="2">
+        <v>17</v>
+      </c>
+      <c r="D537" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E537" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537" s="1">
+        <v>100</v>
+      </c>
+      <c r="I537">
+        <v>2.4</v>
+      </c>
+      <c r="J537">
+        <v>4.8</v>
+      </c>
+      <c r="K537">
+        <v>2.1</v>
+      </c>
+      <c r="L537" s="1">
+        <v>30</v>
+      </c>
+      <c r="M537" s="1">
+        <v>50</v>
+      </c>
+      <c r="N537" s="1">
+        <v>2</v>
+      </c>
+      <c r="O537" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P537" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q537" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R537" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S537" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T537" s="2">
+        <v>5</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V537">
+        <v>0.05</v>
+      </c>
+      <c r="W537">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A538" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C538" s="2">
+        <v>18</v>
+      </c>
+      <c r="D538" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E538" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G538">
+        <v>1</v>
+      </c>
+      <c r="H538" s="1">
+        <v>100</v>
+      </c>
+      <c r="I538">
+        <v>2.4</v>
+      </c>
+      <c r="J538">
+        <v>4.8</v>
+      </c>
+      <c r="K538">
+        <v>2.1</v>
+      </c>
+      <c r="L538" s="1">
+        <v>30</v>
+      </c>
+      <c r="M538" s="1">
+        <v>50</v>
+      </c>
+      <c r="N538" s="1">
+        <v>2</v>
+      </c>
+      <c r="O538" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P538" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q538" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R538" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S538" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T538" s="2">
+        <v>5</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V538">
+        <v>0.05</v>
+      </c>
+      <c r="W538">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A539" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C539" s="2">
+        <v>19</v>
+      </c>
+      <c r="D539" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" s="2">
+        <v>3698</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539" s="1">
+        <v>100</v>
+      </c>
+      <c r="I539">
+        <v>2.4</v>
+      </c>
+      <c r="J539">
+        <v>4.8</v>
+      </c>
+      <c r="K539">
+        <v>2.1</v>
+      </c>
+      <c r="L539" s="1">
+        <v>30</v>
+      </c>
+      <c r="M539" s="1">
+        <v>50</v>
+      </c>
+      <c r="N539" s="1">
+        <v>2</v>
+      </c>
+      <c r="O539" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P539" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q539" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R539" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S539" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T539" s="2">
+        <v>5</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V539">
+        <v>0.05</v>
+      </c>
+      <c r="W539">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A540" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C540" s="2">
+        <v>20</v>
+      </c>
+      <c r="D540" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" s="2">
+        <v>4900</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540" s="1">
+        <v>100</v>
+      </c>
+      <c r="I540">
+        <v>2.4</v>
+      </c>
+      <c r="J540">
+        <v>4.8</v>
+      </c>
+      <c r="K540">
+        <v>2.1</v>
+      </c>
+      <c r="L540" s="1">
+        <v>30</v>
+      </c>
+      <c r="M540" s="1">
+        <v>50</v>
+      </c>
+      <c r="N540" s="1">
+        <v>2</v>
+      </c>
+      <c r="O540" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P540" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q540" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R540" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S540" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T540" s="2">
+        <v>5</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V540">
+        <v>0.05</v>
+      </c>
+      <c r="W540">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A541" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C541" s="2">
+        <v>21</v>
+      </c>
+      <c r="D541" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E541" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541" s="1">
+        <v>100</v>
+      </c>
+      <c r="I541">
+        <v>2.4</v>
+      </c>
+      <c r="J541">
+        <v>4.8</v>
+      </c>
+      <c r="K541">
+        <v>2.1</v>
+      </c>
+      <c r="L541" s="1">
+        <v>30</v>
+      </c>
+      <c r="M541" s="1">
+        <v>50</v>
+      </c>
+      <c r="N541" s="1">
+        <v>2</v>
+      </c>
+      <c r="O541" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P541" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q541" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R541" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S541" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T541" s="2">
+        <v>5</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V541">
+        <v>0.05</v>
+      </c>
+      <c r="W541">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A542" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C542" s="2">
+        <v>22</v>
+      </c>
+      <c r="D542" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E542" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G542">
+        <v>1</v>
+      </c>
+      <c r="H542" s="1">
+        <v>100</v>
+      </c>
+      <c r="I542">
+        <v>2.4</v>
+      </c>
+      <c r="J542">
+        <v>4.8</v>
+      </c>
+      <c r="K542">
+        <v>2.1</v>
+      </c>
+      <c r="L542" s="1">
+        <v>30</v>
+      </c>
+      <c r="M542" s="1">
+        <v>50</v>
+      </c>
+      <c r="N542" s="1">
+        <v>2</v>
+      </c>
+      <c r="O542" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P542" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q542" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R542" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S542" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T542" s="2">
+        <v>5</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V542">
+        <v>0.05</v>
+      </c>
+      <c r="W542">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A543" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C543" s="2">
+        <v>23</v>
+      </c>
+      <c r="D543" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E543" s="2">
+        <v>8499</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543" s="1">
+        <v>100</v>
+      </c>
+      <c r="I543">
+        <v>2.4</v>
+      </c>
+      <c r="J543">
+        <v>4.8</v>
+      </c>
+      <c r="K543">
+        <v>2.1</v>
+      </c>
+      <c r="L543" s="1">
+        <v>30</v>
+      </c>
+      <c r="M543" s="1">
+        <v>50</v>
+      </c>
+      <c r="N543" s="1">
+        <v>2</v>
+      </c>
+      <c r="O543" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P543" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q543" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R543" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S543" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T543" s="2">
+        <v>5</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V543">
+        <v>0.05</v>
+      </c>
+      <c r="W543">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A544" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C544" s="2">
+        <v>24</v>
+      </c>
+      <c r="D544" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E544" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G544">
+        <v>1</v>
+      </c>
+      <c r="H544" s="1">
+        <v>100</v>
+      </c>
+      <c r="I544">
+        <v>2.4</v>
+      </c>
+      <c r="J544">
+        <v>4.8</v>
+      </c>
+      <c r="K544">
+        <v>2.1</v>
+      </c>
+      <c r="L544" s="1">
+        <v>30</v>
+      </c>
+      <c r="M544" s="1">
+        <v>50</v>
+      </c>
+      <c r="N544" s="1">
+        <v>2</v>
+      </c>
+      <c r="O544" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P544" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q544" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R544" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S544" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T544" s="2">
+        <v>5</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V544">
+        <v>0.05</v>
+      </c>
+      <c r="W544">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A545" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C545" s="2">
+        <v>25</v>
+      </c>
+      <c r="D545" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G545">
+        <v>1</v>
+      </c>
+      <c r="H545" s="1">
+        <v>100</v>
+      </c>
+      <c r="I545">
+        <v>2.4</v>
+      </c>
+      <c r="J545">
+        <v>4.8</v>
+      </c>
+      <c r="K545">
+        <v>2.1</v>
+      </c>
+      <c r="L545" s="1">
+        <v>30</v>
+      </c>
+      <c r="M545" s="1">
+        <v>50</v>
+      </c>
+      <c r="N545" s="1">
+        <v>2</v>
+      </c>
+      <c r="O545" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P545" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q545" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R545" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S545" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T545" s="2">
+        <v>5</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V545">
+        <v>0.05</v>
+      </c>
+      <c r="W545">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A546" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C546" s="2">
+        <v>26</v>
+      </c>
+      <c r="D546" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546" s="1">
+        <v>100</v>
+      </c>
+      <c r="I546">
+        <v>2.4</v>
+      </c>
+      <c r="J546">
+        <v>4.8</v>
+      </c>
+      <c r="K546">
+        <v>2.1</v>
+      </c>
+      <c r="L546" s="1">
+        <v>30</v>
+      </c>
+      <c r="M546" s="1">
+        <v>50</v>
+      </c>
+      <c r="N546" s="1">
+        <v>2</v>
+      </c>
+      <c r="O546" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P546" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q546" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R546" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S546" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T546" s="2">
+        <v>5</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V546">
+        <v>0.05</v>
+      </c>
+      <c r="W546">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A547" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C547" s="2">
+        <v>27</v>
+      </c>
+      <c r="D547" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G547">
+        <v>1</v>
+      </c>
+      <c r="H547" s="1">
+        <v>100</v>
+      </c>
+      <c r="I547">
+        <v>2.4</v>
+      </c>
+      <c r="J547">
+        <v>4.8</v>
+      </c>
+      <c r="K547">
+        <v>2.1</v>
+      </c>
+      <c r="L547" s="1">
+        <v>30</v>
+      </c>
+      <c r="M547" s="1">
+        <v>50</v>
+      </c>
+      <c r="N547" s="1">
+        <v>2</v>
+      </c>
+      <c r="O547" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P547" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q547" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R547" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S547" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T547" s="2">
+        <v>5</v>
+      </c>
+      <c r="U547" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V547">
+        <v>0.05</v>
+      </c>
+      <c r="W547">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A548" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C548" s="2">
+        <v>28</v>
+      </c>
+      <c r="D548" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548" s="1">
+        <v>100</v>
+      </c>
+      <c r="I548">
+        <v>2.4</v>
+      </c>
+      <c r="J548">
+        <v>4.8</v>
+      </c>
+      <c r="K548">
+        <v>2.1</v>
+      </c>
+      <c r="L548" s="1">
+        <v>30</v>
+      </c>
+      <c r="M548" s="1">
+        <v>50</v>
+      </c>
+      <c r="N548" s="1">
+        <v>2</v>
+      </c>
+      <c r="O548" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P548" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q548" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R548" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S548" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T548" s="2">
+        <v>5</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V548">
+        <v>0.05</v>
+      </c>
+      <c r="W548">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A549" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C549" s="2">
+        <v>29</v>
+      </c>
+      <c r="D549" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549" s="1">
+        <v>100</v>
+      </c>
+      <c r="I549">
+        <v>2.4</v>
+      </c>
+      <c r="J549">
+        <v>4.8</v>
+      </c>
+      <c r="K549">
+        <v>2.1</v>
+      </c>
+      <c r="L549" s="1">
+        <v>30</v>
+      </c>
+      <c r="M549" s="1">
+        <v>50</v>
+      </c>
+      <c r="N549" s="1">
+        <v>2</v>
+      </c>
+      <c r="O549" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P549" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q549" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R549" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S549" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T549" s="2">
+        <v>5</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V549">
+        <v>0.05</v>
+      </c>
+      <c r="W549">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A550" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C550" s="2">
+        <v>30</v>
+      </c>
+      <c r="D550" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550" s="1">
+        <v>100</v>
+      </c>
+      <c r="I550">
+        <v>2.4</v>
+      </c>
+      <c r="J550">
+        <v>4.8</v>
+      </c>
+      <c r="K550">
+        <v>2.1</v>
+      </c>
+      <c r="L550" s="1">
+        <v>30</v>
+      </c>
+      <c r="M550" s="1">
+        <v>50</v>
+      </c>
+      <c r="N550" s="1">
+        <v>2</v>
+      </c>
+      <c r="O550" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P550" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q550" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R550" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S550" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T550" s="2">
+        <v>5</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V550">
+        <v>0.05</v>
+      </c>
+      <c r="W550">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y470"/>
+  <autoFilter ref="A1:Y485"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -1044,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2093617296"/>
-        <c:axId val="-2093620928"/>
+        <c:axId val="-2080455664"/>
+        <c:axId val="-2080452048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093617296"/>
+        <c:axId val="-2080455664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093620928"/>
+        <c:crossAx val="-2080452048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093620928"/>
+        <c:axId val="-2080452048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093617296"/>
+        <c:crossAx val="-2080455664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,10 +2093,10 @@
   <dimension ref="A1:Y550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D526" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D490" sqref="D490"/>
+      <selection pane="bottomRight" activeCell="P491" sqref="P491:P550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38662,7 +38662,7 @@
         <v>1000</v>
       </c>
       <c r="P492" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q492" s="1">
         <f t="shared" si="58"/>
@@ -38734,7 +38734,7 @@
         <v>1000</v>
       </c>
       <c r="P493" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q493" s="1">
         <f t="shared" si="58"/>
@@ -38806,7 +38806,7 @@
         <v>1000</v>
       </c>
       <c r="P494" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q494" s="1">
         <f t="shared" si="58"/>
@@ -38878,7 +38878,7 @@
         <v>1000</v>
       </c>
       <c r="P495" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q495" s="1">
         <f t="shared" ref="Q495:Q550" si="64">2.7*10^-6</f>
@@ -38950,7 +38950,7 @@
         <v>1000</v>
       </c>
       <c r="P496" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q496" s="1">
         <f t="shared" si="64"/>
@@ -39022,7 +39022,7 @@
         <v>1000</v>
       </c>
       <c r="P497" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q497" s="1">
         <f t="shared" si="64"/>
@@ -39094,7 +39094,7 @@
         <v>1000</v>
       </c>
       <c r="P498" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q498" s="1">
         <f t="shared" si="64"/>
@@ -39166,7 +39166,7 @@
         <v>1000</v>
       </c>
       <c r="P499" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q499" s="1">
         <f t="shared" si="64"/>
@@ -39238,7 +39238,7 @@
         <v>1000</v>
       </c>
       <c r="P500" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q500" s="1">
         <f t="shared" si="64"/>
@@ -39310,7 +39310,7 @@
         <v>1000</v>
       </c>
       <c r="P501" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q501" s="1">
         <f t="shared" si="64"/>
@@ -39382,7 +39382,7 @@
         <v>1000</v>
       </c>
       <c r="P502" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q502" s="1">
         <f t="shared" si="64"/>
@@ -39454,7 +39454,7 @@
         <v>1000</v>
       </c>
       <c r="P503" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q503" s="1">
         <f t="shared" si="64"/>
@@ -39526,7 +39526,7 @@
         <v>1000</v>
       </c>
       <c r="P504" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q504" s="1">
         <f t="shared" si="64"/>
@@ -39598,7 +39598,7 @@
         <v>1000</v>
       </c>
       <c r="P505" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q505" s="1">
         <f t="shared" si="64"/>
@@ -39670,7 +39670,7 @@
         <v>1000</v>
       </c>
       <c r="P506" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q506" s="1">
         <f t="shared" si="64"/>
@@ -39742,7 +39742,7 @@
         <v>1000</v>
       </c>
       <c r="P507" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q507" s="1">
         <f t="shared" si="64"/>
@@ -39814,7 +39814,7 @@
         <v>1000</v>
       </c>
       <c r="P508" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q508" s="1">
         <f t="shared" si="64"/>
@@ -39886,7 +39886,7 @@
         <v>1000</v>
       </c>
       <c r="P509" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q509" s="1">
         <f t="shared" si="64"/>
@@ -39958,7 +39958,7 @@
         <v>1000</v>
       </c>
       <c r="P510" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q510" s="1">
         <f t="shared" si="64"/>
@@ -40030,7 +40030,7 @@
         <v>1000</v>
       </c>
       <c r="P511" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q511" s="1">
         <f t="shared" si="64"/>
@@ -40102,7 +40102,7 @@
         <v>1000</v>
       </c>
       <c r="P512" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q512" s="1">
         <f t="shared" si="64"/>
@@ -40174,7 +40174,7 @@
         <v>1000</v>
       </c>
       <c r="P513" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q513" s="1">
         <f t="shared" si="64"/>
@@ -40246,7 +40246,7 @@
         <v>1000</v>
       </c>
       <c r="P514" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q514" s="1">
         <f t="shared" si="64"/>
@@ -40318,7 +40318,7 @@
         <v>1000</v>
       </c>
       <c r="P515" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q515" s="1">
         <f t="shared" si="64"/>
@@ -40390,7 +40390,7 @@
         <v>1000</v>
       </c>
       <c r="P516" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q516" s="1">
         <f t="shared" si="64"/>
@@ -40462,7 +40462,7 @@
         <v>1000</v>
       </c>
       <c r="P517" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q517" s="1">
         <f t="shared" si="64"/>
@@ -40534,7 +40534,7 @@
         <v>1000</v>
       </c>
       <c r="P518" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q518" s="1">
         <f t="shared" si="64"/>
@@ -40606,7 +40606,7 @@
         <v>1000</v>
       </c>
       <c r="P519" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q519" s="1">
         <f t="shared" si="64"/>
@@ -40678,7 +40678,7 @@
         <v>1000</v>
       </c>
       <c r="P520" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q520" s="1">
         <f t="shared" si="64"/>
@@ -40750,7 +40750,7 @@
         <v>1000</v>
       </c>
       <c r="P521" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q521" s="1">
         <f t="shared" si="64"/>
@@ -40822,7 +40822,7 @@
         <v>1000</v>
       </c>
       <c r="P522" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q522" s="1">
         <f t="shared" si="64"/>
@@ -40894,7 +40894,7 @@
         <v>1000</v>
       </c>
       <c r="P523" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q523" s="1">
         <f t="shared" si="64"/>
@@ -40966,7 +40966,7 @@
         <v>1000</v>
       </c>
       <c r="P524" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q524" s="1">
         <f t="shared" si="64"/>
@@ -41038,7 +41038,7 @@
         <v>1000</v>
       </c>
       <c r="P525" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q525" s="1">
         <f t="shared" si="64"/>
@@ -41110,7 +41110,7 @@
         <v>1000</v>
       </c>
       <c r="P526" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q526" s="1">
         <f t="shared" si="64"/>
@@ -41182,7 +41182,7 @@
         <v>1000</v>
       </c>
       <c r="P527" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q527" s="1">
         <f t="shared" si="64"/>
@@ -41254,7 +41254,7 @@
         <v>1000</v>
       </c>
       <c r="P528" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q528" s="1">
         <f t="shared" si="64"/>
@@ -41326,7 +41326,7 @@
         <v>1000</v>
       </c>
       <c r="P529" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q529" s="1">
         <f t="shared" si="64"/>
@@ -41398,7 +41398,7 @@
         <v>1000</v>
       </c>
       <c r="P530" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q530" s="1">
         <f t="shared" si="64"/>
@@ -41470,7 +41470,7 @@
         <v>1000</v>
       </c>
       <c r="P531" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q531" s="1">
         <f t="shared" si="64"/>
@@ -41542,7 +41542,7 @@
         <v>1000</v>
       </c>
       <c r="P532" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q532" s="1">
         <f t="shared" si="64"/>
@@ -41614,7 +41614,7 @@
         <v>1000</v>
       </c>
       <c r="P533" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q533" s="1">
         <f t="shared" si="64"/>
@@ -41686,7 +41686,7 @@
         <v>1000</v>
       </c>
       <c r="P534" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q534" s="1">
         <f t="shared" si="64"/>
@@ -41758,7 +41758,7 @@
         <v>1000</v>
       </c>
       <c r="P535" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q535" s="1">
         <f t="shared" si="64"/>
@@ -41830,7 +41830,7 @@
         <v>1000</v>
       </c>
       <c r="P536" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q536" s="1">
         <f t="shared" si="64"/>
@@ -41902,7 +41902,7 @@
         <v>1000</v>
       </c>
       <c r="P537" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q537" s="1">
         <f t="shared" si="64"/>
@@ -41974,7 +41974,7 @@
         <v>1000</v>
       </c>
       <c r="P538" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q538" s="1">
         <f t="shared" si="64"/>
@@ -42046,7 +42046,7 @@
         <v>1000</v>
       </c>
       <c r="P539" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q539" s="1">
         <f t="shared" si="64"/>
@@ -42118,7 +42118,7 @@
         <v>1000</v>
       </c>
       <c r="P540" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q540" s="1">
         <f t="shared" si="64"/>
@@ -42190,7 +42190,7 @@
         <v>1000</v>
       </c>
       <c r="P541" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q541" s="1">
         <f t="shared" si="64"/>
@@ -42262,7 +42262,7 @@
         <v>1000</v>
       </c>
       <c r="P542" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q542" s="1">
         <f t="shared" si="64"/>
@@ -42334,7 +42334,7 @@
         <v>1000</v>
       </c>
       <c r="P543" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q543" s="1">
         <f t="shared" si="64"/>
@@ -42406,7 +42406,7 @@
         <v>1000</v>
       </c>
       <c r="P544" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q544" s="1">
         <f t="shared" si="64"/>
@@ -42478,7 +42478,7 @@
         <v>1000</v>
       </c>
       <c r="P545" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q545" s="1">
         <f t="shared" si="64"/>
@@ -42550,7 +42550,7 @@
         <v>1000</v>
       </c>
       <c r="P546" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q546" s="1">
         <f t="shared" si="64"/>
@@ -42622,7 +42622,7 @@
         <v>1000</v>
       </c>
       <c r="P547" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q547" s="1">
         <f t="shared" si="64"/>
@@ -42694,7 +42694,7 @@
         <v>1000</v>
       </c>
       <c r="P548" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q548" s="1">
         <f t="shared" si="64"/>
@@ -42766,7 +42766,7 @@
         <v>1000</v>
       </c>
       <c r="P549" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q549" s="1">
         <f t="shared" si="64"/>
@@ -42838,7 +42838,7 @@
         <v>1000</v>
       </c>
       <c r="P550" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q550" s="1">
         <f t="shared" si="64"/>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$533</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="112">
   <si>
     <t>filename</t>
   </si>
@@ -1044,11 +1044,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2080455664"/>
-        <c:axId val="-2080452048"/>
+        <c:axId val="-2019401360"/>
+        <c:axId val="-2019397936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2080455664"/>
+        <c:axId val="-2019401360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080452048"/>
+        <c:crossAx val="-2019397936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080452048"/>
+        <c:axId val="-2019397936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080455664"/>
+        <c:crossAx val="-2019401360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,13 +2090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y550"/>
+  <dimension ref="A1:Y598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D526" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D507" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P491" sqref="P491:P550"/>
+      <selection pane="bottomRight" activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32755,7 +32755,7 @@
         <v>4</v>
       </c>
       <c r="Q411" s="1">
-        <f t="shared" ref="Q411:Q494" si="58">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q542" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" s="1" t="b">
@@ -36889,19 +36889,19 @@
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C468" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D468" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E468" s="2">
-        <v>102</v>
+        <v>1400</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>80</v>
@@ -36961,19 +36961,19 @@
     </row>
     <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C469" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D469" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E469" s="2">
-        <v>101</v>
+        <v>1455</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>80</v>
@@ -37033,19 +37033,19 @@
     </row>
     <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C470" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D470" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E470" s="2">
-        <v>101</v>
+        <v>1504</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>80</v>
@@ -37105,19 +37105,19 @@
     </row>
     <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C471" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D471" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E471" s="2">
-        <v>101</v>
+        <v>1559</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>80</v>
@@ -37177,19 +37177,19 @@
     </row>
     <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C472" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D472" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E472" s="2">
-        <v>106</v>
+        <v>1609</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>80</v>
@@ -37249,19 +37249,19 @@
     </row>
     <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C473" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D473" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E473" s="2">
-        <v>105</v>
+        <v>1658</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>80</v>
@@ -37321,10 +37321,10 @@
     </row>
     <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C474" s="2">
         <v>1</v>
@@ -37333,7 +37333,7 @@
         <v>1</v>
       </c>
       <c r="E474" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>80</v>
@@ -37393,19 +37393,19 @@
     </row>
     <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C475" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D475" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E475" s="2">
-        <v>103</v>
+        <v>1408</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>80</v>
@@ -37465,19 +37465,19 @@
     </row>
     <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C476" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D476" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E476" s="2">
-        <v>104</v>
+        <v>1457</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>80</v>
@@ -37537,19 +37537,19 @@
     </row>
     <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C477" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D477" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E477" s="2">
-        <v>106</v>
+        <v>1505</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>80</v>
@@ -37609,19 +37609,19 @@
     </row>
     <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C478" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D478" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E478" s="2">
-        <v>102</v>
+        <v>1557</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>80</v>
@@ -37681,19 +37681,19 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C479" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D479" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E479" s="2">
-        <v>102</v>
+        <v>1606</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>80</v>
@@ -37753,19 +37753,19 @@
     </row>
     <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C480" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D480" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480" s="2">
-        <v>105</v>
+        <v>1655</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>80</v>
@@ -37825,10 +37825,10 @@
     </row>
     <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C481" s="2">
         <v>1</v>
@@ -37837,7 +37837,7 @@
         <v>1</v>
       </c>
       <c r="E481" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>80</v>
@@ -37897,19 +37897,19 @@
     </row>
     <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C482" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D482" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E482" s="2">
-        <v>102</v>
+        <v>1474</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>80</v>
@@ -37969,19 +37969,19 @@
     </row>
     <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C483" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D483" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E483" s="2">
-        <v>102</v>
+        <v>1525</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>80</v>
@@ -38041,19 +38041,19 @@
     </row>
     <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C484" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D484" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E484" s="2">
-        <v>102</v>
+        <v>1577</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>80</v>
@@ -38113,19 +38113,19 @@
     </row>
     <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C485" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D485" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E485" s="2">
-        <v>102</v>
+        <v>1629</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>80</v>
@@ -38168,7 +38168,7 @@
         <v>1</v>
       </c>
       <c r="S485" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T485" s="2">
         <v>5</v>
@@ -38185,19 +38185,19 @@
     </row>
     <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C486" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D486" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E486" s="2">
-        <v>106</v>
+        <v>1677</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>80</v>
@@ -38240,7 +38240,7 @@
         <v>1</v>
       </c>
       <c r="S486" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T486" s="2">
         <v>5</v>
@@ -38257,19 +38257,19 @@
     </row>
     <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C487" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D487" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E487" s="2">
-        <v>108</v>
+        <v>1725</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>80</v>
@@ -38312,7 +38312,7 @@
         <v>1</v>
       </c>
       <c r="S487" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T487" s="2">
         <v>5</v>
@@ -38329,19 +38329,19 @@
     </row>
     <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C488" s="2">
         <v>1</v>
       </c>
       <c r="D488" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>80</v>
@@ -38384,7 +38384,7 @@
         <v>1</v>
       </c>
       <c r="S488" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T488" s="2">
         <v>5</v>
@@ -38401,19 +38401,19 @@
     </row>
     <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C489" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D489" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E489" s="2">
-        <v>105</v>
+        <v>1420</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>80</v>
@@ -38456,7 +38456,7 @@
         <v>1</v>
       </c>
       <c r="S489" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T489" s="2">
         <v>5</v>
@@ -38473,19 +38473,19 @@
     </row>
     <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C490" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D490" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E490" s="2">
-        <v>109</v>
+        <v>1473</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>80</v>
@@ -38528,7 +38528,7 @@
         <v>1</v>
       </c>
       <c r="S490" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T490" s="2">
         <v>5</v>
@@ -38545,19 +38545,19 @@
     </row>
     <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C491" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D491" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E491" s="2">
-        <v>103</v>
+        <v>1524</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>80</v>
@@ -38617,19 +38617,19 @@
     </row>
     <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C492" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D492" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E492" s="2">
-        <v>1303</v>
+        <v>1578</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>80</v>
@@ -38689,19 +38689,19 @@
     </row>
     <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C493" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D493" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E493" s="2">
-        <v>2506</v>
+        <v>1622</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>80</v>
@@ -38761,25 +38761,25 @@
     </row>
     <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C494" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D494" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494" s="2">
-        <v>3703</v>
+        <v>1676</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H494" s="1">
         <v>100</v>
@@ -38833,25 +38833,25 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C495" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D495" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E495" s="2">
-        <v>4901</v>
+        <v>101</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H495" s="1">
         <v>100</v>
@@ -38881,7 +38881,7 @@
         <v>4</v>
       </c>
       <c r="Q495" s="1">
-        <f t="shared" ref="Q495:Q550" si="64">2.7*10^-6</f>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R495" s="1" t="b">
@@ -38905,25 +38905,25 @@
     </row>
     <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C496" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D496" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E496" s="2">
-        <v>6100</v>
+        <v>1420</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H496" s="1">
         <v>100</v>
@@ -38953,7 +38953,7 @@
         <v>4</v>
       </c>
       <c r="Q496" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R496" s="1" t="b">
@@ -38977,25 +38977,25 @@
     </row>
     <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C497" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D497" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E497" s="2">
-        <v>7299</v>
+        <v>1473</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H497" s="1">
         <v>100</v>
@@ -39025,7 +39025,7 @@
         <v>4</v>
       </c>
       <c r="Q497" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R497" s="1" t="b">
@@ -39049,25 +39049,25 @@
     </row>
     <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C498" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D498" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E498" s="2">
-        <v>8501</v>
+        <v>1524</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H498" s="1">
         <v>100</v>
@@ -39097,7 +39097,7 @@
         <v>4</v>
       </c>
       <c r="Q498" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R498" s="1" t="b">
@@ -39121,25 +39121,25 @@
     </row>
     <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C499" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D499" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E499" s="2">
-        <v>9699</v>
+        <v>1577</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H499" s="1">
         <v>100</v>
@@ -39169,7 +39169,7 @@
         <v>4</v>
       </c>
       <c r="Q499" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R499" s="1" t="b">
@@ -39193,25 +39193,25 @@
     </row>
     <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C500" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D500" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E500" s="2">
-        <v>1089.9000000000001</v>
+        <v>1622</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H500" s="1">
         <v>100</v>
@@ -39241,7 +39241,7 @@
         <v>4</v>
       </c>
       <c r="Q500" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R500" s="1" t="b">
@@ -39265,25 +39265,25 @@
     </row>
     <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C501" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D501" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E501" s="2">
-        <v>12098</v>
+        <v>1676</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H501" s="1">
         <v>100</v>
@@ -39313,7 +39313,7 @@
         <v>4</v>
       </c>
       <c r="Q501" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R501" s="1" t="b">
@@ -39337,25 +39337,25 @@
     </row>
     <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C502" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D502" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E502" s="2">
-        <v>13297</v>
+        <v>106</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H502" s="1">
         <v>100</v>
@@ -39385,7 +39385,7 @@
         <v>4</v>
       </c>
       <c r="Q502" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R502" s="1" t="b">
@@ -39409,25 +39409,25 @@
     </row>
     <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C503" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D503" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E503" s="2">
-        <v>14503</v>
+        <v>1441</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H503" s="1">
         <v>100</v>
@@ -39457,7 +39457,7 @@
         <v>4</v>
       </c>
       <c r="Q503" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R503" s="1" t="b">
@@ -39481,25 +39481,25 @@
     </row>
     <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C504" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D504" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504" s="2">
-        <v>15698</v>
+        <v>1490</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H504" s="1">
         <v>100</v>
@@ -39529,7 +39529,7 @@
         <v>4</v>
       </c>
       <c r="Q504" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R504" s="1" t="b">
@@ -39553,25 +39553,25 @@
     </row>
     <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C505" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D505" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E505" s="2">
-        <v>16896</v>
+        <v>1543</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H505" s="1">
         <v>100</v>
@@ -39601,7 +39601,7 @@
         <v>4</v>
       </c>
       <c r="Q505" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R505" s="1" t="b">
@@ -39625,25 +39625,25 @@
     </row>
     <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C506" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D506" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E506" s="2">
-        <v>104</v>
+        <v>1593</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H506" s="1">
         <v>100</v>
@@ -39673,7 +39673,7 @@
         <v>4</v>
       </c>
       <c r="Q506" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R506" s="1" t="b">
@@ -39697,25 +39697,25 @@
     </row>
     <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C507" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D507" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E507" s="2">
-        <v>1299</v>
+        <v>1646</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H507" s="1">
         <v>100</v>
@@ -39745,7 +39745,7 @@
         <v>4</v>
       </c>
       <c r="Q507" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R507" s="1" t="b">
@@ -39769,25 +39769,25 @@
     </row>
     <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C508" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D508" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E508" s="2">
-        <v>2505</v>
+        <v>1695</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H508" s="1">
         <v>100</v>
@@ -39817,7 +39817,7 @@
         <v>4</v>
       </c>
       <c r="Q508" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R508" s="1" t="b">
@@ -39841,25 +39841,25 @@
     </row>
     <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C509" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D509" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E509" s="2">
-        <v>3703</v>
+        <v>106</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H509" s="1">
         <v>100</v>
@@ -39889,7 +39889,7 @@
         <v>4</v>
       </c>
       <c r="Q509" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R509" s="1" t="b">
@@ -39913,25 +39913,25 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C510" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D510" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E510" s="2">
-        <v>4901</v>
+        <v>103</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H510" s="1">
         <v>100</v>
@@ -39961,7 +39961,7 @@
         <v>4</v>
       </c>
       <c r="Q510" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R510" s="1" t="b">
@@ -39985,25 +39985,25 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C511" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D511" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E511" s="2">
-        <v>6101</v>
+        <v>1460</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H511" s="1">
         <v>100</v>
@@ -40033,7 +40033,7 @@
         <v>4</v>
       </c>
       <c r="Q511" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R511" s="1" t="b">
@@ -40057,25 +40057,25 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C512" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D512" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E512" s="2">
-        <v>7300</v>
+        <v>1511</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H512" s="1">
         <v>100</v>
@@ -40105,7 +40105,7 @@
         <v>4</v>
       </c>
       <c r="Q512" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R512" s="1" t="b">
@@ -40129,25 +40129,25 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C513" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D513" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E513" s="2">
-        <v>8500</v>
+        <v>1560</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H513" s="1">
         <v>100</v>
@@ -40177,7 +40177,7 @@
         <v>4</v>
       </c>
       <c r="Q513" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R513" s="1" t="b">
@@ -40201,25 +40201,25 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C514" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D514" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E514" s="2">
-        <v>9699</v>
+        <v>1612</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H514" s="1">
         <v>100</v>
@@ -40249,7 +40249,7 @@
         <v>4</v>
       </c>
       <c r="Q514" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R514" s="1" t="b">
@@ -40273,25 +40273,25 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C515" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D515" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E515" s="2">
-        <v>10899</v>
+        <v>1659</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H515" s="1">
         <v>100</v>
@@ -40321,7 +40321,7 @@
         <v>4</v>
       </c>
       <c r="Q515" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R515" s="1" t="b">
@@ -40345,25 +40345,25 @@
     </row>
     <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C516" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D516" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E516" s="2">
-        <v>12098</v>
+        <v>1715</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H516" s="1">
         <v>100</v>
@@ -40393,7 +40393,7 @@
         <v>4</v>
       </c>
       <c r="Q516" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R516" s="1" t="b">
@@ -40417,25 +40417,25 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C517" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D517" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E517" s="2">
-        <v>13298</v>
+        <v>103</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H517" s="1">
         <v>100</v>
@@ -40465,7 +40465,7 @@
         <v>4</v>
       </c>
       <c r="Q517" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R517" s="1" t="b">
@@ -40489,25 +40489,25 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C518" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D518" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E518" s="2">
-        <v>14498</v>
+        <v>1626</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H518" s="1">
         <v>100</v>
@@ -40537,7 +40537,7 @@
         <v>4</v>
       </c>
       <c r="Q518" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R518" s="1" t="b">
@@ -40561,25 +40561,25 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C519" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D519" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E519" s="2">
-        <v>15697</v>
+        <v>1670</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H519" s="1">
         <v>100</v>
@@ -40609,7 +40609,7 @@
         <v>4</v>
       </c>
       <c r="Q519" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R519" s="1" t="b">
@@ -40633,25 +40633,25 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C520" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D520" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E520" s="2">
-        <v>16897</v>
+        <v>1723</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H520" s="1">
         <v>100</v>
@@ -40681,7 +40681,7 @@
         <v>4</v>
       </c>
       <c r="Q520" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R520" s="1" t="b">
@@ -40705,19 +40705,19 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C521" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D521" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E521" s="2">
-        <v>104</v>
+        <v>1782</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>80</v>
@@ -40753,7 +40753,7 @@
         <v>4</v>
       </c>
       <c r="Q521" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R521" s="1" t="b">
@@ -40777,19 +40777,19 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C522" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D522" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522" s="2">
-        <v>1302</v>
+        <v>1830</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>80</v>
@@ -40825,7 +40825,7 @@
         <v>4</v>
       </c>
       <c r="Q522" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R522" s="1" t="b">
@@ -40849,19 +40849,19 @@
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C523" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D523" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E523" s="2">
-        <v>2502</v>
+        <v>1881</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>80</v>
@@ -40897,7 +40897,7 @@
         <v>4</v>
       </c>
       <c r="Q523" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R523" s="1" t="b">
@@ -40921,25 +40921,25 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C524" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D524" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E524" s="2">
-        <v>3701</v>
+        <v>104</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H524" s="1">
         <v>100</v>
@@ -40969,7 +40969,7 @@
         <v>4</v>
       </c>
       <c r="Q524" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R524" s="1" t="b">
@@ -40993,25 +40993,25 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C525" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D525" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525" s="2">
-        <v>4905</v>
+        <v>106</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H525" s="1">
         <v>100</v>
@@ -41041,7 +41041,7 @@
         <v>4</v>
       </c>
       <c r="Q525" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R525" s="1" t="b">
@@ -41065,25 +41065,25 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C526" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D526" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E526" s="2">
-        <v>6101</v>
+        <v>102</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H526" s="1">
         <v>100</v>
@@ -41113,7 +41113,7 @@
         <v>4</v>
       </c>
       <c r="Q526" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R526" s="1" t="b">
@@ -41137,25 +41137,25 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C527" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D527" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E527" s="2">
-        <v>7301</v>
+        <v>102</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H527" s="1">
         <v>100</v>
@@ -41185,7 +41185,7 @@
         <v>4</v>
       </c>
       <c r="Q527" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R527" s="1" t="b">
@@ -41209,25 +41209,25 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C528" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D528" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E528" s="2">
-        <v>8502</v>
+        <v>105</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H528" s="1">
         <v>100</v>
@@ -41257,7 +41257,7 @@
         <v>4</v>
       </c>
       <c r="Q528" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R528" s="1" t="b">
@@ -41281,25 +41281,25 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C529" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D529" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E529" s="2">
-        <v>9703</v>
+        <v>102</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H529" s="1">
         <v>100</v>
@@ -41329,7 +41329,7 @@
         <v>4</v>
       </c>
       <c r="Q529" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R529" s="1" t="b">
@@ -41353,25 +41353,25 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C530" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D530" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E530" s="2">
-        <v>10900</v>
+        <v>102</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H530" s="1">
         <v>100</v>
@@ -41401,7 +41401,7 @@
         <v>4</v>
       </c>
       <c r="Q530" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R530" s="1" t="b">
@@ -41425,25 +41425,25 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C531" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D531" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E531" s="2">
-        <v>12098</v>
+        <v>102</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H531" s="1">
         <v>100</v>
@@ -41473,7 +41473,7 @@
         <v>4</v>
       </c>
       <c r="Q531" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R531" s="1" t="b">
@@ -41497,25 +41497,25 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C532" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D532" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532" s="2">
-        <v>13299</v>
+        <v>102</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532" s="1">
         <v>100</v>
@@ -41545,7 +41545,7 @@
         <v>4</v>
       </c>
       <c r="Q532" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R532" s="1" t="b">
@@ -41569,25 +41569,25 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C533" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D533" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E533" s="2">
-        <v>14498</v>
+        <v>102</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H533" s="1">
         <v>100</v>
@@ -41617,14 +41617,14 @@
         <v>4</v>
       </c>
       <c r="Q533" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R533" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S533" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T533" s="2">
         <v>5</v>
@@ -41641,25 +41641,25 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C534" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D534" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534" s="2">
-        <v>15704</v>
+        <v>106</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H534" s="1">
         <v>100</v>
@@ -41689,14 +41689,14 @@
         <v>4</v>
       </c>
       <c r="Q534" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R534" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S534" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T534" s="2">
         <v>5</v>
@@ -41713,25 +41713,25 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C535" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D535" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E535" s="2">
-        <v>16897</v>
+        <v>108</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H535" s="1">
         <v>100</v>
@@ -41761,14 +41761,14 @@
         <v>4</v>
       </c>
       <c r="Q535" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R535" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S535" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T535" s="2">
         <v>5</v>
@@ -41785,25 +41785,25 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C536" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D536" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H536" s="1">
         <v>100</v>
@@ -41833,14 +41833,14 @@
         <v>4</v>
       </c>
       <c r="Q536" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R536" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S536" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T536" s="2">
         <v>5</v>
@@ -41857,25 +41857,25 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C537" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D537" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537" s="2">
-        <v>1302</v>
+        <v>105</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H537" s="1">
         <v>100</v>
@@ -41905,14 +41905,14 @@
         <v>4</v>
       </c>
       <c r="Q537" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R537" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S537" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T537" s="2">
         <v>5</v>
@@ -41929,25 +41929,25 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C538" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D538" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E538" s="2">
-        <v>2500</v>
+        <v>109</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G538">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H538" s="1">
         <v>100</v>
@@ -41977,14 +41977,14 @@
         <v>4</v>
       </c>
       <c r="Q538" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R538" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S538" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T538" s="2">
         <v>5</v>
@@ -42001,25 +42001,25 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C539" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D539" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E539" s="2">
-        <v>3698</v>
+        <v>103</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H539" s="1">
         <v>100</v>
@@ -42049,7 +42049,7 @@
         <v>4</v>
       </c>
       <c r="Q539" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R539" s="1" t="b">
@@ -42073,25 +42073,25 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C540" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D540" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E540" s="2">
-        <v>4900</v>
+        <v>1303</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H540" s="1">
         <v>100</v>
@@ -42121,7 +42121,7 @@
         <v>4</v>
       </c>
       <c r="Q540" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R540" s="1" t="b">
@@ -42145,25 +42145,25 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C541" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D541" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E541" s="2">
-        <v>6100</v>
+        <v>2506</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541" s="1">
         <v>100</v>
@@ -42193,7 +42193,7 @@
         <v>4</v>
       </c>
       <c r="Q541" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R541" s="1" t="b">
@@ -42217,19 +42217,19 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C542" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D542" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E542" s="2">
-        <v>7300</v>
+        <v>3703</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>80</v>
@@ -42265,7 +42265,7 @@
         <v>4</v>
       </c>
       <c r="Q542" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R542" s="1" t="b">
@@ -42289,19 +42289,19 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C543" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D543" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E543" s="2">
-        <v>8499</v>
+        <v>4901</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>80</v>
@@ -42337,7 +42337,7 @@
         <v>4</v>
       </c>
       <c r="Q543" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="Q543:Q598" si="64">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R543" s="1" t="b">
@@ -42361,19 +42361,19 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C544" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D544" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E544" s="2">
-        <v>9699</v>
+        <v>6100</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>80</v>
@@ -42433,19 +42433,19 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C545" s="2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D545" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E545" s="2">
-        <v>10899</v>
+        <v>7299</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>80</v>
@@ -42505,19 +42505,19 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C546" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D546" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E546" s="2">
-        <v>12098</v>
+        <v>8501</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>80</v>
@@ -42577,19 +42577,19 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C547" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D547" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E547" s="2">
-        <v>13298</v>
+        <v>9699</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>80</v>
@@ -42649,19 +42649,19 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C548" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D548" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E548" s="2">
-        <v>14498</v>
+        <v>1089.9000000000001</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>80</v>
@@ -42721,19 +42721,19 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C549" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D549" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E549" s="2">
-        <v>15697</v>
+        <v>12098</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>80</v>
@@ -42793,19 +42793,19 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C550" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D550" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E550" s="2">
-        <v>16896</v>
+        <v>13297</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>80</v>
@@ -42863,8 +42863,3464 @@
         <v>20</v>
       </c>
     </row>
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A551" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C551" s="2">
+        <v>13</v>
+      </c>
+      <c r="D551" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E551" s="2">
+        <v>14503</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551" s="1">
+        <v>100</v>
+      </c>
+      <c r="I551">
+        <v>2.4</v>
+      </c>
+      <c r="J551">
+        <v>4.8</v>
+      </c>
+      <c r="K551">
+        <v>2.1</v>
+      </c>
+      <c r="L551" s="1">
+        <v>30</v>
+      </c>
+      <c r="M551" s="1">
+        <v>50</v>
+      </c>
+      <c r="N551" s="1">
+        <v>2</v>
+      </c>
+      <c r="O551" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P551" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q551" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R551" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S551" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T551" s="2">
+        <v>5</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V551">
+        <v>0.05</v>
+      </c>
+      <c r="W551">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A552" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C552" s="2">
+        <v>14</v>
+      </c>
+      <c r="D552" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E552" s="2">
+        <v>15698</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552" s="1">
+        <v>100</v>
+      </c>
+      <c r="I552">
+        <v>2.4</v>
+      </c>
+      <c r="J552">
+        <v>4.8</v>
+      </c>
+      <c r="K552">
+        <v>2.1</v>
+      </c>
+      <c r="L552" s="1">
+        <v>30</v>
+      </c>
+      <c r="M552" s="1">
+        <v>50</v>
+      </c>
+      <c r="N552" s="1">
+        <v>2</v>
+      </c>
+      <c r="O552" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P552" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q552" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R552" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S552" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T552" s="2">
+        <v>5</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V552">
+        <v>0.05</v>
+      </c>
+      <c r="W552">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A553" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C553" s="2">
+        <v>15</v>
+      </c>
+      <c r="D553" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E553" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G553">
+        <v>1</v>
+      </c>
+      <c r="H553" s="1">
+        <v>100</v>
+      </c>
+      <c r="I553">
+        <v>2.4</v>
+      </c>
+      <c r="J553">
+        <v>4.8</v>
+      </c>
+      <c r="K553">
+        <v>2.1</v>
+      </c>
+      <c r="L553" s="1">
+        <v>30</v>
+      </c>
+      <c r="M553" s="1">
+        <v>50</v>
+      </c>
+      <c r="N553" s="1">
+        <v>2</v>
+      </c>
+      <c r="O553" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P553" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q553" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R553" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S553" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T553" s="2">
+        <v>5</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V553">
+        <v>0.05</v>
+      </c>
+      <c r="W553">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A554" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C554" s="2">
+        <v>16</v>
+      </c>
+      <c r="D554" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E554" s="2">
+        <v>104</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G554">
+        <v>1</v>
+      </c>
+      <c r="H554" s="1">
+        <v>100</v>
+      </c>
+      <c r="I554">
+        <v>2.4</v>
+      </c>
+      <c r="J554">
+        <v>4.8</v>
+      </c>
+      <c r="K554">
+        <v>2.1</v>
+      </c>
+      <c r="L554" s="1">
+        <v>30</v>
+      </c>
+      <c r="M554" s="1">
+        <v>50</v>
+      </c>
+      <c r="N554" s="1">
+        <v>2</v>
+      </c>
+      <c r="O554" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P554" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q554" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R554" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S554" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T554" s="2">
+        <v>5</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V554">
+        <v>0.05</v>
+      </c>
+      <c r="W554">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A555" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C555" s="2">
+        <v>17</v>
+      </c>
+      <c r="D555" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E555" s="2">
+        <v>1299</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555" s="1">
+        <v>100</v>
+      </c>
+      <c r="I555">
+        <v>2.4</v>
+      </c>
+      <c r="J555">
+        <v>4.8</v>
+      </c>
+      <c r="K555">
+        <v>2.1</v>
+      </c>
+      <c r="L555" s="1">
+        <v>30</v>
+      </c>
+      <c r="M555" s="1">
+        <v>50</v>
+      </c>
+      <c r="N555" s="1">
+        <v>2</v>
+      </c>
+      <c r="O555" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P555" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q555" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R555" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S555" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T555" s="2">
+        <v>5</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V555">
+        <v>0.05</v>
+      </c>
+      <c r="W555">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A556" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C556" s="2">
+        <v>18</v>
+      </c>
+      <c r="D556" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E556" s="2">
+        <v>2505</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556" s="1">
+        <v>100</v>
+      </c>
+      <c r="I556">
+        <v>2.4</v>
+      </c>
+      <c r="J556">
+        <v>4.8</v>
+      </c>
+      <c r="K556">
+        <v>2.1</v>
+      </c>
+      <c r="L556" s="1">
+        <v>30</v>
+      </c>
+      <c r="M556" s="1">
+        <v>50</v>
+      </c>
+      <c r="N556" s="1">
+        <v>2</v>
+      </c>
+      <c r="O556" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P556" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q556" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R556" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S556" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T556" s="2">
+        <v>5</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V556">
+        <v>0.05</v>
+      </c>
+      <c r="W556">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A557" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C557" s="2">
+        <v>19</v>
+      </c>
+      <c r="D557" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" s="2">
+        <v>3703</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G557">
+        <v>1</v>
+      </c>
+      <c r="H557" s="1">
+        <v>100</v>
+      </c>
+      <c r="I557">
+        <v>2.4</v>
+      </c>
+      <c r="J557">
+        <v>4.8</v>
+      </c>
+      <c r="K557">
+        <v>2.1</v>
+      </c>
+      <c r="L557" s="1">
+        <v>30</v>
+      </c>
+      <c r="M557" s="1">
+        <v>50</v>
+      </c>
+      <c r="N557" s="1">
+        <v>2</v>
+      </c>
+      <c r="O557" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P557" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q557" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R557" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S557" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T557" s="2">
+        <v>5</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V557">
+        <v>0.05</v>
+      </c>
+      <c r="W557">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A558" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C558" s="2">
+        <v>20</v>
+      </c>
+      <c r="D558" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558" s="1">
+        <v>100</v>
+      </c>
+      <c r="I558">
+        <v>2.4</v>
+      </c>
+      <c r="J558">
+        <v>4.8</v>
+      </c>
+      <c r="K558">
+        <v>2.1</v>
+      </c>
+      <c r="L558" s="1">
+        <v>30</v>
+      </c>
+      <c r="M558" s="1">
+        <v>50</v>
+      </c>
+      <c r="N558" s="1">
+        <v>2</v>
+      </c>
+      <c r="O558" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P558" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q558" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R558" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S558" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T558" s="2">
+        <v>5</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V558">
+        <v>0.05</v>
+      </c>
+      <c r="W558">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A559" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C559" s="2">
+        <v>21</v>
+      </c>
+      <c r="D559" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E559" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G559">
+        <v>1</v>
+      </c>
+      <c r="H559" s="1">
+        <v>100</v>
+      </c>
+      <c r="I559">
+        <v>2.4</v>
+      </c>
+      <c r="J559">
+        <v>4.8</v>
+      </c>
+      <c r="K559">
+        <v>2.1</v>
+      </c>
+      <c r="L559" s="1">
+        <v>30</v>
+      </c>
+      <c r="M559" s="1">
+        <v>50</v>
+      </c>
+      <c r="N559" s="1">
+        <v>2</v>
+      </c>
+      <c r="O559" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P559" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q559" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R559" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S559" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T559" s="2">
+        <v>5</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V559">
+        <v>0.05</v>
+      </c>
+      <c r="W559">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A560" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C560" s="2">
+        <v>22</v>
+      </c>
+      <c r="D560" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G560">
+        <v>1</v>
+      </c>
+      <c r="H560" s="1">
+        <v>100</v>
+      </c>
+      <c r="I560">
+        <v>2.4</v>
+      </c>
+      <c r="J560">
+        <v>4.8</v>
+      </c>
+      <c r="K560">
+        <v>2.1</v>
+      </c>
+      <c r="L560" s="1">
+        <v>30</v>
+      </c>
+      <c r="M560" s="1">
+        <v>50</v>
+      </c>
+      <c r="N560" s="1">
+        <v>2</v>
+      </c>
+      <c r="O560" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P560" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q560" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R560" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S560" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T560" s="2">
+        <v>5</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V560">
+        <v>0.05</v>
+      </c>
+      <c r="W560">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A561" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C561" s="2">
+        <v>23</v>
+      </c>
+      <c r="D561" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" s="2">
+        <v>8500</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="H561" s="1">
+        <v>100</v>
+      </c>
+      <c r="I561">
+        <v>2.4</v>
+      </c>
+      <c r="J561">
+        <v>4.8</v>
+      </c>
+      <c r="K561">
+        <v>2.1</v>
+      </c>
+      <c r="L561" s="1">
+        <v>30</v>
+      </c>
+      <c r="M561" s="1">
+        <v>50</v>
+      </c>
+      <c r="N561" s="1">
+        <v>2</v>
+      </c>
+      <c r="O561" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P561" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q561" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R561" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S561" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T561" s="2">
+        <v>5</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V561">
+        <v>0.05</v>
+      </c>
+      <c r="W561">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A562" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C562" s="2">
+        <v>24</v>
+      </c>
+      <c r="D562" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E562" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G562">
+        <v>1</v>
+      </c>
+      <c r="H562" s="1">
+        <v>100</v>
+      </c>
+      <c r="I562">
+        <v>2.4</v>
+      </c>
+      <c r="J562">
+        <v>4.8</v>
+      </c>
+      <c r="K562">
+        <v>2.1</v>
+      </c>
+      <c r="L562" s="1">
+        <v>30</v>
+      </c>
+      <c r="M562" s="1">
+        <v>50</v>
+      </c>
+      <c r="N562" s="1">
+        <v>2</v>
+      </c>
+      <c r="O562" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P562" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q562" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R562" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S562" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T562" s="2">
+        <v>5</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V562">
+        <v>0.05</v>
+      </c>
+      <c r="W562">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A563" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C563" s="2">
+        <v>25</v>
+      </c>
+      <c r="D563" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E563" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563" s="1">
+        <v>100</v>
+      </c>
+      <c r="I563">
+        <v>2.4</v>
+      </c>
+      <c r="J563">
+        <v>4.8</v>
+      </c>
+      <c r="K563">
+        <v>2.1</v>
+      </c>
+      <c r="L563" s="1">
+        <v>30</v>
+      </c>
+      <c r="M563" s="1">
+        <v>50</v>
+      </c>
+      <c r="N563" s="1">
+        <v>2</v>
+      </c>
+      <c r="O563" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P563" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q563" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R563" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S563" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T563" s="2">
+        <v>5</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V563">
+        <v>0.05</v>
+      </c>
+      <c r="W563">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A564" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C564" s="2">
+        <v>26</v>
+      </c>
+      <c r="D564" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564" s="1">
+        <v>100</v>
+      </c>
+      <c r="I564">
+        <v>2.4</v>
+      </c>
+      <c r="J564">
+        <v>4.8</v>
+      </c>
+      <c r="K564">
+        <v>2.1</v>
+      </c>
+      <c r="L564" s="1">
+        <v>30</v>
+      </c>
+      <c r="M564" s="1">
+        <v>50</v>
+      </c>
+      <c r="N564" s="1">
+        <v>2</v>
+      </c>
+      <c r="O564" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P564" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q564" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R564" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S564" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T564" s="2">
+        <v>5</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V564">
+        <v>0.05</v>
+      </c>
+      <c r="W564">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A565" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C565" s="2">
+        <v>27</v>
+      </c>
+      <c r="D565" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E565" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" s="1">
+        <v>100</v>
+      </c>
+      <c r="I565">
+        <v>2.4</v>
+      </c>
+      <c r="J565">
+        <v>4.8</v>
+      </c>
+      <c r="K565">
+        <v>2.1</v>
+      </c>
+      <c r="L565" s="1">
+        <v>30</v>
+      </c>
+      <c r="M565" s="1">
+        <v>50</v>
+      </c>
+      <c r="N565" s="1">
+        <v>2</v>
+      </c>
+      <c r="O565" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P565" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q565" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R565" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S565" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T565" s="2">
+        <v>5</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V565">
+        <v>0.05</v>
+      </c>
+      <c r="W565">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A566" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C566" s="2">
+        <v>28</v>
+      </c>
+      <c r="D566" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E566" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" s="1">
+        <v>100</v>
+      </c>
+      <c r="I566">
+        <v>2.4</v>
+      </c>
+      <c r="J566">
+        <v>4.8</v>
+      </c>
+      <c r="K566">
+        <v>2.1</v>
+      </c>
+      <c r="L566" s="1">
+        <v>30</v>
+      </c>
+      <c r="M566" s="1">
+        <v>50</v>
+      </c>
+      <c r="N566" s="1">
+        <v>2</v>
+      </c>
+      <c r="O566" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P566" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q566" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R566" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S566" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T566" s="2">
+        <v>5</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V566">
+        <v>0.05</v>
+      </c>
+      <c r="W566">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A567" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C567" s="2">
+        <v>29</v>
+      </c>
+      <c r="D567" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567" s="1">
+        <v>100</v>
+      </c>
+      <c r="I567">
+        <v>2.4</v>
+      </c>
+      <c r="J567">
+        <v>4.8</v>
+      </c>
+      <c r="K567">
+        <v>2.1</v>
+      </c>
+      <c r="L567" s="1">
+        <v>30</v>
+      </c>
+      <c r="M567" s="1">
+        <v>50</v>
+      </c>
+      <c r="N567" s="1">
+        <v>2</v>
+      </c>
+      <c r="O567" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P567" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q567" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R567" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S567" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T567" s="2">
+        <v>5</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V567">
+        <v>0.05</v>
+      </c>
+      <c r="W567">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A568" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C568" s="2">
+        <v>30</v>
+      </c>
+      <c r="D568" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" s="1">
+        <v>100</v>
+      </c>
+      <c r="I568">
+        <v>2.4</v>
+      </c>
+      <c r="J568">
+        <v>4.8</v>
+      </c>
+      <c r="K568">
+        <v>2.1</v>
+      </c>
+      <c r="L568" s="1">
+        <v>30</v>
+      </c>
+      <c r="M568" s="1">
+        <v>50</v>
+      </c>
+      <c r="N568" s="1">
+        <v>2</v>
+      </c>
+      <c r="O568" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P568" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q568" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R568" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S568" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T568" s="2">
+        <v>5</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V568">
+        <v>0.05</v>
+      </c>
+      <c r="W568">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A569" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C569" s="2">
+        <v>1</v>
+      </c>
+      <c r="D569" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E569" s="2">
+        <v>104</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569" s="1">
+        <v>100</v>
+      </c>
+      <c r="I569">
+        <v>2.4</v>
+      </c>
+      <c r="J569">
+        <v>4.8</v>
+      </c>
+      <c r="K569">
+        <v>2.1</v>
+      </c>
+      <c r="L569" s="1">
+        <v>30</v>
+      </c>
+      <c r="M569" s="1">
+        <v>50</v>
+      </c>
+      <c r="N569" s="1">
+        <v>2</v>
+      </c>
+      <c r="O569" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P569" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q569" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R569" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S569" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T569" s="2">
+        <v>5</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V569">
+        <v>0.05</v>
+      </c>
+      <c r="W569">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A570" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C570" s="2">
+        <v>2</v>
+      </c>
+      <c r="D570" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E570" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G570">
+        <v>0</v>
+      </c>
+      <c r="H570" s="1">
+        <v>100</v>
+      </c>
+      <c r="I570">
+        <v>2.4</v>
+      </c>
+      <c r="J570">
+        <v>4.8</v>
+      </c>
+      <c r="K570">
+        <v>2.1</v>
+      </c>
+      <c r="L570" s="1">
+        <v>30</v>
+      </c>
+      <c r="M570" s="1">
+        <v>50</v>
+      </c>
+      <c r="N570" s="1">
+        <v>2</v>
+      </c>
+      <c r="O570" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P570" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q570" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R570" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S570" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T570" s="2">
+        <v>5</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V570">
+        <v>0.05</v>
+      </c>
+      <c r="W570">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A571" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C571" s="2">
+        <v>3</v>
+      </c>
+      <c r="D571" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E571" s="2">
+        <v>2502</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G571">
+        <v>0</v>
+      </c>
+      <c r="H571" s="1">
+        <v>100</v>
+      </c>
+      <c r="I571">
+        <v>2.4</v>
+      </c>
+      <c r="J571">
+        <v>4.8</v>
+      </c>
+      <c r="K571">
+        <v>2.1</v>
+      </c>
+      <c r="L571" s="1">
+        <v>30</v>
+      </c>
+      <c r="M571" s="1">
+        <v>50</v>
+      </c>
+      <c r="N571" s="1">
+        <v>2</v>
+      </c>
+      <c r="O571" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P571" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q571" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R571" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S571" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T571" s="2">
+        <v>5</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V571">
+        <v>0.05</v>
+      </c>
+      <c r="W571">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A572" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C572" s="2">
+        <v>4</v>
+      </c>
+      <c r="D572" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E572" s="2">
+        <v>3701</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" s="1">
+        <v>100</v>
+      </c>
+      <c r="I572">
+        <v>2.4</v>
+      </c>
+      <c r="J572">
+        <v>4.8</v>
+      </c>
+      <c r="K572">
+        <v>2.1</v>
+      </c>
+      <c r="L572" s="1">
+        <v>30</v>
+      </c>
+      <c r="M572" s="1">
+        <v>50</v>
+      </c>
+      <c r="N572" s="1">
+        <v>2</v>
+      </c>
+      <c r="O572" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P572" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q572" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R572" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S572" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T572" s="2">
+        <v>5</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V572">
+        <v>0.05</v>
+      </c>
+      <c r="W572">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A573" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C573" s="2">
+        <v>5</v>
+      </c>
+      <c r="D573" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E573" s="2">
+        <v>4905</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" s="1">
+        <v>100</v>
+      </c>
+      <c r="I573">
+        <v>2.4</v>
+      </c>
+      <c r="J573">
+        <v>4.8</v>
+      </c>
+      <c r="K573">
+        <v>2.1</v>
+      </c>
+      <c r="L573" s="1">
+        <v>30</v>
+      </c>
+      <c r="M573" s="1">
+        <v>50</v>
+      </c>
+      <c r="N573" s="1">
+        <v>2</v>
+      </c>
+      <c r="O573" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P573" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q573" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R573" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S573" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T573" s="2">
+        <v>5</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V573">
+        <v>0.05</v>
+      </c>
+      <c r="W573">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A574" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C574" s="2">
+        <v>6</v>
+      </c>
+      <c r="D574" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" s="1">
+        <v>100</v>
+      </c>
+      <c r="I574">
+        <v>2.4</v>
+      </c>
+      <c r="J574">
+        <v>4.8</v>
+      </c>
+      <c r="K574">
+        <v>2.1</v>
+      </c>
+      <c r="L574" s="1">
+        <v>30</v>
+      </c>
+      <c r="M574" s="1">
+        <v>50</v>
+      </c>
+      <c r="N574" s="1">
+        <v>2</v>
+      </c>
+      <c r="O574" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P574" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q574" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R574" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S574" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T574" s="2">
+        <v>5</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V574">
+        <v>0.05</v>
+      </c>
+      <c r="W574">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A575" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C575" s="2">
+        <v>7</v>
+      </c>
+      <c r="D575" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E575" s="2">
+        <v>7301</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575" s="1">
+        <v>100</v>
+      </c>
+      <c r="I575">
+        <v>2.4</v>
+      </c>
+      <c r="J575">
+        <v>4.8</v>
+      </c>
+      <c r="K575">
+        <v>2.1</v>
+      </c>
+      <c r="L575" s="1">
+        <v>30</v>
+      </c>
+      <c r="M575" s="1">
+        <v>50</v>
+      </c>
+      <c r="N575" s="1">
+        <v>2</v>
+      </c>
+      <c r="O575" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P575" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q575" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R575" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S575" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T575" s="2">
+        <v>5</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V575">
+        <v>0.05</v>
+      </c>
+      <c r="W575">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A576" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C576" s="2">
+        <v>8</v>
+      </c>
+      <c r="D576" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E576" s="2">
+        <v>8502</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576" s="1">
+        <v>100</v>
+      </c>
+      <c r="I576">
+        <v>2.4</v>
+      </c>
+      <c r="J576">
+        <v>4.8</v>
+      </c>
+      <c r="K576">
+        <v>2.1</v>
+      </c>
+      <c r="L576" s="1">
+        <v>30</v>
+      </c>
+      <c r="M576" s="1">
+        <v>50</v>
+      </c>
+      <c r="N576" s="1">
+        <v>2</v>
+      </c>
+      <c r="O576" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P576" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q576" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R576" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S576" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T576" s="2">
+        <v>5</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V576">
+        <v>0.05</v>
+      </c>
+      <c r="W576">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A577" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C577" s="2">
+        <v>9</v>
+      </c>
+      <c r="D577" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E577" s="2">
+        <v>9703</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G577">
+        <v>1</v>
+      </c>
+      <c r="H577" s="1">
+        <v>100</v>
+      </c>
+      <c r="I577">
+        <v>2.4</v>
+      </c>
+      <c r="J577">
+        <v>4.8</v>
+      </c>
+      <c r="K577">
+        <v>2.1</v>
+      </c>
+      <c r="L577" s="1">
+        <v>30</v>
+      </c>
+      <c r="M577" s="1">
+        <v>50</v>
+      </c>
+      <c r="N577" s="1">
+        <v>2</v>
+      </c>
+      <c r="O577" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P577" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q577" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R577" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S577" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T577" s="2">
+        <v>5</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V577">
+        <v>0.05</v>
+      </c>
+      <c r="W577">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A578" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C578" s="2">
+        <v>10</v>
+      </c>
+      <c r="D578" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E578" s="2">
+        <v>10900</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G578">
+        <v>1</v>
+      </c>
+      <c r="H578" s="1">
+        <v>100</v>
+      </c>
+      <c r="I578">
+        <v>2.4</v>
+      </c>
+      <c r="J578">
+        <v>4.8</v>
+      </c>
+      <c r="K578">
+        <v>2.1</v>
+      </c>
+      <c r="L578" s="1">
+        <v>30</v>
+      </c>
+      <c r="M578" s="1">
+        <v>50</v>
+      </c>
+      <c r="N578" s="1">
+        <v>2</v>
+      </c>
+      <c r="O578" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P578" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q578" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R578" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S578" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T578" s="2">
+        <v>5</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V578">
+        <v>0.05</v>
+      </c>
+      <c r="W578">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A579" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C579" s="2">
+        <v>11</v>
+      </c>
+      <c r="D579" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E579" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G579">
+        <v>1</v>
+      </c>
+      <c r="H579" s="1">
+        <v>100</v>
+      </c>
+      <c r="I579">
+        <v>2.4</v>
+      </c>
+      <c r="J579">
+        <v>4.8</v>
+      </c>
+      <c r="K579">
+        <v>2.1</v>
+      </c>
+      <c r="L579" s="1">
+        <v>30</v>
+      </c>
+      <c r="M579" s="1">
+        <v>50</v>
+      </c>
+      <c r="N579" s="1">
+        <v>2</v>
+      </c>
+      <c r="O579" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P579" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q579" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R579" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S579" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T579" s="2">
+        <v>5</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V579">
+        <v>0.05</v>
+      </c>
+      <c r="W579">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A580" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C580" s="2">
+        <v>12</v>
+      </c>
+      <c r="D580" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E580" s="2">
+        <v>13299</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
+      <c r="H580" s="1">
+        <v>100</v>
+      </c>
+      <c r="I580">
+        <v>2.4</v>
+      </c>
+      <c r="J580">
+        <v>4.8</v>
+      </c>
+      <c r="K580">
+        <v>2.1</v>
+      </c>
+      <c r="L580" s="1">
+        <v>30</v>
+      </c>
+      <c r="M580" s="1">
+        <v>50</v>
+      </c>
+      <c r="N580" s="1">
+        <v>2</v>
+      </c>
+      <c r="O580" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P580" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q580" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R580" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S580" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T580" s="2">
+        <v>5</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V580">
+        <v>0.05</v>
+      </c>
+      <c r="W580">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A581" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C581" s="2">
+        <v>13</v>
+      </c>
+      <c r="D581" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E581" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581" s="1">
+        <v>100</v>
+      </c>
+      <c r="I581">
+        <v>2.4</v>
+      </c>
+      <c r="J581">
+        <v>4.8</v>
+      </c>
+      <c r="K581">
+        <v>2.1</v>
+      </c>
+      <c r="L581" s="1">
+        <v>30</v>
+      </c>
+      <c r="M581" s="1">
+        <v>50</v>
+      </c>
+      <c r="N581" s="1">
+        <v>2</v>
+      </c>
+      <c r="O581" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P581" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q581" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R581" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S581" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T581" s="2">
+        <v>5</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V581">
+        <v>0.05</v>
+      </c>
+      <c r="W581">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A582" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C582" s="2">
+        <v>14</v>
+      </c>
+      <c r="D582" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E582" s="2">
+        <v>15704</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582" s="1">
+        <v>100</v>
+      </c>
+      <c r="I582">
+        <v>2.4</v>
+      </c>
+      <c r="J582">
+        <v>4.8</v>
+      </c>
+      <c r="K582">
+        <v>2.1</v>
+      </c>
+      <c r="L582" s="1">
+        <v>30</v>
+      </c>
+      <c r="M582" s="1">
+        <v>50</v>
+      </c>
+      <c r="N582" s="1">
+        <v>2</v>
+      </c>
+      <c r="O582" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P582" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q582" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R582" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S582" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T582" s="2">
+        <v>5</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V582">
+        <v>0.05</v>
+      </c>
+      <c r="W582">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A583" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C583" s="2">
+        <v>15</v>
+      </c>
+      <c r="D583" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E583" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G583">
+        <v>1</v>
+      </c>
+      <c r="H583" s="1">
+        <v>100</v>
+      </c>
+      <c r="I583">
+        <v>2.4</v>
+      </c>
+      <c r="J583">
+        <v>4.8</v>
+      </c>
+      <c r="K583">
+        <v>2.1</v>
+      </c>
+      <c r="L583" s="1">
+        <v>30</v>
+      </c>
+      <c r="M583" s="1">
+        <v>50</v>
+      </c>
+      <c r="N583" s="1">
+        <v>2</v>
+      </c>
+      <c r="O583" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P583" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q583" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R583" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S583" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T583" s="2">
+        <v>5</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V583">
+        <v>0.05</v>
+      </c>
+      <c r="W583">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A584" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C584" s="2">
+        <v>16</v>
+      </c>
+      <c r="D584" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E584" s="2">
+        <v>103</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G584">
+        <v>1</v>
+      </c>
+      <c r="H584" s="1">
+        <v>100</v>
+      </c>
+      <c r="I584">
+        <v>2.4</v>
+      </c>
+      <c r="J584">
+        <v>4.8</v>
+      </c>
+      <c r="K584">
+        <v>2.1</v>
+      </c>
+      <c r="L584" s="1">
+        <v>30</v>
+      </c>
+      <c r="M584" s="1">
+        <v>50</v>
+      </c>
+      <c r="N584" s="1">
+        <v>2</v>
+      </c>
+      <c r="O584" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P584" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q584" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R584" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S584" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T584" s="2">
+        <v>5</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V584">
+        <v>0.05</v>
+      </c>
+      <c r="W584">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A585" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C585" s="2">
+        <v>17</v>
+      </c>
+      <c r="D585" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E585" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585" s="1">
+        <v>100</v>
+      </c>
+      <c r="I585">
+        <v>2.4</v>
+      </c>
+      <c r="J585">
+        <v>4.8</v>
+      </c>
+      <c r="K585">
+        <v>2.1</v>
+      </c>
+      <c r="L585" s="1">
+        <v>30</v>
+      </c>
+      <c r="M585" s="1">
+        <v>50</v>
+      </c>
+      <c r="N585" s="1">
+        <v>2</v>
+      </c>
+      <c r="O585" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P585" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q585" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R585" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S585" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T585" s="2">
+        <v>5</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V585">
+        <v>0.05</v>
+      </c>
+      <c r="W585">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A586" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C586" s="2">
+        <v>18</v>
+      </c>
+      <c r="D586" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E586" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G586">
+        <v>1</v>
+      </c>
+      <c r="H586" s="1">
+        <v>100</v>
+      </c>
+      <c r="I586">
+        <v>2.4</v>
+      </c>
+      <c r="J586">
+        <v>4.8</v>
+      </c>
+      <c r="K586">
+        <v>2.1</v>
+      </c>
+      <c r="L586" s="1">
+        <v>30</v>
+      </c>
+      <c r="M586" s="1">
+        <v>50</v>
+      </c>
+      <c r="N586" s="1">
+        <v>2</v>
+      </c>
+      <c r="O586" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P586" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q586" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R586" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S586" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T586" s="2">
+        <v>5</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V586">
+        <v>0.05</v>
+      </c>
+      <c r="W586">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A587" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C587" s="2">
+        <v>19</v>
+      </c>
+      <c r="D587" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E587" s="2">
+        <v>3698</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G587">
+        <v>1</v>
+      </c>
+      <c r="H587" s="1">
+        <v>100</v>
+      </c>
+      <c r="I587">
+        <v>2.4</v>
+      </c>
+      <c r="J587">
+        <v>4.8</v>
+      </c>
+      <c r="K587">
+        <v>2.1</v>
+      </c>
+      <c r="L587" s="1">
+        <v>30</v>
+      </c>
+      <c r="M587" s="1">
+        <v>50</v>
+      </c>
+      <c r="N587" s="1">
+        <v>2</v>
+      </c>
+      <c r="O587" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P587" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q587" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R587" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S587" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T587" s="2">
+        <v>5</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V587">
+        <v>0.05</v>
+      </c>
+      <c r="W587">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A588" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C588" s="2">
+        <v>20</v>
+      </c>
+      <c r="D588" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E588" s="2">
+        <v>4900</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+      <c r="H588" s="1">
+        <v>100</v>
+      </c>
+      <c r="I588">
+        <v>2.4</v>
+      </c>
+      <c r="J588">
+        <v>4.8</v>
+      </c>
+      <c r="K588">
+        <v>2.1</v>
+      </c>
+      <c r="L588" s="1">
+        <v>30</v>
+      </c>
+      <c r="M588" s="1">
+        <v>50</v>
+      </c>
+      <c r="N588" s="1">
+        <v>2</v>
+      </c>
+      <c r="O588" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P588" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q588" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R588" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S588" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T588" s="2">
+        <v>5</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V588">
+        <v>0.05</v>
+      </c>
+      <c r="W588">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A589" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C589" s="2">
+        <v>21</v>
+      </c>
+      <c r="D589" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E589" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+      <c r="H589" s="1">
+        <v>100</v>
+      </c>
+      <c r="I589">
+        <v>2.4</v>
+      </c>
+      <c r="J589">
+        <v>4.8</v>
+      </c>
+      <c r="K589">
+        <v>2.1</v>
+      </c>
+      <c r="L589" s="1">
+        <v>30</v>
+      </c>
+      <c r="M589" s="1">
+        <v>50</v>
+      </c>
+      <c r="N589" s="1">
+        <v>2</v>
+      </c>
+      <c r="O589" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P589" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q589" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R589" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S589" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T589" s="2">
+        <v>5</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V589">
+        <v>0.05</v>
+      </c>
+      <c r="W589">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A590" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C590" s="2">
+        <v>22</v>
+      </c>
+      <c r="D590" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G590">
+        <v>1</v>
+      </c>
+      <c r="H590" s="1">
+        <v>100</v>
+      </c>
+      <c r="I590">
+        <v>2.4</v>
+      </c>
+      <c r="J590">
+        <v>4.8</v>
+      </c>
+      <c r="K590">
+        <v>2.1</v>
+      </c>
+      <c r="L590" s="1">
+        <v>30</v>
+      </c>
+      <c r="M590" s="1">
+        <v>50</v>
+      </c>
+      <c r="N590" s="1">
+        <v>2</v>
+      </c>
+      <c r="O590" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P590" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q590" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R590" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S590" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T590" s="2">
+        <v>5</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V590">
+        <v>0.05</v>
+      </c>
+      <c r="W590">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A591" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C591" s="2">
+        <v>23</v>
+      </c>
+      <c r="D591" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E591" s="2">
+        <v>8499</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591" s="1">
+        <v>100</v>
+      </c>
+      <c r="I591">
+        <v>2.4</v>
+      </c>
+      <c r="J591">
+        <v>4.8</v>
+      </c>
+      <c r="K591">
+        <v>2.1</v>
+      </c>
+      <c r="L591" s="1">
+        <v>30</v>
+      </c>
+      <c r="M591" s="1">
+        <v>50</v>
+      </c>
+      <c r="N591" s="1">
+        <v>2</v>
+      </c>
+      <c r="O591" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P591" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q591" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R591" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S591" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T591" s="2">
+        <v>5</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V591">
+        <v>0.05</v>
+      </c>
+      <c r="W591">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A592" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C592" s="2">
+        <v>24</v>
+      </c>
+      <c r="D592" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E592" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G592">
+        <v>1</v>
+      </c>
+      <c r="H592" s="1">
+        <v>100</v>
+      </c>
+      <c r="I592">
+        <v>2.4</v>
+      </c>
+      <c r="J592">
+        <v>4.8</v>
+      </c>
+      <c r="K592">
+        <v>2.1</v>
+      </c>
+      <c r="L592" s="1">
+        <v>30</v>
+      </c>
+      <c r="M592" s="1">
+        <v>50</v>
+      </c>
+      <c r="N592" s="1">
+        <v>2</v>
+      </c>
+      <c r="O592" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P592" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q592" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R592" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S592" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T592" s="2">
+        <v>5</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V592">
+        <v>0.05</v>
+      </c>
+      <c r="W592">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A593" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C593" s="2">
+        <v>25</v>
+      </c>
+      <c r="D593" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E593" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G593">
+        <v>1</v>
+      </c>
+      <c r="H593" s="1">
+        <v>100</v>
+      </c>
+      <c r="I593">
+        <v>2.4</v>
+      </c>
+      <c r="J593">
+        <v>4.8</v>
+      </c>
+      <c r="K593">
+        <v>2.1</v>
+      </c>
+      <c r="L593" s="1">
+        <v>30</v>
+      </c>
+      <c r="M593" s="1">
+        <v>50</v>
+      </c>
+      <c r="N593" s="1">
+        <v>2</v>
+      </c>
+      <c r="O593" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P593" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q593" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R593" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S593" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T593" s="2">
+        <v>5</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V593">
+        <v>0.05</v>
+      </c>
+      <c r="W593">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A594" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C594" s="2">
+        <v>26</v>
+      </c>
+      <c r="D594" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E594" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594" s="1">
+        <v>100</v>
+      </c>
+      <c r="I594">
+        <v>2.4</v>
+      </c>
+      <c r="J594">
+        <v>4.8</v>
+      </c>
+      <c r="K594">
+        <v>2.1</v>
+      </c>
+      <c r="L594" s="1">
+        <v>30</v>
+      </c>
+      <c r="M594" s="1">
+        <v>50</v>
+      </c>
+      <c r="N594" s="1">
+        <v>2</v>
+      </c>
+      <c r="O594" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P594" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q594" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R594" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S594" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T594" s="2">
+        <v>5</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V594">
+        <v>0.05</v>
+      </c>
+      <c r="W594">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A595" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C595" s="2">
+        <v>27</v>
+      </c>
+      <c r="D595" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E595" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G595">
+        <v>1</v>
+      </c>
+      <c r="H595" s="1">
+        <v>100</v>
+      </c>
+      <c r="I595">
+        <v>2.4</v>
+      </c>
+      <c r="J595">
+        <v>4.8</v>
+      </c>
+      <c r="K595">
+        <v>2.1</v>
+      </c>
+      <c r="L595" s="1">
+        <v>30</v>
+      </c>
+      <c r="M595" s="1">
+        <v>50</v>
+      </c>
+      <c r="N595" s="1">
+        <v>2</v>
+      </c>
+      <c r="O595" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P595" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q595" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R595" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S595" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T595" s="2">
+        <v>5</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V595">
+        <v>0.05</v>
+      </c>
+      <c r="W595">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A596" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C596" s="2">
+        <v>28</v>
+      </c>
+      <c r="D596" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E596" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G596">
+        <v>1</v>
+      </c>
+      <c r="H596" s="1">
+        <v>100</v>
+      </c>
+      <c r="I596">
+        <v>2.4</v>
+      </c>
+      <c r="J596">
+        <v>4.8</v>
+      </c>
+      <c r="K596">
+        <v>2.1</v>
+      </c>
+      <c r="L596" s="1">
+        <v>30</v>
+      </c>
+      <c r="M596" s="1">
+        <v>50</v>
+      </c>
+      <c r="N596" s="1">
+        <v>2</v>
+      </c>
+      <c r="O596" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P596" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q596" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R596" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S596" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T596" s="2">
+        <v>5</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V596">
+        <v>0.05</v>
+      </c>
+      <c r="W596">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A597" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C597" s="2">
+        <v>29</v>
+      </c>
+      <c r="D597" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E597" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597" s="1">
+        <v>100</v>
+      </c>
+      <c r="I597">
+        <v>2.4</v>
+      </c>
+      <c r="J597">
+        <v>4.8</v>
+      </c>
+      <c r="K597">
+        <v>2.1</v>
+      </c>
+      <c r="L597" s="1">
+        <v>30</v>
+      </c>
+      <c r="M597" s="1">
+        <v>50</v>
+      </c>
+      <c r="N597" s="1">
+        <v>2</v>
+      </c>
+      <c r="O597" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P597" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q597" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R597" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S597" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T597" s="2">
+        <v>5</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V597">
+        <v>0.05</v>
+      </c>
+      <c r="W597">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A598" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C598" s="2">
+        <v>30</v>
+      </c>
+      <c r="D598" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E598" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G598">
+        <v>1</v>
+      </c>
+      <c r="H598" s="1">
+        <v>100</v>
+      </c>
+      <c r="I598">
+        <v>2.4</v>
+      </c>
+      <c r="J598">
+        <v>4.8</v>
+      </c>
+      <c r="K598">
+        <v>2.1</v>
+      </c>
+      <c r="L598" s="1">
+        <v>30</v>
+      </c>
+      <c r="M598" s="1">
+        <v>50</v>
+      </c>
+      <c r="N598" s="1">
+        <v>2</v>
+      </c>
+      <c r="O598" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P598" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q598" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R598" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S598" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T598" s="2">
+        <v>5</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V598">
+        <v>0.05</v>
+      </c>
+      <c r="W598">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y485"/>
+  <autoFilter ref="A1:Y533"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$533</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">file_params!$A$1:$Y$593</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="112">
   <si>
     <t>filename</t>
   </si>
@@ -436,7 +436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,13 +453,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="15" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +470,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="15" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -475,6 +479,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1044,11 +1049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2019401360"/>
-        <c:axId val="-2019397936"/>
+        <c:axId val="-2064877952"/>
+        <c:axId val="-2113033728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2019401360"/>
+        <c:axId val="-2064877952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019397936"/>
+        <c:crossAx val="-2113033728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1099,7 +1104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019397936"/>
+        <c:axId val="-2113033728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019401360"/>
+        <c:crossAx val="-2064877952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1811,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,13 +2095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y598"/>
+  <dimension ref="A1:Y658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D507" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D580" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E523" sqref="E523"/>
+      <selection pane="bottomRight" activeCell="D592" sqref="D592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32755,7 +32760,7 @@
         <v>4</v>
       </c>
       <c r="Q411" s="1">
-        <f t="shared" ref="Q411:Q542" si="58">2.7*10^-6</f>
+        <f t="shared" ref="Q411:Q602" si="58">2.7*10^-6</f>
         <v>2.7E-6</v>
       </c>
       <c r="R411" s="1" t="b">
@@ -39913,19 +39918,19 @@
     </row>
     <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C510" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D510" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E510" s="2">
-        <v>103</v>
+        <v>2573</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>80</v>
@@ -39985,19 +39990,19 @@
     </row>
     <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C511" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D511" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E511" s="2">
-        <v>1460</v>
+        <v>2585</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>80</v>
@@ -40057,19 +40062,19 @@
     </row>
     <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C512" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D512" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E512" s="2">
-        <v>1511</v>
+        <v>2631</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>80</v>
@@ -40129,19 +40134,19 @@
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C513" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D513" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E513" s="2">
-        <v>1560</v>
+        <v>2681</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>80</v>
@@ -40201,19 +40206,19 @@
     </row>
     <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C514" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D514" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E514" s="2">
-        <v>1612</v>
+        <v>2734</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>80</v>
@@ -40273,19 +40278,19 @@
     </row>
     <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C515" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D515" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E515" s="2">
-        <v>1659</v>
+        <v>2780</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>80</v>
@@ -40351,13 +40356,13 @@
         <v>88</v>
       </c>
       <c r="C516" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D516" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E516" s="2">
-        <v>1715</v>
+        <v>103</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>80</v>
@@ -40417,19 +40422,19 @@
     </row>
     <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C517" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E517" s="2">
-        <v>103</v>
+        <v>1460</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>80</v>
@@ -40489,19 +40494,19 @@
     </row>
     <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C518" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D518" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E518" s="2">
-        <v>1626</v>
+        <v>1511</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>80</v>
@@ -40561,19 +40566,19 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C519" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D519" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E519" s="2">
-        <v>1670</v>
+        <v>1560</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>80</v>
@@ -40633,19 +40638,19 @@
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C520" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D520" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E520" s="2">
-        <v>1723</v>
+        <v>1612</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>80</v>
@@ -40705,19 +40710,19 @@
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C521" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D521" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E521" s="2">
-        <v>1782</v>
+        <v>1659</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>80</v>
@@ -40777,19 +40782,19 @@
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C522" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D522" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E522" s="2">
-        <v>1830</v>
+        <v>1715</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>80</v>
@@ -40855,13 +40860,13 @@
         <v>88</v>
       </c>
       <c r="C523" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D523" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E523" s="2">
-        <v>1881</v>
+        <v>103</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>80</v>
@@ -40921,19 +40926,19 @@
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C524" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D524" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E524" s="2">
-        <v>104</v>
+        <v>1626</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>80</v>
@@ -40993,19 +40998,19 @@
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C525" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D525" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E525" s="2">
-        <v>106</v>
+        <v>1670</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>80</v>
@@ -41065,19 +41070,19 @@
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C526" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D526" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E526" s="2">
-        <v>102</v>
+        <v>1723</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>80</v>
@@ -41137,19 +41142,19 @@
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C527" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D527" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E527" s="2">
-        <v>102</v>
+        <v>1782</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>80</v>
@@ -41209,19 +41214,19 @@
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C528" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D528" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E528" s="2">
-        <v>105</v>
+        <v>1830</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>80</v>
@@ -41281,19 +41286,19 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C529" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D529" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E529" s="2">
-        <v>102</v>
+        <v>1881</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>80</v>
@@ -41353,19 +41358,19 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C530" s="2">
+        <v>1</v>
+      </c>
+      <c r="D530" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E530" s="2">
         <v>104</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C530" s="2">
-        <v>1</v>
-      </c>
-      <c r="D530" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E530" s="2">
-        <v>102</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>80</v>
@@ -41425,19 +41430,19 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C531" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D531" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E531" s="2">
-        <v>102</v>
+        <v>1520</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>80</v>
@@ -41497,19 +41502,19 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C532" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D532" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532" s="2">
-        <v>102</v>
+        <v>1569</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>80</v>
@@ -41569,19 +41574,19 @@
     </row>
     <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C533" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D533" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E533" s="2">
-        <v>102</v>
+        <v>1620</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>80</v>
@@ -41624,7 +41629,7 @@
         <v>1</v>
       </c>
       <c r="S533" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T533" s="2">
         <v>5</v>
@@ -41641,19 +41646,19 @@
     </row>
     <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C534" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D534" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E534" s="2">
-        <v>106</v>
+        <v>1667</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>80</v>
@@ -41696,7 +41701,7 @@
         <v>1</v>
       </c>
       <c r="S534" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T534" s="2">
         <v>5</v>
@@ -41713,19 +41718,19 @@
     </row>
     <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C535" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D535" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535" s="2">
-        <v>108</v>
+        <v>1723</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>80</v>
@@ -41768,7 +41773,7 @@
         <v>1</v>
       </c>
       <c r="S535" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T535" s="2">
         <v>5</v>
@@ -41785,19 +41790,19 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C536" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D536" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E536" s="2">
-        <v>108</v>
+        <v>1771</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>80</v>
@@ -41840,7 +41845,7 @@
         <v>1</v>
       </c>
       <c r="S536" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T536" s="2">
         <v>5</v>
@@ -41857,19 +41862,19 @@
     </row>
     <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C537" s="2">
         <v>1</v>
       </c>
       <c r="D537" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E537" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>80</v>
@@ -41912,7 +41917,7 @@
         <v>1</v>
       </c>
       <c r="S537" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T537" s="2">
         <v>5</v>
@@ -41929,19 +41934,19 @@
     </row>
     <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C538" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D538" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E538" s="2">
-        <v>109</v>
+        <v>1379</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>80</v>
@@ -41984,7 +41989,7 @@
         <v>1</v>
       </c>
       <c r="S538" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="T538" s="2">
         <v>5</v>
@@ -42001,19 +42006,19 @@
     </row>
     <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C539" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D539" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E539" s="2">
-        <v>103</v>
+        <v>1426</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>80</v>
@@ -42073,19 +42078,19 @@
     </row>
     <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C540" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D540" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E540" s="2">
-        <v>1303</v>
+        <v>1477</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>80</v>
@@ -42145,19 +42150,19 @@
     </row>
     <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C541" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D541" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E541" s="2">
-        <v>2506</v>
+        <v>1524</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>80</v>
@@ -42217,25 +42222,25 @@
     </row>
     <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C542" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D542" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542" s="2">
-        <v>3703</v>
+        <v>1578</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H542" s="1">
         <v>100</v>
@@ -42289,25 +42294,25 @@
     </row>
     <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C543" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D543" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E543" s="2">
-        <v>4901</v>
+        <v>1627</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H543" s="1">
         <v>100</v>
@@ -42337,7 +42342,7 @@
         <v>4</v>
       </c>
       <c r="Q543" s="1">
-        <f t="shared" ref="Q543:Q598" si="64">2.7*10^-6</f>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R543" s="1" t="b">
@@ -42361,25 +42366,25 @@
     </row>
     <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C544" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D544" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E544" s="2">
-        <v>6100</v>
+        <v>102</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H544" s="1">
         <v>100</v>
@@ -42409,7 +42414,7 @@
         <v>4</v>
       </c>
       <c r="Q544" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R544" s="1" t="b">
@@ -42433,25 +42438,25 @@
     </row>
     <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C545" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D545" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E545" s="2">
-        <v>7299</v>
+        <v>1425</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H545" s="1">
         <v>100</v>
@@ -42481,7 +42486,7 @@
         <v>4</v>
       </c>
       <c r="Q545" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R545" s="1" t="b">
@@ -42505,25 +42510,25 @@
     </row>
     <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C546" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D546" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E546" s="2">
-        <v>8501</v>
+        <v>1473</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546" s="1">
         <v>100</v>
@@ -42553,7 +42558,7 @@
         <v>4</v>
       </c>
       <c r="Q546" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R546" s="1" t="b">
@@ -42577,25 +42582,25 @@
     </row>
     <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C547" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D547" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E547" s="2">
-        <v>9699</v>
+        <v>1525</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H547" s="1">
         <v>100</v>
@@ -42625,7 +42630,7 @@
         <v>4</v>
       </c>
       <c r="Q547" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R547" s="1" t="b">
@@ -42649,25 +42654,25 @@
     </row>
     <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C548" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D548" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E548" s="2">
-        <v>1089.9000000000001</v>
+        <v>1578</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H548" s="1">
         <v>100</v>
@@ -42697,7 +42702,7 @@
         <v>4</v>
       </c>
       <c r="Q548" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R548" s="1" t="b">
@@ -42721,25 +42726,25 @@
     </row>
     <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C549" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D549" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E549" s="2">
-        <v>12098</v>
+        <v>1629</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H549" s="1">
         <v>100</v>
@@ -42769,7 +42774,7 @@
         <v>4</v>
       </c>
       <c r="Q549" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R549" s="1" t="b">
@@ -42793,25 +42798,25 @@
     </row>
     <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C550" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D550" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E550" s="2">
-        <v>13297</v>
+        <v>1672</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H550" s="1">
         <v>100</v>
@@ -42841,7 +42846,7 @@
         <v>4</v>
       </c>
       <c r="Q550" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R550" s="1" t="b">
@@ -42865,25 +42870,25 @@
     </row>
     <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C551" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D551" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E551" s="2">
-        <v>14503</v>
+        <v>102</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H551" s="1">
         <v>100</v>
@@ -42913,7 +42918,7 @@
         <v>4</v>
       </c>
       <c r="Q551" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R551" s="1" t="b">
@@ -42937,25 +42942,25 @@
     </row>
     <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C552" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D552" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E552" s="2">
-        <v>15698</v>
+        <v>102</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H552" s="1">
         <v>100</v>
@@ -42985,7 +42990,7 @@
         <v>4</v>
       </c>
       <c r="Q552" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R552" s="1" t="b">
@@ -43009,25 +43014,25 @@
     </row>
     <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C553" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D553" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E553" s="2">
-        <v>16896</v>
+        <v>102</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H553" s="1">
         <v>100</v>
@@ -43057,7 +43062,7 @@
         <v>4</v>
       </c>
       <c r="Q553" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R553" s="1" t="b">
@@ -43081,25 +43086,25 @@
     </row>
     <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C554" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D554" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E554" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H554" s="1">
         <v>100</v>
@@ -43129,7 +43134,7 @@
         <v>4</v>
       </c>
       <c r="Q554" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R554" s="1" t="b">
@@ -43153,25 +43158,25 @@
     </row>
     <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C555" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D555" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E555" s="2">
-        <v>1299</v>
+        <v>102</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H555" s="1">
         <v>100</v>
@@ -43201,7 +43206,7 @@
         <v>4</v>
       </c>
       <c r="Q555" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R555" s="1" t="b">
@@ -43225,25 +43230,25 @@
     </row>
     <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C556" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D556" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556" s="2">
-        <v>2505</v>
+        <v>102</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H556" s="1">
         <v>100</v>
@@ -43273,7 +43278,7 @@
         <v>4</v>
       </c>
       <c r="Q556" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R556" s="1" t="b">
@@ -43297,25 +43302,25 @@
     </row>
     <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C557" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D557" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E557" s="2">
-        <v>3703</v>
+        <v>102</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H557" s="1">
         <v>100</v>
@@ -43345,7 +43350,7 @@
         <v>4</v>
       </c>
       <c r="Q557" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R557" s="1" t="b">
@@ -43369,25 +43374,25 @@
     </row>
     <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C558" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D558" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E558" s="2">
-        <v>4901</v>
+        <v>105</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H558" s="1">
         <v>100</v>
@@ -43417,7 +43422,7 @@
         <v>4</v>
       </c>
       <c r="Q558" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R558" s="1" t="b">
@@ -43441,25 +43446,25 @@
     </row>
     <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C559" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D559" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E559" s="2">
-        <v>6101</v>
+        <v>1663</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H559" s="1">
         <v>100</v>
@@ -43489,7 +43494,7 @@
         <v>4</v>
       </c>
       <c r="Q559" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R559" s="1" t="b">
@@ -43513,25 +43518,25 @@
     </row>
     <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C560" s="2">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D560" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E560" s="2">
-        <v>7300</v>
+        <v>1715</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H560" s="1">
         <v>100</v>
@@ -43561,7 +43566,7 @@
         <v>4</v>
       </c>
       <c r="Q560" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R560" s="1" t="b">
@@ -43585,25 +43590,25 @@
     </row>
     <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C561" s="2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D561" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E561" s="2">
-        <v>8500</v>
+        <v>1767</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H561" s="1">
         <v>100</v>
@@ -43633,7 +43638,7 @@
         <v>4</v>
       </c>
       <c r="Q561" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R561" s="1" t="b">
@@ -43657,25 +43662,25 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C562" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D562" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E562" s="2">
-        <v>9699</v>
+        <v>1815</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H562" s="1">
         <v>100</v>
@@ -43705,7 +43710,7 @@
         <v>4</v>
       </c>
       <c r="Q562" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R562" s="1" t="b">
@@ -43729,25 +43734,25 @@
     </row>
     <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C563" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D563" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E563" s="2">
-        <v>10899</v>
+        <v>1869</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H563" s="1">
         <v>100</v>
@@ -43777,7 +43782,7 @@
         <v>4</v>
       </c>
       <c r="Q563" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R563" s="1" t="b">
@@ -43801,25 +43806,25 @@
     </row>
     <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C564" s="2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D564" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E564" s="2">
-        <v>12098</v>
+        <v>1910</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H564" s="1">
         <v>100</v>
@@ -43849,7 +43854,7 @@
         <v>4</v>
       </c>
       <c r="Q564" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R564" s="1" t="b">
@@ -43873,25 +43878,25 @@
     </row>
     <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C565" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D565" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E565" s="2">
-        <v>13298</v>
+        <v>102</v>
       </c>
       <c r="F565" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H565" s="1">
         <v>100</v>
@@ -43921,7 +43926,7 @@
         <v>4</v>
       </c>
       <c r="Q565" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R565" s="1" t="b">
@@ -43945,25 +43950,25 @@
     </row>
     <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C566" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D566" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E566" s="2">
-        <v>14498</v>
+        <v>1473</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H566" s="1">
         <v>100</v>
@@ -43993,7 +43998,7 @@
         <v>4</v>
       </c>
       <c r="Q566" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R566" s="1" t="b">
@@ -44017,25 +44022,25 @@
     </row>
     <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C567" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D567" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E567" s="2">
-        <v>15697</v>
+        <v>1528</v>
       </c>
       <c r="F567" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H567" s="1">
         <v>100</v>
@@ -44065,7 +44070,7 @@
         <v>4</v>
       </c>
       <c r="Q567" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R567" s="1" t="b">
@@ -44089,25 +44094,25 @@
     </row>
     <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C568" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D568" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568" s="2">
-        <v>16897</v>
+        <v>1570</v>
       </c>
       <c r="F568" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H568" s="1">
         <v>100</v>
@@ -44137,7 +44142,7 @@
         <v>4</v>
       </c>
       <c r="Q568" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R568" s="1" t="b">
@@ -44159,21 +44164,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C569" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D569" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E569" s="2">
-        <v>104</v>
+        <v>1618</v>
       </c>
       <c r="F569" s="2" t="s">
         <v>80</v>
@@ -44209,7 +44214,7 @@
         <v>4</v>
       </c>
       <c r="Q569" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R569" s="1" t="b">
@@ -44233,19 +44238,19 @@
     </row>
     <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C570" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D570" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E570" s="2">
-        <v>1302</v>
+        <v>1671</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>80</v>
@@ -44281,7 +44286,7 @@
         <v>4</v>
       </c>
       <c r="Q570" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R570" s="1" t="b">
@@ -44305,19 +44310,19 @@
     </row>
     <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C571" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D571" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E571" s="2">
-        <v>2502</v>
+        <v>1727</v>
       </c>
       <c r="F571" s="2" t="s">
         <v>80</v>
@@ -44353,7 +44358,7 @@
         <v>4</v>
       </c>
       <c r="Q571" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R571" s="1" t="b">
@@ -44377,25 +44382,25 @@
     </row>
     <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C572" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D572" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572" s="2">
-        <v>3701</v>
+        <v>102</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H572" s="1">
         <v>100</v>
@@ -44425,7 +44430,7 @@
         <v>4</v>
       </c>
       <c r="Q572" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R572" s="1" t="b">
@@ -44449,25 +44454,25 @@
     </row>
     <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C573" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D573" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E573" s="2">
-        <v>4905</v>
+        <v>1520</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H573" s="1">
         <v>100</v>
@@ -44497,7 +44502,7 @@
         <v>4</v>
       </c>
       <c r="Q573" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R573" s="1" t="b">
@@ -44521,25 +44526,25 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C574" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D574" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E574" s="2">
-        <v>6101</v>
+        <v>1573</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H574" s="1">
         <v>100</v>
@@ -44569,7 +44574,7 @@
         <v>4</v>
       </c>
       <c r="Q574" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R574" s="1" t="b">
@@ -44593,25 +44598,25 @@
     </row>
     <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C575" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D575" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E575" s="2">
-        <v>7301</v>
+        <v>1623</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H575" s="1">
         <v>100</v>
@@ -44641,7 +44646,7 @@
         <v>4</v>
       </c>
       <c r="Q575" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R575" s="1" t="b">
@@ -44665,25 +44670,25 @@
     </row>
     <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C576" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D576" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E576" s="2">
-        <v>8502</v>
+        <v>1673</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H576" s="1">
         <v>100</v>
@@ -44713,7 +44718,7 @@
         <v>4</v>
       </c>
       <c r="Q576" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R576" s="1" t="b">
@@ -44737,25 +44742,25 @@
     </row>
     <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C577" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D577" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E577" s="2">
-        <v>9703</v>
+        <v>1723</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H577" s="1">
         <v>100</v>
@@ -44785,7 +44790,7 @@
         <v>4</v>
       </c>
       <c r="Q577" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R577" s="1" t="b">
@@ -44809,25 +44814,25 @@
     </row>
     <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C578" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D578" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E578" s="2">
-        <v>10900</v>
+        <v>1772</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H578" s="1">
         <v>100</v>
@@ -44857,7 +44862,7 @@
         <v>4</v>
       </c>
       <c r="Q578" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R578" s="1" t="b">
@@ -44881,25 +44886,25 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C579" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D579" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E579" s="2">
-        <v>12098</v>
+        <v>102</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H579" s="1">
         <v>100</v>
@@ -44929,7 +44934,7 @@
         <v>4</v>
       </c>
       <c r="Q579" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R579" s="1" t="b">
@@ -44953,25 +44958,25 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C580" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D580" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E580" s="2">
-        <v>13299</v>
+        <v>1485</v>
       </c>
       <c r="F580" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H580" s="1">
         <v>100</v>
@@ -45001,7 +45006,7 @@
         <v>4</v>
       </c>
       <c r="Q580" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R580" s="1" t="b">
@@ -45025,25 +45030,25 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C581" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D581" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E581" s="2">
-        <v>14498</v>
+        <v>1538</v>
       </c>
       <c r="F581" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H581" s="1">
         <v>100</v>
@@ -45073,7 +45078,7 @@
         <v>4</v>
       </c>
       <c r="Q581" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R581" s="1" t="b">
@@ -45097,25 +45102,25 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C582" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D582" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582" s="2">
-        <v>15704</v>
+        <v>1589</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H582" s="1">
         <v>100</v>
@@ -45145,7 +45150,7 @@
         <v>4</v>
       </c>
       <c r="Q582" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R582" s="1" t="b">
@@ -45169,25 +45174,25 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C583" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D583" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E583" s="2">
-        <v>16897</v>
+        <v>1641</v>
       </c>
       <c r="F583" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H583" s="1">
         <v>100</v>
@@ -45217,7 +45222,7 @@
         <v>4</v>
       </c>
       <c r="Q583" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R583" s="1" t="b">
@@ -45241,25 +45246,25 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C584" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D584" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E584" s="2">
-        <v>103</v>
+        <v>1693</v>
       </c>
       <c r="F584" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H584" s="1">
         <v>100</v>
@@ -45289,7 +45294,7 @@
         <v>4</v>
       </c>
       <c r="Q584" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R584" s="1" t="b">
@@ -45313,25 +45318,25 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C585" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D585" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E585" s="2">
-        <v>1302</v>
+        <v>1736</v>
       </c>
       <c r="F585" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H585" s="1">
         <v>100</v>
@@ -45361,7 +45366,7 @@
         <v>4</v>
       </c>
       <c r="Q585" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R585" s="1" t="b">
@@ -45385,25 +45390,25 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C586" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D586" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E586" s="2">
-        <v>2500</v>
+        <v>102</v>
       </c>
       <c r="F586" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H586" s="1">
         <v>100</v>
@@ -45433,7 +45438,7 @@
         <v>4</v>
       </c>
       <c r="Q586" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R586" s="1" t="b">
@@ -45457,25 +45462,25 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C587" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D587" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E587" s="2">
-        <v>3698</v>
+        <v>1488</v>
       </c>
       <c r="F587" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H587" s="1">
         <v>100</v>
@@ -45505,7 +45510,7 @@
         <v>4</v>
       </c>
       <c r="Q587" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R587" s="1" t="b">
@@ -45529,25 +45534,25 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C588" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D588" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E588" s="2">
-        <v>4900</v>
+        <v>1540</v>
       </c>
       <c r="F588" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H588" s="1">
         <v>100</v>
@@ -45577,7 +45582,7 @@
         <v>4</v>
       </c>
       <c r="Q588" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R588" s="1" t="b">
@@ -45601,25 +45606,25 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C589" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D589" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E589" s="2">
-        <v>6100</v>
+        <v>1589</v>
       </c>
       <c r="F589" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H589" s="1">
         <v>100</v>
@@ -45649,7 +45654,7 @@
         <v>4</v>
       </c>
       <c r="Q589" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R589" s="1" t="b">
@@ -45673,25 +45678,25 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C590" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D590" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E590" s="2">
-        <v>7300</v>
+        <v>1641</v>
       </c>
       <c r="F590" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H590" s="1">
         <v>100</v>
@@ -45721,7 +45726,7 @@
         <v>4</v>
       </c>
       <c r="Q590" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R590" s="1" t="b">
@@ -45745,25 +45750,25 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C591" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D591" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591" s="2">
-        <v>8499</v>
+        <v>1692</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H591" s="1">
         <v>100</v>
@@ -45793,7 +45798,7 @@
         <v>4</v>
       </c>
       <c r="Q591" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R591" s="1" t="b">
@@ -45817,25 +45822,25 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C592" s="2">
-        <v>24</v>
-      </c>
-      <c r="D592" s="2" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D592" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="E592" s="2">
-        <v>9699</v>
+        <v>1739</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592" s="1">
         <v>100</v>
@@ -45865,7 +45870,7 @@
         <v>4</v>
       </c>
       <c r="Q592" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R592" s="1" t="b">
@@ -45889,25 +45894,25 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C593" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D593" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E593" s="2">
-        <v>10899</v>
+        <v>102</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H593" s="1">
         <v>100</v>
@@ -45937,14 +45942,14 @@
         <v>4</v>
       </c>
       <c r="Q593" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R593" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S593" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T593" s="2">
         <v>5</v>
@@ -45961,25 +45966,25 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C594" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D594" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E594" s="2">
-        <v>12098</v>
+        <v>106</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H594" s="1">
         <v>100</v>
@@ -46009,14 +46014,14 @@
         <v>4</v>
       </c>
       <c r="Q594" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R594" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S594" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T594" s="2">
         <v>5</v>
@@ -46033,25 +46038,25 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C595" s="2">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D595" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E595" s="2">
-        <v>13298</v>
+        <v>108</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H595" s="1">
         <v>100</v>
@@ -46081,14 +46086,14 @@
         <v>4</v>
       </c>
       <c r="Q595" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R595" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S595" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T595" s="2">
         <v>5</v>
@@ -46105,25 +46110,25 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C596" s="2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D596" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E596" s="2">
-        <v>14498</v>
+        <v>108</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H596" s="1">
         <v>100</v>
@@ -46153,14 +46158,14 @@
         <v>4</v>
       </c>
       <c r="Q596" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R596" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S596" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T596" s="2">
         <v>5</v>
@@ -46177,25 +46182,25 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C597" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D597" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E597" s="2">
-        <v>15697</v>
+        <v>105</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H597" s="1">
         <v>100</v>
@@ -46225,14 +46230,14 @@
         <v>4</v>
       </c>
       <c r="Q597" s="1">
-        <f t="shared" si="64"/>
+        <f t="shared" si="58"/>
         <v>2.7E-6</v>
       </c>
       <c r="R597" s="1" t="b">
         <v>1</v>
       </c>
       <c r="S597" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T597" s="2">
         <v>5</v>
@@ -46249,25 +46254,25 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C598" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D598" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E598" s="2">
-        <v>16896</v>
+        <v>109</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>80</v>
       </c>
       <c r="G598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H598" s="1">
         <v>100</v>
@@ -46297,30 +46302,4350 @@
         <v>4</v>
       </c>
       <c r="Q598" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R598" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S598" s="2">
+        <v>10000</v>
+      </c>
+      <c r="T598" s="2">
+        <v>5</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V598">
+        <v>0.05</v>
+      </c>
+      <c r="W598">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A599" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C599" s="2">
+        <v>1</v>
+      </c>
+      <c r="D599" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E599" s="2">
+        <v>103</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599" s="1">
+        <v>100</v>
+      </c>
+      <c r="I599">
+        <v>2.4</v>
+      </c>
+      <c r="J599">
+        <v>4.8</v>
+      </c>
+      <c r="K599">
+        <v>2.1</v>
+      </c>
+      <c r="L599" s="1">
+        <v>30</v>
+      </c>
+      <c r="M599" s="1">
+        <v>50</v>
+      </c>
+      <c r="N599" s="1">
+        <v>2</v>
+      </c>
+      <c r="O599" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P599" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q599" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R599" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S599" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T599" s="2">
+        <v>5</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V599">
+        <v>0.05</v>
+      </c>
+      <c r="W599">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A600" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C600" s="2">
+        <v>2</v>
+      </c>
+      <c r="D600" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E600" s="2">
+        <v>1303</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G600">
+        <v>0</v>
+      </c>
+      <c r="H600" s="1">
+        <v>100</v>
+      </c>
+      <c r="I600">
+        <v>2.4</v>
+      </c>
+      <c r="J600">
+        <v>4.8</v>
+      </c>
+      <c r="K600">
+        <v>2.1</v>
+      </c>
+      <c r="L600" s="1">
+        <v>30</v>
+      </c>
+      <c r="M600" s="1">
+        <v>50</v>
+      </c>
+      <c r="N600" s="1">
+        <v>2</v>
+      </c>
+      <c r="O600" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P600" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q600" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R600" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S600" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T600" s="2">
+        <v>5</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V600">
+        <v>0.05</v>
+      </c>
+      <c r="W600">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A601" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C601" s="2">
+        <v>3</v>
+      </c>
+      <c r="D601" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" s="2">
+        <v>2506</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601" s="1">
+        <v>100</v>
+      </c>
+      <c r="I601">
+        <v>2.4</v>
+      </c>
+      <c r="J601">
+        <v>4.8</v>
+      </c>
+      <c r="K601">
+        <v>2.1</v>
+      </c>
+      <c r="L601" s="1">
+        <v>30</v>
+      </c>
+      <c r="M601" s="1">
+        <v>50</v>
+      </c>
+      <c r="N601" s="1">
+        <v>2</v>
+      </c>
+      <c r="O601" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P601" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q601" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R601" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S601" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T601" s="2">
+        <v>5</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V601">
+        <v>0.05</v>
+      </c>
+      <c r="W601">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A602" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C602" s="2">
+        <v>4</v>
+      </c>
+      <c r="D602" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E602" s="2">
+        <v>3703</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G602">
+        <v>1</v>
+      </c>
+      <c r="H602" s="1">
+        <v>100</v>
+      </c>
+      <c r="I602">
+        <v>2.4</v>
+      </c>
+      <c r="J602">
+        <v>4.8</v>
+      </c>
+      <c r="K602">
+        <v>2.1</v>
+      </c>
+      <c r="L602" s="1">
+        <v>30</v>
+      </c>
+      <c r="M602" s="1">
+        <v>50</v>
+      </c>
+      <c r="N602" s="1">
+        <v>2</v>
+      </c>
+      <c r="O602" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P602" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q602" s="1">
+        <f t="shared" si="58"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R602" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S602" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T602" s="2">
+        <v>5</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V602">
+        <v>0.05</v>
+      </c>
+      <c r="W602">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A603" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C603" s="2">
+        <v>5</v>
+      </c>
+      <c r="D603" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603" s="1">
+        <v>100</v>
+      </c>
+      <c r="I603">
+        <v>2.4</v>
+      </c>
+      <c r="J603">
+        <v>4.8</v>
+      </c>
+      <c r="K603">
+        <v>2.1</v>
+      </c>
+      <c r="L603" s="1">
+        <v>30</v>
+      </c>
+      <c r="M603" s="1">
+        <v>50</v>
+      </c>
+      <c r="N603" s="1">
+        <v>2</v>
+      </c>
+      <c r="O603" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P603" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q603" s="1">
+        <f t="shared" ref="Q603:Q658" si="64">2.7*10^-6</f>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R603" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S603" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T603" s="2">
+        <v>5</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V603">
+        <v>0.05</v>
+      </c>
+      <c r="W603">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A604" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C604" s="2">
+        <v>6</v>
+      </c>
+      <c r="D604" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G604">
+        <v>1</v>
+      </c>
+      <c r="H604" s="1">
+        <v>100</v>
+      </c>
+      <c r="I604">
+        <v>2.4</v>
+      </c>
+      <c r="J604">
+        <v>4.8</v>
+      </c>
+      <c r="K604">
+        <v>2.1</v>
+      </c>
+      <c r="L604" s="1">
+        <v>30</v>
+      </c>
+      <c r="M604" s="1">
+        <v>50</v>
+      </c>
+      <c r="N604" s="1">
+        <v>2</v>
+      </c>
+      <c r="O604" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P604" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q604" s="1">
         <f t="shared" si="64"/>
         <v>2.7E-6</v>
       </c>
-      <c r="R598" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="S598" s="2">
+      <c r="R604" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S604" s="2">
         <v>11000</v>
       </c>
-      <c r="T598" s="2">
-        <v>5</v>
-      </c>
-      <c r="U598" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V598">
-        <v>0.05</v>
-      </c>
-      <c r="W598">
+      <c r="T604" s="2">
+        <v>5</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V604">
+        <v>0.05</v>
+      </c>
+      <c r="W604">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A605" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C605" s="2">
+        <v>7</v>
+      </c>
+      <c r="D605" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E605" s="2">
+        <v>7299</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G605">
+        <v>1</v>
+      </c>
+      <c r="H605" s="1">
+        <v>100</v>
+      </c>
+      <c r="I605">
+        <v>2.4</v>
+      </c>
+      <c r="J605">
+        <v>4.8</v>
+      </c>
+      <c r="K605">
+        <v>2.1</v>
+      </c>
+      <c r="L605" s="1">
+        <v>30</v>
+      </c>
+      <c r="M605" s="1">
+        <v>50</v>
+      </c>
+      <c r="N605" s="1">
+        <v>2</v>
+      </c>
+      <c r="O605" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P605" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q605" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R605" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S605" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T605" s="2">
+        <v>5</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V605">
+        <v>0.05</v>
+      </c>
+      <c r="W605">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A606" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C606" s="2">
+        <v>8</v>
+      </c>
+      <c r="D606" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E606" s="2">
+        <v>8501</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G606">
+        <v>1</v>
+      </c>
+      <c r="H606" s="1">
+        <v>100</v>
+      </c>
+      <c r="I606">
+        <v>2.4</v>
+      </c>
+      <c r="J606">
+        <v>4.8</v>
+      </c>
+      <c r="K606">
+        <v>2.1</v>
+      </c>
+      <c r="L606" s="1">
+        <v>30</v>
+      </c>
+      <c r="M606" s="1">
+        <v>50</v>
+      </c>
+      <c r="N606" s="1">
+        <v>2</v>
+      </c>
+      <c r="O606" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P606" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q606" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R606" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S606" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T606" s="2">
+        <v>5</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V606">
+        <v>0.05</v>
+      </c>
+      <c r="W606">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A607" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C607" s="2">
+        <v>9</v>
+      </c>
+      <c r="D607" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E607" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G607">
+        <v>1</v>
+      </c>
+      <c r="H607" s="1">
+        <v>100</v>
+      </c>
+      <c r="I607">
+        <v>2.4</v>
+      </c>
+      <c r="J607">
+        <v>4.8</v>
+      </c>
+      <c r="K607">
+        <v>2.1</v>
+      </c>
+      <c r="L607" s="1">
+        <v>30</v>
+      </c>
+      <c r="M607" s="1">
+        <v>50</v>
+      </c>
+      <c r="N607" s="1">
+        <v>2</v>
+      </c>
+      <c r="O607" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P607" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q607" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R607" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S607" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T607" s="2">
+        <v>5</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V607">
+        <v>0.05</v>
+      </c>
+      <c r="W607">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A608" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C608" s="2">
+        <v>10</v>
+      </c>
+      <c r="D608" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E608" s="2">
+        <v>1089.9000000000001</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G608">
+        <v>1</v>
+      </c>
+      <c r="H608" s="1">
+        <v>100</v>
+      </c>
+      <c r="I608">
+        <v>2.4</v>
+      </c>
+      <c r="J608">
+        <v>4.8</v>
+      </c>
+      <c r="K608">
+        <v>2.1</v>
+      </c>
+      <c r="L608" s="1">
+        <v>30</v>
+      </c>
+      <c r="M608" s="1">
+        <v>50</v>
+      </c>
+      <c r="N608" s="1">
+        <v>2</v>
+      </c>
+      <c r="O608" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P608" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q608" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R608" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S608" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T608" s="2">
+        <v>5</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V608">
+        <v>0.05</v>
+      </c>
+      <c r="W608">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A609" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C609" s="2">
+        <v>11</v>
+      </c>
+      <c r="D609" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E609" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609" s="1">
+        <v>100</v>
+      </c>
+      <c r="I609">
+        <v>2.4</v>
+      </c>
+      <c r="J609">
+        <v>4.8</v>
+      </c>
+      <c r="K609">
+        <v>2.1</v>
+      </c>
+      <c r="L609" s="1">
+        <v>30</v>
+      </c>
+      <c r="M609" s="1">
+        <v>50</v>
+      </c>
+      <c r="N609" s="1">
+        <v>2</v>
+      </c>
+      <c r="O609" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P609" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q609" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R609" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S609" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T609" s="2">
+        <v>5</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V609">
+        <v>0.05</v>
+      </c>
+      <c r="W609">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A610" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C610" s="2">
+        <v>12</v>
+      </c>
+      <c r="D610" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E610" s="2">
+        <v>13297</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610" s="1">
+        <v>100</v>
+      </c>
+      <c r="I610">
+        <v>2.4</v>
+      </c>
+      <c r="J610">
+        <v>4.8</v>
+      </c>
+      <c r="K610">
+        <v>2.1</v>
+      </c>
+      <c r="L610" s="1">
+        <v>30</v>
+      </c>
+      <c r="M610" s="1">
+        <v>50</v>
+      </c>
+      <c r="N610" s="1">
+        <v>2</v>
+      </c>
+      <c r="O610" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P610" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q610" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R610" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S610" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T610" s="2">
+        <v>5</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V610">
+        <v>0.05</v>
+      </c>
+      <c r="W610">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A611" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C611" s="2">
+        <v>13</v>
+      </c>
+      <c r="D611" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E611" s="2">
+        <v>14503</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G611">
+        <v>1</v>
+      </c>
+      <c r="H611" s="1">
+        <v>100</v>
+      </c>
+      <c r="I611">
+        <v>2.4</v>
+      </c>
+      <c r="J611">
+        <v>4.8</v>
+      </c>
+      <c r="K611">
+        <v>2.1</v>
+      </c>
+      <c r="L611" s="1">
+        <v>30</v>
+      </c>
+      <c r="M611" s="1">
+        <v>50</v>
+      </c>
+      <c r="N611" s="1">
+        <v>2</v>
+      </c>
+      <c r="O611" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P611" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q611" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R611" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S611" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T611" s="2">
+        <v>5</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V611">
+        <v>0.05</v>
+      </c>
+      <c r="W611">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A612" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C612" s="2">
+        <v>14</v>
+      </c>
+      <c r="D612" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E612" s="2">
+        <v>15698</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G612">
+        <v>1</v>
+      </c>
+      <c r="H612" s="1">
+        <v>100</v>
+      </c>
+      <c r="I612">
+        <v>2.4</v>
+      </c>
+      <c r="J612">
+        <v>4.8</v>
+      </c>
+      <c r="K612">
+        <v>2.1</v>
+      </c>
+      <c r="L612" s="1">
+        <v>30</v>
+      </c>
+      <c r="M612" s="1">
+        <v>50</v>
+      </c>
+      <c r="N612" s="1">
+        <v>2</v>
+      </c>
+      <c r="O612" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P612" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q612" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R612" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S612" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T612" s="2">
+        <v>5</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V612">
+        <v>0.05</v>
+      </c>
+      <c r="W612">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A613" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C613" s="2">
+        <v>15</v>
+      </c>
+      <c r="D613" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E613" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G613">
+        <v>1</v>
+      </c>
+      <c r="H613" s="1">
+        <v>100</v>
+      </c>
+      <c r="I613">
+        <v>2.4</v>
+      </c>
+      <c r="J613">
+        <v>4.8</v>
+      </c>
+      <c r="K613">
+        <v>2.1</v>
+      </c>
+      <c r="L613" s="1">
+        <v>30</v>
+      </c>
+      <c r="M613" s="1">
+        <v>50</v>
+      </c>
+      <c r="N613" s="1">
+        <v>2</v>
+      </c>
+      <c r="O613" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P613" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q613" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R613" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S613" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T613" s="2">
+        <v>5</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V613">
+        <v>0.05</v>
+      </c>
+      <c r="W613">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A614" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C614" s="2">
+        <v>16</v>
+      </c>
+      <c r="D614" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E614" s="2">
+        <v>104</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G614">
+        <v>1</v>
+      </c>
+      <c r="H614" s="1">
+        <v>100</v>
+      </c>
+      <c r="I614">
+        <v>2.4</v>
+      </c>
+      <c r="J614">
+        <v>4.8</v>
+      </c>
+      <c r="K614">
+        <v>2.1</v>
+      </c>
+      <c r="L614" s="1">
+        <v>30</v>
+      </c>
+      <c r="M614" s="1">
+        <v>50</v>
+      </c>
+      <c r="N614" s="1">
+        <v>2</v>
+      </c>
+      <c r="O614" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P614" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q614" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R614" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S614" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T614" s="2">
+        <v>5</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V614">
+        <v>0.05</v>
+      </c>
+      <c r="W614">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A615" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C615" s="2">
+        <v>17</v>
+      </c>
+      <c r="D615" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E615" s="2">
+        <v>1299</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615" s="1">
+        <v>100</v>
+      </c>
+      <c r="I615">
+        <v>2.4</v>
+      </c>
+      <c r="J615">
+        <v>4.8</v>
+      </c>
+      <c r="K615">
+        <v>2.1</v>
+      </c>
+      <c r="L615" s="1">
+        <v>30</v>
+      </c>
+      <c r="M615" s="1">
+        <v>50</v>
+      </c>
+      <c r="N615" s="1">
+        <v>2</v>
+      </c>
+      <c r="O615" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P615" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q615" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R615" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S615" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T615" s="2">
+        <v>5</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V615">
+        <v>0.05</v>
+      </c>
+      <c r="W615">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A616" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C616" s="2">
+        <v>18</v>
+      </c>
+      <c r="D616" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E616" s="2">
+        <v>2505</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G616">
+        <v>1</v>
+      </c>
+      <c r="H616" s="1">
+        <v>100</v>
+      </c>
+      <c r="I616">
+        <v>2.4</v>
+      </c>
+      <c r="J616">
+        <v>4.8</v>
+      </c>
+      <c r="K616">
+        <v>2.1</v>
+      </c>
+      <c r="L616" s="1">
+        <v>30</v>
+      </c>
+      <c r="M616" s="1">
+        <v>50</v>
+      </c>
+      <c r="N616" s="1">
+        <v>2</v>
+      </c>
+      <c r="O616" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P616" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q616" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R616" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S616" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T616" s="2">
+        <v>5</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V616">
+        <v>0.05</v>
+      </c>
+      <c r="W616">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A617" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C617" s="2">
+        <v>19</v>
+      </c>
+      <c r="D617" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" s="2">
+        <v>3703</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G617">
+        <v>1</v>
+      </c>
+      <c r="H617" s="1">
+        <v>100</v>
+      </c>
+      <c r="I617">
+        <v>2.4</v>
+      </c>
+      <c r="J617">
+        <v>4.8</v>
+      </c>
+      <c r="K617">
+        <v>2.1</v>
+      </c>
+      <c r="L617" s="1">
+        <v>30</v>
+      </c>
+      <c r="M617" s="1">
+        <v>50</v>
+      </c>
+      <c r="N617" s="1">
+        <v>2</v>
+      </c>
+      <c r="O617" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P617" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q617" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R617" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S617" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T617" s="2">
+        <v>5</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V617">
+        <v>0.05</v>
+      </c>
+      <c r="W617">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A618" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C618" s="2">
+        <v>20</v>
+      </c>
+      <c r="D618" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" s="2">
+        <v>4901</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G618">
+        <v>1</v>
+      </c>
+      <c r="H618" s="1">
+        <v>100</v>
+      </c>
+      <c r="I618">
+        <v>2.4</v>
+      </c>
+      <c r="J618">
+        <v>4.8</v>
+      </c>
+      <c r="K618">
+        <v>2.1</v>
+      </c>
+      <c r="L618" s="1">
+        <v>30</v>
+      </c>
+      <c r="M618" s="1">
+        <v>50</v>
+      </c>
+      <c r="N618" s="1">
+        <v>2</v>
+      </c>
+      <c r="O618" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P618" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q618" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R618" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S618" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T618" s="2">
+        <v>5</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V618">
+        <v>0.05</v>
+      </c>
+      <c r="W618">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A619" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C619" s="2">
+        <v>21</v>
+      </c>
+      <c r="D619" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E619" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G619">
+        <v>1</v>
+      </c>
+      <c r="H619" s="1">
+        <v>100</v>
+      </c>
+      <c r="I619">
+        <v>2.4</v>
+      </c>
+      <c r="J619">
+        <v>4.8</v>
+      </c>
+      <c r="K619">
+        <v>2.1</v>
+      </c>
+      <c r="L619" s="1">
+        <v>30</v>
+      </c>
+      <c r="M619" s="1">
+        <v>50</v>
+      </c>
+      <c r="N619" s="1">
+        <v>2</v>
+      </c>
+      <c r="O619" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P619" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q619" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R619" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S619" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T619" s="2">
+        <v>5</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V619">
+        <v>0.05</v>
+      </c>
+      <c r="W619">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A620" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C620" s="2">
+        <v>22</v>
+      </c>
+      <c r="D620" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E620" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620" s="1">
+        <v>100</v>
+      </c>
+      <c r="I620">
+        <v>2.4</v>
+      </c>
+      <c r="J620">
+        <v>4.8</v>
+      </c>
+      <c r="K620">
+        <v>2.1</v>
+      </c>
+      <c r="L620" s="1">
+        <v>30</v>
+      </c>
+      <c r="M620" s="1">
+        <v>50</v>
+      </c>
+      <c r="N620" s="1">
+        <v>2</v>
+      </c>
+      <c r="O620" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P620" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q620" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R620" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S620" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T620" s="2">
+        <v>5</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V620">
+        <v>0.05</v>
+      </c>
+      <c r="W620">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A621" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C621" s="2">
+        <v>23</v>
+      </c>
+      <c r="D621" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" s="2">
+        <v>8500</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621" s="1">
+        <v>100</v>
+      </c>
+      <c r="I621">
+        <v>2.4</v>
+      </c>
+      <c r="J621">
+        <v>4.8</v>
+      </c>
+      <c r="K621">
+        <v>2.1</v>
+      </c>
+      <c r="L621" s="1">
+        <v>30</v>
+      </c>
+      <c r="M621" s="1">
+        <v>50</v>
+      </c>
+      <c r="N621" s="1">
+        <v>2</v>
+      </c>
+      <c r="O621" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P621" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q621" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R621" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S621" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T621" s="2">
+        <v>5</v>
+      </c>
+      <c r="U621" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V621">
+        <v>0.05</v>
+      </c>
+      <c r="W621">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A622" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C622" s="2">
+        <v>24</v>
+      </c>
+      <c r="D622" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E622" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G622">
+        <v>1</v>
+      </c>
+      <c r="H622" s="1">
+        <v>100</v>
+      </c>
+      <c r="I622">
+        <v>2.4</v>
+      </c>
+      <c r="J622">
+        <v>4.8</v>
+      </c>
+      <c r="K622">
+        <v>2.1</v>
+      </c>
+      <c r="L622" s="1">
+        <v>30</v>
+      </c>
+      <c r="M622" s="1">
+        <v>50</v>
+      </c>
+      <c r="N622" s="1">
+        <v>2</v>
+      </c>
+      <c r="O622" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P622" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q622" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R622" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S622" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T622" s="2">
+        <v>5</v>
+      </c>
+      <c r="U622" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V622">
+        <v>0.05</v>
+      </c>
+      <c r="W622">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A623" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C623" s="2">
+        <v>25</v>
+      </c>
+      <c r="D623" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E623" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G623">
+        <v>1</v>
+      </c>
+      <c r="H623" s="1">
+        <v>100</v>
+      </c>
+      <c r="I623">
+        <v>2.4</v>
+      </c>
+      <c r="J623">
+        <v>4.8</v>
+      </c>
+      <c r="K623">
+        <v>2.1</v>
+      </c>
+      <c r="L623" s="1">
+        <v>30</v>
+      </c>
+      <c r="M623" s="1">
+        <v>50</v>
+      </c>
+      <c r="N623" s="1">
+        <v>2</v>
+      </c>
+      <c r="O623" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P623" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q623" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R623" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S623" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T623" s="2">
+        <v>5</v>
+      </c>
+      <c r="U623" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V623">
+        <v>0.05</v>
+      </c>
+      <c r="W623">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A624" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C624" s="2">
+        <v>26</v>
+      </c>
+      <c r="D624" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E624" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G624">
+        <v>1</v>
+      </c>
+      <c r="H624" s="1">
+        <v>100</v>
+      </c>
+      <c r="I624">
+        <v>2.4</v>
+      </c>
+      <c r="J624">
+        <v>4.8</v>
+      </c>
+      <c r="K624">
+        <v>2.1</v>
+      </c>
+      <c r="L624" s="1">
+        <v>30</v>
+      </c>
+      <c r="M624" s="1">
+        <v>50</v>
+      </c>
+      <c r="N624" s="1">
+        <v>2</v>
+      </c>
+      <c r="O624" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P624" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q624" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R624" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S624" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T624" s="2">
+        <v>5</v>
+      </c>
+      <c r="U624" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V624">
+        <v>0.05</v>
+      </c>
+      <c r="W624">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A625" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C625" s="2">
+        <v>27</v>
+      </c>
+      <c r="D625" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E625" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G625">
+        <v>1</v>
+      </c>
+      <c r="H625" s="1">
+        <v>100</v>
+      </c>
+      <c r="I625">
+        <v>2.4</v>
+      </c>
+      <c r="J625">
+        <v>4.8</v>
+      </c>
+      <c r="K625">
+        <v>2.1</v>
+      </c>
+      <c r="L625" s="1">
+        <v>30</v>
+      </c>
+      <c r="M625" s="1">
+        <v>50</v>
+      </c>
+      <c r="N625" s="1">
+        <v>2</v>
+      </c>
+      <c r="O625" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P625" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q625" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R625" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S625" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T625" s="2">
+        <v>5</v>
+      </c>
+      <c r="U625" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V625">
+        <v>0.05</v>
+      </c>
+      <c r="W625">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A626" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C626" s="2">
+        <v>28</v>
+      </c>
+      <c r="D626" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E626" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G626">
+        <v>1</v>
+      </c>
+      <c r="H626" s="1">
+        <v>100</v>
+      </c>
+      <c r="I626">
+        <v>2.4</v>
+      </c>
+      <c r="J626">
+        <v>4.8</v>
+      </c>
+      <c r="K626">
+        <v>2.1</v>
+      </c>
+      <c r="L626" s="1">
+        <v>30</v>
+      </c>
+      <c r="M626" s="1">
+        <v>50</v>
+      </c>
+      <c r="N626" s="1">
+        <v>2</v>
+      </c>
+      <c r="O626" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P626" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q626" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R626" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S626" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T626" s="2">
+        <v>5</v>
+      </c>
+      <c r="U626" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V626">
+        <v>0.05</v>
+      </c>
+      <c r="W626">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A627" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C627" s="2">
+        <v>29</v>
+      </c>
+      <c r="D627" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E627" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G627">
+        <v>1</v>
+      </c>
+      <c r="H627" s="1">
+        <v>100</v>
+      </c>
+      <c r="I627">
+        <v>2.4</v>
+      </c>
+      <c r="J627">
+        <v>4.8</v>
+      </c>
+      <c r="K627">
+        <v>2.1</v>
+      </c>
+      <c r="L627" s="1">
+        <v>30</v>
+      </c>
+      <c r="M627" s="1">
+        <v>50</v>
+      </c>
+      <c r="N627" s="1">
+        <v>2</v>
+      </c>
+      <c r="O627" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P627" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q627" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R627" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S627" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T627" s="2">
+        <v>5</v>
+      </c>
+      <c r="U627" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V627">
+        <v>0.05</v>
+      </c>
+      <c r="W627">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A628" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C628" s="2">
+        <v>30</v>
+      </c>
+      <c r="D628" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G628">
+        <v>1</v>
+      </c>
+      <c r="H628" s="1">
+        <v>100</v>
+      </c>
+      <c r="I628">
+        <v>2.4</v>
+      </c>
+      <c r="J628">
+        <v>4.8</v>
+      </c>
+      <c r="K628">
+        <v>2.1</v>
+      </c>
+      <c r="L628" s="1">
+        <v>30</v>
+      </c>
+      <c r="M628" s="1">
+        <v>50</v>
+      </c>
+      <c r="N628" s="1">
+        <v>2</v>
+      </c>
+      <c r="O628" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P628" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q628" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R628" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S628" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T628" s="2">
+        <v>5</v>
+      </c>
+      <c r="U628" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V628">
+        <v>0.05</v>
+      </c>
+      <c r="W628">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A629" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C629" s="2">
+        <v>1</v>
+      </c>
+      <c r="D629" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E629" s="2">
+        <v>104</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629" s="1">
+        <v>100</v>
+      </c>
+      <c r="I629">
+        <v>2.4</v>
+      </c>
+      <c r="J629">
+        <v>4.8</v>
+      </c>
+      <c r="K629">
+        <v>2.1</v>
+      </c>
+      <c r="L629" s="1">
+        <v>30</v>
+      </c>
+      <c r="M629" s="1">
+        <v>50</v>
+      </c>
+      <c r="N629" s="1">
+        <v>2</v>
+      </c>
+      <c r="O629" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P629" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q629" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R629" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S629" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T629" s="2">
+        <v>5</v>
+      </c>
+      <c r="U629" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V629">
+        <v>0.05</v>
+      </c>
+      <c r="W629">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A630" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C630" s="2">
+        <v>2</v>
+      </c>
+      <c r="D630" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E630" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G630">
+        <v>0</v>
+      </c>
+      <c r="H630" s="1">
+        <v>100</v>
+      </c>
+      <c r="I630">
+        <v>2.4</v>
+      </c>
+      <c r="J630">
+        <v>4.8</v>
+      </c>
+      <c r="K630">
+        <v>2.1</v>
+      </c>
+      <c r="L630" s="1">
+        <v>30</v>
+      </c>
+      <c r="M630" s="1">
+        <v>50</v>
+      </c>
+      <c r="N630" s="1">
+        <v>2</v>
+      </c>
+      <c r="O630" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P630" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q630" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R630" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S630" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T630" s="2">
+        <v>5</v>
+      </c>
+      <c r="U630" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V630">
+        <v>0.05</v>
+      </c>
+      <c r="W630">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A631" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C631" s="2">
+        <v>3</v>
+      </c>
+      <c r="D631" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E631" s="2">
+        <v>2502</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G631">
+        <v>0</v>
+      </c>
+      <c r="H631" s="1">
+        <v>100</v>
+      </c>
+      <c r="I631">
+        <v>2.4</v>
+      </c>
+      <c r="J631">
+        <v>4.8</v>
+      </c>
+      <c r="K631">
+        <v>2.1</v>
+      </c>
+      <c r="L631" s="1">
+        <v>30</v>
+      </c>
+      <c r="M631" s="1">
+        <v>50</v>
+      </c>
+      <c r="N631" s="1">
+        <v>2</v>
+      </c>
+      <c r="O631" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P631" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q631" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R631" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S631" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T631" s="2">
+        <v>5</v>
+      </c>
+      <c r="U631" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V631">
+        <v>0.05</v>
+      </c>
+      <c r="W631">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A632" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C632" s="2">
+        <v>4</v>
+      </c>
+      <c r="D632" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E632" s="2">
+        <v>3701</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G632">
+        <v>1</v>
+      </c>
+      <c r="H632" s="1">
+        <v>100</v>
+      </c>
+      <c r="I632">
+        <v>2.4</v>
+      </c>
+      <c r="J632">
+        <v>4.8</v>
+      </c>
+      <c r="K632">
+        <v>2.1</v>
+      </c>
+      <c r="L632" s="1">
+        <v>30</v>
+      </c>
+      <c r="M632" s="1">
+        <v>50</v>
+      </c>
+      <c r="N632" s="1">
+        <v>2</v>
+      </c>
+      <c r="O632" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P632" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q632" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R632" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S632" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T632" s="2">
+        <v>5</v>
+      </c>
+      <c r="U632" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V632">
+        <v>0.05</v>
+      </c>
+      <c r="W632">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A633" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C633" s="2">
+        <v>5</v>
+      </c>
+      <c r="D633" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E633" s="2">
+        <v>4905</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G633">
+        <v>1</v>
+      </c>
+      <c r="H633" s="1">
+        <v>100</v>
+      </c>
+      <c r="I633">
+        <v>2.4</v>
+      </c>
+      <c r="J633">
+        <v>4.8</v>
+      </c>
+      <c r="K633">
+        <v>2.1</v>
+      </c>
+      <c r="L633" s="1">
+        <v>30</v>
+      </c>
+      <c r="M633" s="1">
+        <v>50</v>
+      </c>
+      <c r="N633" s="1">
+        <v>2</v>
+      </c>
+      <c r="O633" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P633" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q633" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R633" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S633" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T633" s="2">
+        <v>5</v>
+      </c>
+      <c r="U633" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V633">
+        <v>0.05</v>
+      </c>
+      <c r="W633">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A634" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C634" s="2">
+        <v>6</v>
+      </c>
+      <c r="D634" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E634" s="2">
+        <v>6101</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G634">
+        <v>1</v>
+      </c>
+      <c r="H634" s="1">
+        <v>100</v>
+      </c>
+      <c r="I634">
+        <v>2.4</v>
+      </c>
+      <c r="J634">
+        <v>4.8</v>
+      </c>
+      <c r="K634">
+        <v>2.1</v>
+      </c>
+      <c r="L634" s="1">
+        <v>30</v>
+      </c>
+      <c r="M634" s="1">
+        <v>50</v>
+      </c>
+      <c r="N634" s="1">
+        <v>2</v>
+      </c>
+      <c r="O634" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P634" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q634" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R634" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S634" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T634" s="2">
+        <v>5</v>
+      </c>
+      <c r="U634" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V634">
+        <v>0.05</v>
+      </c>
+      <c r="W634">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A635" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C635" s="2">
+        <v>7</v>
+      </c>
+      <c r="D635" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E635" s="2">
+        <v>7301</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G635">
+        <v>1</v>
+      </c>
+      <c r="H635" s="1">
+        <v>100</v>
+      </c>
+      <c r="I635">
+        <v>2.4</v>
+      </c>
+      <c r="J635">
+        <v>4.8</v>
+      </c>
+      <c r="K635">
+        <v>2.1</v>
+      </c>
+      <c r="L635" s="1">
+        <v>30</v>
+      </c>
+      <c r="M635" s="1">
+        <v>50</v>
+      </c>
+      <c r="N635" s="1">
+        <v>2</v>
+      </c>
+      <c r="O635" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P635" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q635" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R635" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S635" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T635" s="2">
+        <v>5</v>
+      </c>
+      <c r="U635" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V635">
+        <v>0.05</v>
+      </c>
+      <c r="W635">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C636" s="2">
+        <v>8</v>
+      </c>
+      <c r="D636" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E636" s="2">
+        <v>8502</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G636">
+        <v>1</v>
+      </c>
+      <c r="H636" s="1">
+        <v>100</v>
+      </c>
+      <c r="I636">
+        <v>2.4</v>
+      </c>
+      <c r="J636">
+        <v>4.8</v>
+      </c>
+      <c r="K636">
+        <v>2.1</v>
+      </c>
+      <c r="L636" s="1">
+        <v>30</v>
+      </c>
+      <c r="M636" s="1">
+        <v>50</v>
+      </c>
+      <c r="N636" s="1">
+        <v>2</v>
+      </c>
+      <c r="O636" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P636" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q636" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R636" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S636" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T636" s="2">
+        <v>5</v>
+      </c>
+      <c r="U636" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V636">
+        <v>0.05</v>
+      </c>
+      <c r="W636">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A637" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C637" s="2">
+        <v>9</v>
+      </c>
+      <c r="D637" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E637" s="2">
+        <v>9703</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G637">
+        <v>1</v>
+      </c>
+      <c r="H637" s="1">
+        <v>100</v>
+      </c>
+      <c r="I637">
+        <v>2.4</v>
+      </c>
+      <c r="J637">
+        <v>4.8</v>
+      </c>
+      <c r="K637">
+        <v>2.1</v>
+      </c>
+      <c r="L637" s="1">
+        <v>30</v>
+      </c>
+      <c r="M637" s="1">
+        <v>50</v>
+      </c>
+      <c r="N637" s="1">
+        <v>2</v>
+      </c>
+      <c r="O637" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P637" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q637" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R637" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S637" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T637" s="2">
+        <v>5</v>
+      </c>
+      <c r="U637" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V637">
+        <v>0.05</v>
+      </c>
+      <c r="W637">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A638" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C638" s="2">
+        <v>10</v>
+      </c>
+      <c r="D638" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="2">
+        <v>10900</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G638">
+        <v>1</v>
+      </c>
+      <c r="H638" s="1">
+        <v>100</v>
+      </c>
+      <c r="I638">
+        <v>2.4</v>
+      </c>
+      <c r="J638">
+        <v>4.8</v>
+      </c>
+      <c r="K638">
+        <v>2.1</v>
+      </c>
+      <c r="L638" s="1">
+        <v>30</v>
+      </c>
+      <c r="M638" s="1">
+        <v>50</v>
+      </c>
+      <c r="N638" s="1">
+        <v>2</v>
+      </c>
+      <c r="O638" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P638" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q638" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R638" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S638" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T638" s="2">
+        <v>5</v>
+      </c>
+      <c r="U638" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V638">
+        <v>0.05</v>
+      </c>
+      <c r="W638">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C639" s="2">
+        <v>11</v>
+      </c>
+      <c r="D639" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G639">
+        <v>1</v>
+      </c>
+      <c r="H639" s="1">
+        <v>100</v>
+      </c>
+      <c r="I639">
+        <v>2.4</v>
+      </c>
+      <c r="J639">
+        <v>4.8</v>
+      </c>
+      <c r="K639">
+        <v>2.1</v>
+      </c>
+      <c r="L639" s="1">
+        <v>30</v>
+      </c>
+      <c r="M639" s="1">
+        <v>50</v>
+      </c>
+      <c r="N639" s="1">
+        <v>2</v>
+      </c>
+      <c r="O639" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P639" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q639" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R639" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S639" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T639" s="2">
+        <v>5</v>
+      </c>
+      <c r="U639" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V639">
+        <v>0.05</v>
+      </c>
+      <c r="W639">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C640" s="2">
+        <v>12</v>
+      </c>
+      <c r="D640" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E640" s="2">
+        <v>13299</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G640">
+        <v>1</v>
+      </c>
+      <c r="H640" s="1">
+        <v>100</v>
+      </c>
+      <c r="I640">
+        <v>2.4</v>
+      </c>
+      <c r="J640">
+        <v>4.8</v>
+      </c>
+      <c r="K640">
+        <v>2.1</v>
+      </c>
+      <c r="L640" s="1">
+        <v>30</v>
+      </c>
+      <c r="M640" s="1">
+        <v>50</v>
+      </c>
+      <c r="N640" s="1">
+        <v>2</v>
+      </c>
+      <c r="O640" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P640" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q640" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R640" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S640" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T640" s="2">
+        <v>5</v>
+      </c>
+      <c r="U640" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V640">
+        <v>0.05</v>
+      </c>
+      <c r="W640">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A641" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C641" s="2">
+        <v>13</v>
+      </c>
+      <c r="D641" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E641" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G641">
+        <v>1</v>
+      </c>
+      <c r="H641" s="1">
+        <v>100</v>
+      </c>
+      <c r="I641">
+        <v>2.4</v>
+      </c>
+      <c r="J641">
+        <v>4.8</v>
+      </c>
+      <c r="K641">
+        <v>2.1</v>
+      </c>
+      <c r="L641" s="1">
+        <v>30</v>
+      </c>
+      <c r="M641" s="1">
+        <v>50</v>
+      </c>
+      <c r="N641" s="1">
+        <v>2</v>
+      </c>
+      <c r="O641" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P641" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q641" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R641" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S641" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T641" s="2">
+        <v>5</v>
+      </c>
+      <c r="U641" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V641">
+        <v>0.05</v>
+      </c>
+      <c r="W641">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A642" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C642" s="2">
+        <v>14</v>
+      </c>
+      <c r="D642" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E642" s="2">
+        <v>15704</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642" s="1">
+        <v>100</v>
+      </c>
+      <c r="I642">
+        <v>2.4</v>
+      </c>
+      <c r="J642">
+        <v>4.8</v>
+      </c>
+      <c r="K642">
+        <v>2.1</v>
+      </c>
+      <c r="L642" s="1">
+        <v>30</v>
+      </c>
+      <c r="M642" s="1">
+        <v>50</v>
+      </c>
+      <c r="N642" s="1">
+        <v>2</v>
+      </c>
+      <c r="O642" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P642" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q642" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R642" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S642" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T642" s="2">
+        <v>5</v>
+      </c>
+      <c r="U642" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V642">
+        <v>0.05</v>
+      </c>
+      <c r="W642">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C643" s="2">
+        <v>15</v>
+      </c>
+      <c r="D643" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E643" s="2">
+        <v>16897</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G643">
+        <v>1</v>
+      </c>
+      <c r="H643" s="1">
+        <v>100</v>
+      </c>
+      <c r="I643">
+        <v>2.4</v>
+      </c>
+      <c r="J643">
+        <v>4.8</v>
+      </c>
+      <c r="K643">
+        <v>2.1</v>
+      </c>
+      <c r="L643" s="1">
+        <v>30</v>
+      </c>
+      <c r="M643" s="1">
+        <v>50</v>
+      </c>
+      <c r="N643" s="1">
+        <v>2</v>
+      </c>
+      <c r="O643" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P643" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q643" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R643" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S643" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T643" s="2">
+        <v>5</v>
+      </c>
+      <c r="U643" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V643">
+        <v>0.05</v>
+      </c>
+      <c r="W643">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A644" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C644" s="2">
+        <v>16</v>
+      </c>
+      <c r="D644" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E644" s="2">
+        <v>103</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G644">
+        <v>1</v>
+      </c>
+      <c r="H644" s="1">
+        <v>100</v>
+      </c>
+      <c r="I644">
+        <v>2.4</v>
+      </c>
+      <c r="J644">
+        <v>4.8</v>
+      </c>
+      <c r="K644">
+        <v>2.1</v>
+      </c>
+      <c r="L644" s="1">
+        <v>30</v>
+      </c>
+      <c r="M644" s="1">
+        <v>50</v>
+      </c>
+      <c r="N644" s="1">
+        <v>2</v>
+      </c>
+      <c r="O644" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P644" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q644" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R644" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S644" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T644" s="2">
+        <v>5</v>
+      </c>
+      <c r="U644" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V644">
+        <v>0.05</v>
+      </c>
+      <c r="W644">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C645" s="2">
+        <v>17</v>
+      </c>
+      <c r="D645" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E645" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G645">
+        <v>1</v>
+      </c>
+      <c r="H645" s="1">
+        <v>100</v>
+      </c>
+      <c r="I645">
+        <v>2.4</v>
+      </c>
+      <c r="J645">
+        <v>4.8</v>
+      </c>
+      <c r="K645">
+        <v>2.1</v>
+      </c>
+      <c r="L645" s="1">
+        <v>30</v>
+      </c>
+      <c r="M645" s="1">
+        <v>50</v>
+      </c>
+      <c r="N645" s="1">
+        <v>2</v>
+      </c>
+      <c r="O645" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P645" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q645" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R645" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S645" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T645" s="2">
+        <v>5</v>
+      </c>
+      <c r="U645" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V645">
+        <v>0.05</v>
+      </c>
+      <c r="W645">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A646" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C646" s="2">
+        <v>18</v>
+      </c>
+      <c r="D646" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E646" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G646">
+        <v>1</v>
+      </c>
+      <c r="H646" s="1">
+        <v>100</v>
+      </c>
+      <c r="I646">
+        <v>2.4</v>
+      </c>
+      <c r="J646">
+        <v>4.8</v>
+      </c>
+      <c r="K646">
+        <v>2.1</v>
+      </c>
+      <c r="L646" s="1">
+        <v>30</v>
+      </c>
+      <c r="M646" s="1">
+        <v>50</v>
+      </c>
+      <c r="N646" s="1">
+        <v>2</v>
+      </c>
+      <c r="O646" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P646" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q646" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R646" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S646" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T646" s="2">
+        <v>5</v>
+      </c>
+      <c r="U646" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V646">
+        <v>0.05</v>
+      </c>
+      <c r="W646">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A647" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C647" s="2">
+        <v>19</v>
+      </c>
+      <c r="D647" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E647" s="2">
+        <v>3698</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G647">
+        <v>1</v>
+      </c>
+      <c r="H647" s="1">
+        <v>100</v>
+      </c>
+      <c r="I647">
+        <v>2.4</v>
+      </c>
+      <c r="J647">
+        <v>4.8</v>
+      </c>
+      <c r="K647">
+        <v>2.1</v>
+      </c>
+      <c r="L647" s="1">
+        <v>30</v>
+      </c>
+      <c r="M647" s="1">
+        <v>50</v>
+      </c>
+      <c r="N647" s="1">
+        <v>2</v>
+      </c>
+      <c r="O647" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P647" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q647" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R647" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S647" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T647" s="2">
+        <v>5</v>
+      </c>
+      <c r="U647" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V647">
+        <v>0.05</v>
+      </c>
+      <c r="W647">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A648" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C648" s="2">
+        <v>20</v>
+      </c>
+      <c r="D648" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E648" s="2">
+        <v>4900</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G648">
+        <v>1</v>
+      </c>
+      <c r="H648" s="1">
+        <v>100</v>
+      </c>
+      <c r="I648">
+        <v>2.4</v>
+      </c>
+      <c r="J648">
+        <v>4.8</v>
+      </c>
+      <c r="K648">
+        <v>2.1</v>
+      </c>
+      <c r="L648" s="1">
+        <v>30</v>
+      </c>
+      <c r="M648" s="1">
+        <v>50</v>
+      </c>
+      <c r="N648" s="1">
+        <v>2</v>
+      </c>
+      <c r="O648" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P648" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q648" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R648" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S648" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T648" s="2">
+        <v>5</v>
+      </c>
+      <c r="U648" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V648">
+        <v>0.05</v>
+      </c>
+      <c r="W648">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A649" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C649" s="2">
+        <v>21</v>
+      </c>
+      <c r="D649" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E649" s="2">
+        <v>6100</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G649">
+        <v>1</v>
+      </c>
+      <c r="H649" s="1">
+        <v>100</v>
+      </c>
+      <c r="I649">
+        <v>2.4</v>
+      </c>
+      <c r="J649">
+        <v>4.8</v>
+      </c>
+      <c r="K649">
+        <v>2.1</v>
+      </c>
+      <c r="L649" s="1">
+        <v>30</v>
+      </c>
+      <c r="M649" s="1">
+        <v>50</v>
+      </c>
+      <c r="N649" s="1">
+        <v>2</v>
+      </c>
+      <c r="O649" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P649" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q649" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R649" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S649" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T649" s="2">
+        <v>5</v>
+      </c>
+      <c r="U649" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V649">
+        <v>0.05</v>
+      </c>
+      <c r="W649">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C650" s="2">
+        <v>22</v>
+      </c>
+      <c r="D650" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E650" s="2">
+        <v>7300</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G650">
+        <v>1</v>
+      </c>
+      <c r="H650" s="1">
+        <v>100</v>
+      </c>
+      <c r="I650">
+        <v>2.4</v>
+      </c>
+      <c r="J650">
+        <v>4.8</v>
+      </c>
+      <c r="K650">
+        <v>2.1</v>
+      </c>
+      <c r="L650" s="1">
+        <v>30</v>
+      </c>
+      <c r="M650" s="1">
+        <v>50</v>
+      </c>
+      <c r="N650" s="1">
+        <v>2</v>
+      </c>
+      <c r="O650" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P650" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q650" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R650" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S650" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T650" s="2">
+        <v>5</v>
+      </c>
+      <c r="U650" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V650">
+        <v>0.05</v>
+      </c>
+      <c r="W650">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C651" s="2">
+        <v>23</v>
+      </c>
+      <c r="D651" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E651" s="2">
+        <v>8499</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G651">
+        <v>1</v>
+      </c>
+      <c r="H651" s="1">
+        <v>100</v>
+      </c>
+      <c r="I651">
+        <v>2.4</v>
+      </c>
+      <c r="J651">
+        <v>4.8</v>
+      </c>
+      <c r="K651">
+        <v>2.1</v>
+      </c>
+      <c r="L651" s="1">
+        <v>30</v>
+      </c>
+      <c r="M651" s="1">
+        <v>50</v>
+      </c>
+      <c r="N651" s="1">
+        <v>2</v>
+      </c>
+      <c r="O651" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P651" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q651" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R651" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S651" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T651" s="2">
+        <v>5</v>
+      </c>
+      <c r="U651" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V651">
+        <v>0.05</v>
+      </c>
+      <c r="W651">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C652" s="2">
+        <v>24</v>
+      </c>
+      <c r="D652" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E652" s="2">
+        <v>9699</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G652">
+        <v>1</v>
+      </c>
+      <c r="H652" s="1">
+        <v>100</v>
+      </c>
+      <c r="I652">
+        <v>2.4</v>
+      </c>
+      <c r="J652">
+        <v>4.8</v>
+      </c>
+      <c r="K652">
+        <v>2.1</v>
+      </c>
+      <c r="L652" s="1">
+        <v>30</v>
+      </c>
+      <c r="M652" s="1">
+        <v>50</v>
+      </c>
+      <c r="N652" s="1">
+        <v>2</v>
+      </c>
+      <c r="O652" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P652" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q652" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R652" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S652" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T652" s="2">
+        <v>5</v>
+      </c>
+      <c r="U652" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V652">
+        <v>0.05</v>
+      </c>
+      <c r="W652">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C653" s="2">
+        <v>25</v>
+      </c>
+      <c r="D653" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E653" s="2">
+        <v>10899</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G653">
+        <v>1</v>
+      </c>
+      <c r="H653" s="1">
+        <v>100</v>
+      </c>
+      <c r="I653">
+        <v>2.4</v>
+      </c>
+      <c r="J653">
+        <v>4.8</v>
+      </c>
+      <c r="K653">
+        <v>2.1</v>
+      </c>
+      <c r="L653" s="1">
+        <v>30</v>
+      </c>
+      <c r="M653" s="1">
+        <v>50</v>
+      </c>
+      <c r="N653" s="1">
+        <v>2</v>
+      </c>
+      <c r="O653" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P653" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q653" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R653" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S653" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T653" s="2">
+        <v>5</v>
+      </c>
+      <c r="U653" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V653">
+        <v>0.05</v>
+      </c>
+      <c r="W653">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C654" s="2">
+        <v>26</v>
+      </c>
+      <c r="D654" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E654" s="2">
+        <v>12098</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654" s="1">
+        <v>100</v>
+      </c>
+      <c r="I654">
+        <v>2.4</v>
+      </c>
+      <c r="J654">
+        <v>4.8</v>
+      </c>
+      <c r="K654">
+        <v>2.1</v>
+      </c>
+      <c r="L654" s="1">
+        <v>30</v>
+      </c>
+      <c r="M654" s="1">
+        <v>50</v>
+      </c>
+      <c r="N654" s="1">
+        <v>2</v>
+      </c>
+      <c r="O654" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P654" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q654" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R654" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S654" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T654" s="2">
+        <v>5</v>
+      </c>
+      <c r="U654" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V654">
+        <v>0.05</v>
+      </c>
+      <c r="W654">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C655" s="2">
+        <v>27</v>
+      </c>
+      <c r="D655" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E655" s="2">
+        <v>13298</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G655">
+        <v>1</v>
+      </c>
+      <c r="H655" s="1">
+        <v>100</v>
+      </c>
+      <c r="I655">
+        <v>2.4</v>
+      </c>
+      <c r="J655">
+        <v>4.8</v>
+      </c>
+      <c r="K655">
+        <v>2.1</v>
+      </c>
+      <c r="L655" s="1">
+        <v>30</v>
+      </c>
+      <c r="M655" s="1">
+        <v>50</v>
+      </c>
+      <c r="N655" s="1">
+        <v>2</v>
+      </c>
+      <c r="O655" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P655" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q655" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R655" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S655" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T655" s="2">
+        <v>5</v>
+      </c>
+      <c r="U655" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V655">
+        <v>0.05</v>
+      </c>
+      <c r="W655">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C656" s="2">
+        <v>28</v>
+      </c>
+      <c r="D656" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E656" s="2">
+        <v>14498</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G656">
+        <v>1</v>
+      </c>
+      <c r="H656" s="1">
+        <v>100</v>
+      </c>
+      <c r="I656">
+        <v>2.4</v>
+      </c>
+      <c r="J656">
+        <v>4.8</v>
+      </c>
+      <c r="K656">
+        <v>2.1</v>
+      </c>
+      <c r="L656" s="1">
+        <v>30</v>
+      </c>
+      <c r="M656" s="1">
+        <v>50</v>
+      </c>
+      <c r="N656" s="1">
+        <v>2</v>
+      </c>
+      <c r="O656" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P656" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q656" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R656" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S656" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T656" s="2">
+        <v>5</v>
+      </c>
+      <c r="U656" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V656">
+        <v>0.05</v>
+      </c>
+      <c r="W656">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C657" s="2">
+        <v>29</v>
+      </c>
+      <c r="D657" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E657" s="2">
+        <v>15697</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G657">
+        <v>1</v>
+      </c>
+      <c r="H657" s="1">
+        <v>100</v>
+      </c>
+      <c r="I657">
+        <v>2.4</v>
+      </c>
+      <c r="J657">
+        <v>4.8</v>
+      </c>
+      <c r="K657">
+        <v>2.1</v>
+      </c>
+      <c r="L657" s="1">
+        <v>30</v>
+      </c>
+      <c r="M657" s="1">
+        <v>50</v>
+      </c>
+      <c r="N657" s="1">
+        <v>2</v>
+      </c>
+      <c r="O657" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P657" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q657" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R657" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S657" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T657" s="2">
+        <v>5</v>
+      </c>
+      <c r="U657" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V657">
+        <v>0.05</v>
+      </c>
+      <c r="W657">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="658" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C658" s="2">
+        <v>30</v>
+      </c>
+      <c r="D658" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E658" s="2">
+        <v>16896</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G658">
+        <v>1</v>
+      </c>
+      <c r="H658" s="1">
+        <v>100</v>
+      </c>
+      <c r="I658">
+        <v>2.4</v>
+      </c>
+      <c r="J658">
+        <v>4.8</v>
+      </c>
+      <c r="K658">
+        <v>2.1</v>
+      </c>
+      <c r="L658" s="1">
+        <v>30</v>
+      </c>
+      <c r="M658" s="1">
+        <v>50</v>
+      </c>
+      <c r="N658" s="1">
+        <v>2</v>
+      </c>
+      <c r="O658" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P658" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q658" s="1">
+        <f t="shared" si="64"/>
+        <v>2.7E-6</v>
+      </c>
+      <c r="R658" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S658" s="2">
+        <v>11000</v>
+      </c>
+      <c r="T658" s="2">
+        <v>5</v>
+      </c>
+      <c r="U658" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V658">
+        <v>0.05</v>
+      </c>
+      <c r="W658">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y533"/>
+  <autoFilter ref="A1:Y593"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -456,11 +456,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1049,11 +1050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2064877952"/>
-        <c:axId val="-2113033728"/>
+        <c:axId val="-2044850000"/>
+        <c:axId val="-2044846592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2064877952"/>
+        <c:axId val="-2044850000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2113033728"/>
+        <c:crossAx val="-2044846592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1104,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113033728"/>
+        <c:axId val="-2044846592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2064877952"/>
+        <c:crossAx val="-2044850000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +1812,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,10 +2099,10 @@
   <dimension ref="A1:Y658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D580" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D613" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D592" sqref="D592"/>
+      <selection pane="bottomRight" activeCell="F609" sqref="F609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46986,7 +46987,7 @@
         <v>1</v>
       </c>
       <c r="E608" s="2">
-        <v>1089.9000000000001</v>
+        <v>1089</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>80</v>
@@ -47412,7 +47413,7 @@
         <v>88</v>
       </c>
       <c r="C614" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D614" s="2" t="b">
         <v>1</v>
@@ -47424,7 +47425,7 @@
         <v>80</v>
       </c>
       <c r="G614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H614" s="1">
         <v>100</v>
@@ -47484,7 +47485,7 @@
         <v>88</v>
       </c>
       <c r="C615" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D615" s="2" t="b">
         <v>0</v>
@@ -47496,7 +47497,7 @@
         <v>80</v>
       </c>
       <c r="G615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H615" s="1">
         <v>100</v>
@@ -47556,7 +47557,7 @@
         <v>88</v>
       </c>
       <c r="C616" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D616" s="2" t="b">
         <v>0</v>
@@ -47567,8 +47568,8 @@
       <c r="F616" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G616">
-        <v>1</v>
+      <c r="G616" s="4">
+        <v>0</v>
       </c>
       <c r="H616" s="1">
         <v>100</v>
@@ -47628,7 +47629,7 @@
         <v>88</v>
       </c>
       <c r="C617" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D617" s="2" t="b">
         <v>1</v>
@@ -47700,7 +47701,7 @@
         <v>88</v>
       </c>
       <c r="C618" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D618" s="2" t="b">
         <v>1</v>
@@ -47772,7 +47773,7 @@
         <v>88</v>
       </c>
       <c r="C619" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D619" s="2" t="b">
         <v>1</v>
@@ -47844,7 +47845,7 @@
         <v>88</v>
       </c>
       <c r="C620" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D620" s="2" t="b">
         <v>1</v>
@@ -47916,7 +47917,7 @@
         <v>88</v>
       </c>
       <c r="C621" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D621" s="2" t="b">
         <v>1</v>
@@ -47988,7 +47989,7 @@
         <v>88</v>
       </c>
       <c r="C622" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D622" s="2" t="b">
         <v>1</v>
@@ -48060,7 +48061,7 @@
         <v>88</v>
       </c>
       <c r="C623" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D623" s="2" t="b">
         <v>1</v>
@@ -48132,7 +48133,7 @@
         <v>88</v>
       </c>
       <c r="C624" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D624" s="2" t="b">
         <v>1</v>
@@ -48204,7 +48205,7 @@
         <v>88</v>
       </c>
       <c r="C625" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D625" s="2" t="b">
         <v>1</v>
@@ -48276,7 +48277,7 @@
         <v>88</v>
       </c>
       <c r="C626" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D626" s="2" t="b">
         <v>1</v>
@@ -48348,7 +48349,7 @@
         <v>88</v>
       </c>
       <c r="C627" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D627" s="2" t="b">
         <v>1</v>
@@ -48420,7 +48421,7 @@
         <v>88</v>
       </c>
       <c r="C628" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D628" s="2" t="b">
         <v>1</v>
@@ -49572,7 +49573,7 @@
         <v>84</v>
       </c>
       <c r="C644" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D644" s="2" t="b">
         <v>1</v>
@@ -49584,7 +49585,7 @@
         <v>80</v>
       </c>
       <c r="G644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H644" s="1">
         <v>100</v>
@@ -49621,7 +49622,7 @@
         <v>1</v>
       </c>
       <c r="S644" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T644" s="2">
         <v>5</v>
@@ -49644,7 +49645,7 @@
         <v>84</v>
       </c>
       <c r="C645" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D645" s="2" t="b">
         <v>1</v>
@@ -49656,7 +49657,7 @@
         <v>80</v>
       </c>
       <c r="G645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H645" s="1">
         <v>100</v>
@@ -49693,7 +49694,7 @@
         <v>1</v>
       </c>
       <c r="S645" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T645" s="2">
         <v>5</v>
@@ -49716,7 +49717,7 @@
         <v>84</v>
       </c>
       <c r="C646" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D646" s="2" t="b">
         <v>1</v>
@@ -49728,7 +49729,7 @@
         <v>80</v>
       </c>
       <c r="G646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H646" s="1">
         <v>100</v>
@@ -49765,7 +49766,7 @@
         <v>1</v>
       </c>
       <c r="S646" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T646" s="2">
         <v>5</v>
@@ -49788,7 +49789,7 @@
         <v>84</v>
       </c>
       <c r="C647" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D647" s="2" t="b">
         <v>1</v>
@@ -49837,7 +49838,7 @@
         <v>1</v>
       </c>
       <c r="S647" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T647" s="2">
         <v>5</v>
@@ -49860,7 +49861,7 @@
         <v>84</v>
       </c>
       <c r="C648" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D648" s="2" t="b">
         <v>1</v>
@@ -49909,7 +49910,7 @@
         <v>1</v>
       </c>
       <c r="S648" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T648" s="2">
         <v>5</v>
@@ -49932,7 +49933,7 @@
         <v>84</v>
       </c>
       <c r="C649" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D649" s="2" t="b">
         <v>0</v>
@@ -49981,7 +49982,7 @@
         <v>1</v>
       </c>
       <c r="S649" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T649" s="2">
         <v>5</v>
@@ -50004,7 +50005,7 @@
         <v>84</v>
       </c>
       <c r="C650" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D650" s="2" t="b">
         <v>1</v>
@@ -50053,7 +50054,7 @@
         <v>1</v>
       </c>
       <c r="S650" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T650" s="2">
         <v>5</v>
@@ -50076,7 +50077,7 @@
         <v>84</v>
       </c>
       <c r="C651" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D651" s="2" t="b">
         <v>1</v>
@@ -50125,7 +50126,7 @@
         <v>1</v>
       </c>
       <c r="S651" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T651" s="2">
         <v>5</v>
@@ -50148,7 +50149,7 @@
         <v>84</v>
       </c>
       <c r="C652" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D652" s="2" t="b">
         <v>1</v>
@@ -50197,7 +50198,7 @@
         <v>1</v>
       </c>
       <c r="S652" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T652" s="2">
         <v>5</v>
@@ -50220,7 +50221,7 @@
         <v>84</v>
       </c>
       <c r="C653" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D653" s="2" t="b">
         <v>1</v>
@@ -50269,7 +50270,7 @@
         <v>1</v>
       </c>
       <c r="S653" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T653" s="2">
         <v>5</v>
@@ -50292,7 +50293,7 @@
         <v>84</v>
       </c>
       <c r="C654" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D654" s="2" t="b">
         <v>1</v>
@@ -50341,7 +50342,7 @@
         <v>1</v>
       </c>
       <c r="S654" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T654" s="2">
         <v>5</v>
@@ -50364,7 +50365,7 @@
         <v>84</v>
       </c>
       <c r="C655" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D655" s="2" t="b">
         <v>1</v>
@@ -50413,7 +50414,7 @@
         <v>1</v>
       </c>
       <c r="S655" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T655" s="2">
         <v>5</v>
@@ -50436,7 +50437,7 @@
         <v>84</v>
       </c>
       <c r="C656" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D656" s="2" t="b">
         <v>1</v>
@@ -50485,7 +50486,7 @@
         <v>1</v>
       </c>
       <c r="S656" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T656" s="2">
         <v>5</v>
@@ -50508,7 +50509,7 @@
         <v>84</v>
       </c>
       <c r="C657" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D657" s="2" t="b">
         <v>1</v>
@@ -50557,7 +50558,7 @@
         <v>1</v>
       </c>
       <c r="S657" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T657" s="2">
         <v>5</v>
@@ -50580,7 +50581,7 @@
         <v>84</v>
       </c>
       <c r="C658" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D658" s="2" t="b">
         <v>1</v>
@@ -50629,7 +50630,7 @@
         <v>1</v>
       </c>
       <c r="S658" s="2">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="T658" s="2">
         <v>5</v>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -2098,11 +2098,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y658"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D613" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D596" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F609" sqref="F609"/>
+      <selection pane="bottomRight" activeCell="E622" sqref="E622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46987,7 +46987,7 @@
         <v>1</v>
       </c>
       <c r="E608" s="2">
-        <v>1089</v>
+        <v>10890</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>80</v>

--- a/scripts/file_params.xlsx
+++ b/scripts/file_params.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicotondolo/untitled folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicotondolo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="file_params" sheetId="1" r:id="rId1"/>
@@ -1050,11 +1050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2044850000"/>
-        <c:axId val="-2044846592"/>
+        <c:axId val="-2020832656"/>
+        <c:axId val="-2002862240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2044850000"/>
+        <c:axId val="-2020832656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044846592"/>
+        <c:crossAx val="-2002862240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044846592"/>
+        <c:axId val="-2002862240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044850000"/>
+        <c:crossAx val="-2020832656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,10 +2099,10 @@
   <dimension ref="A1:Y658"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D596" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D537" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E622" sqref="E622"/>
+      <selection pane="bottomRight" activeCell="F556" sqref="F556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42955,7 +42955,7 @@
         <v>1</v>
       </c>
       <c r="E552" s="2">
-        <v>102</v>
+        <v>1302</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>80</v>
@@ -43027,7 +43027,7 @@
         <v>1</v>
       </c>
       <c r="E553" s="2">
-        <v>102</v>
+        <v>2502</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>80</v>
@@ -43099,7 +43099,7 @@
         <v>1</v>
       </c>
       <c r="E554" s="2">
-        <v>102</v>
+        <v>3702</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>80</v>
@@ -43171,7 +43171,7 @@
         <v>1</v>
       </c>
       <c r="E555" s="2">
-        <v>102</v>
+        <v>4902</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>80</v>
@@ -43243,7 +43243,7 @@
         <v>1</v>
       </c>
       <c r="E556" s="2">
-        <v>102</v>
+        <v>6102</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>80</v>
@@ -43315,7 +43315,7 @@
         <v>1</v>
       </c>
       <c r="E557" s="2">
-        <v>102</v>
+        <v>7302</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>80</v>
